--- a/8. Harmonising standards/Harmonizing SXI-DF.xlsx
+++ b/8. Harmonising standards/Harmonizing SXI-DF.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gta\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sxDaten\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5293ED0E-6CB2-47DD-8237-F30E75204597}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEEC653-5C2C-4941-99FB-21E6BA2EFA32}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Zielstellung" sheetId="2" r:id="rId1"/>
     <sheet name="Datenstruktur" sheetId="1" r:id="rId2"/>
+    <sheet name="Prozess" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Vertrieblich</t>
   </si>
@@ -64,6 +65,36 @@
   </si>
   <si>
     <t>Modellierung und Saldenlistenimport erfordert DataFactory</t>
+  </si>
+  <si>
+    <t>Download SXI Logik als XML Dateien möglich</t>
+  </si>
+  <si>
+    <t>NVARCHAR muss in SXI eingestellt werden</t>
+  </si>
+  <si>
+    <t>Upload von geänderten Dateien pro Kunde mit Versionierung</t>
+  </si>
+  <si>
+    <t>Besser create Script für Datenbank für flexible Tabellendefinition ?</t>
+  </si>
+  <si>
+    <t>Webserver Yeti läuft als Dienst auf Port 8089</t>
+  </si>
+  <si>
+    <t>Vadin generiert HTML Seiten</t>
+  </si>
+  <si>
+    <t>Jenkins, Nexus, Maeven für Build -&gt; auf Azure verfügbar - in VM, Container, Service ?</t>
+  </si>
+  <si>
+    <t>Repo im Stash auf Azure</t>
+  </si>
+  <si>
+    <t>Beispiel Greif Velux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">willl Power BI für PSI Penta, </t>
   </si>
 </sst>
 </file>
@@ -5460,10 +5491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57257774-D818-4A13-91F1-A7DCB0C009FC}">
-  <dimension ref="B2:N45"/>
+  <dimension ref="B2:N51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5520,6 +5551,16 @@
         <v>9</v>
       </c>
     </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5540,4 +5581,59 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71006EA9-40F6-4D3A-95DF-25D6B75326D9}">
+  <dimension ref="B4:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/8. Harmonising standards/Harmonizing SXI-DF.xlsx
+++ b/8. Harmonising standards/Harmonizing SXI-DF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sxDaten\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEEC653-5C2C-4941-99FB-21E6BA2EFA32}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5752E4DA-598A-49B3-851B-4ADF26B2AF5E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
   </bookViews>
@@ -164,13 +164,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -232,13 +232,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -605,15 +605,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -628,7 +628,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2200275" y="3105150"/>
+          <a:off x="2171700" y="4124325"/>
           <a:ext cx="3057525" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -663,7 +663,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>Vetragsverwaltung</a:t>
+            <a:t>Vertragsverwaltung</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -674,13 +674,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -742,13 +742,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -802,13 +802,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -862,13 +862,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -922,13 +922,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -977,13 +977,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1030,13 +1030,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1082,15 +1082,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1105,7 +1105,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2200275" y="3390900"/>
+          <a:off x="2162175" y="4419600"/>
           <a:ext cx="3057525" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1149,16 +1149,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1173,8 +1173,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2190750" y="3971925"/>
-          <a:ext cx="3057525" cy="238125"/>
+          <a:off x="428625" y="3457575"/>
+          <a:ext cx="4838700" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1218,15 +1218,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1241,8 +1241,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5505451" y="2381250"/>
-          <a:ext cx="1104900" cy="685800"/>
+          <a:off x="5572126" y="2209800"/>
+          <a:ext cx="1104900" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartExtract">
           <a:avLst/>
@@ -1282,14 +1282,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>42863</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1306,9 +1306,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5229225" y="2709863"/>
-          <a:ext cx="552451" cy="14287"/>
+        <a:xfrm flipH="1">
+          <a:off x="5229225" y="2614613"/>
+          <a:ext cx="619126" cy="95250"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1334,15 +1334,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1357,7 +1357,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2200275" y="3676650"/>
+          <a:off x="2171700" y="4695825"/>
           <a:ext cx="3057525" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1402,15 +1402,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1425,7 +1425,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2181225" y="4543425"/>
+          <a:off x="2162175" y="5314950"/>
           <a:ext cx="3057525" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1477,15 +1477,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1500,7 +1500,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2181225" y="4229100"/>
+          <a:off x="2171700" y="4972050"/>
           <a:ext cx="3057525" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1551,16 +1551,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1575,8 +1575,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9144000" y="3543300"/>
-          <a:ext cx="3057525" cy="1152525"/>
+          <a:off x="5781675" y="3362325"/>
+          <a:ext cx="5886450" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1622,7 +1622,7 @@
         </a:p>
         <a:p>
           <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100">
+          <a:endParaRPr lang="de-DE" sz="1100" baseline="0">
             <a:solidFill>
               <a:schemeClr val="lt1"/>
             </a:solidFill>
@@ -1631,81 +1631,6 @@
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>GuV - Bilanz</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> Strukturen</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Kostenstellengruppierung</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Debitorenklassifizerung</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Kreditorenklassifizierung</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -1714,13 +1639,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1789,13 +1714,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1864,13 +1789,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1953,13 +1878,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2026,16 +1951,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2050,8 +1975,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9153525" y="4857750"/>
-          <a:ext cx="3057525" cy="295275"/>
+          <a:off x="5476875" y="6648450"/>
+          <a:ext cx="1552575" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2170,6 +2095,582 @@
             <a:rPr lang="de-DE" sz="1100"/>
             <a:t>Drilldown</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rechteck 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D2B317C-2F4D-4554-9898-980134A34837}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="3105150"/>
+          <a:ext cx="4829175" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Umlagen</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rechteck 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA24C6A-8015-438B-AC86-F05E1227A437}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791200" y="3819525"/>
+          <a:ext cx="1771649" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Kostenstellen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Hierarchie</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Umlagestufe</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Haupt/Hilfskostenstelle</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rechteck 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C70EEF34-1AE5-4A39-9833-0AEF65150D0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="3819525"/>
+          <a:ext cx="4838700" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Parameter (Umlageschlüssel,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t> Bemessungsgrenzen, etc.)</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rechteck 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8193E90-B7CF-40B7-9B65-E66CDC517D39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7600950" y="3819525"/>
+          <a:ext cx="1771649" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bilanz / GuV</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Hierarchien</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Wechselkonten</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Gruppenkonten</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>fix / variabel</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rechteck 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{888D1F15-8A50-4815-AF98-E339527BD02D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9439275" y="3819525"/>
+          <a:ext cx="2257425" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Debitoren / Kreditoren</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IC Zugehörigkeit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> zeitabhängig</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Gruppierung zu Leitkunde</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5491,10 +5992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57257774-D818-4A13-91F1-A7DCB0C009FC}">
-  <dimension ref="B2:N51"/>
+  <dimension ref="B2:N57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5536,28 +6037,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
         <v>20</v>
       </c>
     </row>

--- a/8. Harmonising standards/Harmonizing SXI-DF.xlsx
+++ b/8. Harmonising standards/Harmonizing SXI-DF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sxDaten\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5752E4DA-598A-49B3-851B-4ADF26B2AF5E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BD28AE-FD41-4B45-99FA-D2CC41105374}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" activeTab="2" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Zielstellung" sheetId="2" r:id="rId1"/>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>Vertrieblich</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Technisch</t>
   </si>
@@ -91,10 +88,79 @@
     <t>Repo im Stash auf Azure</t>
   </si>
   <si>
-    <t>Beispiel Greif Velux</t>
+    <t>Eigener Vertrieb</t>
   </si>
   <si>
-    <t xml:space="preserve">willl Power BI für PSI Penta, </t>
+    <t xml:space="preserve">Beispiele </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greif Velux - willl Power BI für PSI Penta, </t>
+  </si>
+  <si>
+    <t>SFZ - Ablösung Professional Planner</t>
+  </si>
+  <si>
+    <t>SXI</t>
+  </si>
+  <si>
+    <t>Prozess der Zusammenführung</t>
+  </si>
+  <si>
+    <t>Arbeitsabläufe</t>
+  </si>
+  <si>
+    <t>Jeder Mitarbeiter kann Datev incl. GuV- und Liquiditätsplanung komplett einrichten</t>
+  </si>
+  <si>
+    <t>Ziele</t>
+  </si>
+  <si>
+    <t>Die Einrichtung der kompletten Lösungen für Datev dauert nicht länger als eine Stunde.</t>
+  </si>
+  <si>
+    <t>Einheitliche interne Startseite</t>
+  </si>
+  <si>
+    <t>PowerBI Bericht für Kundenstammdaten mit Kennzahlen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abrechnungsprozess </t>
+  </si>
+  <si>
+    <t>Klare Rollen in jedem Projekt (Projektleiter, Baumeister, Betrieb, Support)</t>
+  </si>
+  <si>
+    <t>Supportteam deckt Gesamtlösung ab</t>
+  </si>
+  <si>
+    <t>einheitliches Formular Sonderabrechnung</t>
+  </si>
+  <si>
+    <t>Einheitliche Methodik - Kleinprojekt / Großprojekt</t>
+  </si>
+  <si>
+    <t>Lösungen können weitgehend von Kundenadmin installiert werden, saxess konfiguriert nur Logik</t>
+  </si>
+  <si>
+    <t>Gemeinsames Repository pro Kunden bei Großprojekten</t>
+  </si>
+  <si>
+    <t>Download von Integrationsmodulen nach Lizenz</t>
+  </si>
+  <si>
+    <t>Gemeinsames Lizenzmodell und Lizenzverwaltung</t>
+  </si>
+  <si>
+    <t>Sicherung angepasster Integrationsmodule  online</t>
+  </si>
+  <si>
+    <t>Gemeinsamer WebServer ?</t>
+  </si>
+  <si>
+    <t>Zentrales Monitoring und Logging</t>
+  </si>
+  <si>
+    <t>Download von DataFactory Modulen nach Lizenz</t>
   </si>
 </sst>
 </file>
@@ -138,9 +204,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1218,15 +1290,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>676276</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>642938</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>223838</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1241,8 +1313,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5572126" y="2209800"/>
-          <a:ext cx="1104900" cy="809625"/>
+          <a:off x="5562601" y="2181225"/>
+          <a:ext cx="1104900" cy="771525"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartExtract">
           <a:avLst/>
@@ -1282,14 +1354,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
+      <xdr:colOff>157163</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1307,8 +1379,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5229225" y="2614613"/>
-          <a:ext cx="619126" cy="95250"/>
+          <a:off x="5253038" y="2566988"/>
+          <a:ext cx="585788" cy="14287"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1951,16 +2023,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1975,8 +2047,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5476875" y="6648450"/>
-          <a:ext cx="1552575" cy="295275"/>
+          <a:off x="3890963" y="6062662"/>
+          <a:ext cx="1366838" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2676,6 +2748,267 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>685798</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Flussdiagramm: Magnetplattenspeicher 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC300C3-102E-4058-B1B3-404B865E8E53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7891461" y="5514975"/>
+          <a:ext cx="1709739" cy="1957387"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Saxess </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Logik Store</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Integratormodule</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Templates</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>159544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>685798</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Gerader Verbinder 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A48FE14-BA56-43B1-A0C6-9BCA2CF608CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="2"/>
+          <a:endCxn id="35" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3786189" y="6493669"/>
+          <a:ext cx="4105272" cy="159544"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>685798</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>159544</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Gerader Verbinder 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{363F62B2-B5C6-4732-8766-DF3F10111901}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="2"/>
+          <a:endCxn id="29" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5243513" y="5557838"/>
+          <a:ext cx="2647948" cy="935831"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3562,8 +3895,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3810000" y="6981826"/>
-          <a:ext cx="1162050" cy="552449"/>
+          <a:off x="3810000" y="6638926"/>
+          <a:ext cx="1162050" cy="523874"/>
           <a:chOff x="4629150" y="5676901"/>
           <a:chExt cx="1162050" cy="552449"/>
         </a:xfrm>
@@ -3696,8 +4029,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3810000" y="7658101"/>
-          <a:ext cx="1162050" cy="552449"/>
+          <a:off x="3810000" y="7277101"/>
+          <a:ext cx="1162050" cy="523874"/>
           <a:chOff x="4629150" y="5676901"/>
           <a:chExt cx="1162050" cy="552449"/>
         </a:xfrm>
@@ -3830,8 +4163,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7972425" y="6400801"/>
-          <a:ext cx="1162050" cy="552449"/>
+          <a:off x="7972425" y="6086476"/>
+          <a:ext cx="1162050" cy="523874"/>
           <a:chOff x="4629150" y="5676901"/>
           <a:chExt cx="1162050" cy="552449"/>
         </a:xfrm>
@@ -5992,74 +6325,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57257774-D818-4A13-91F1-A7DCB0C009FC}">
-  <dimension ref="B2:N57"/>
+  <dimension ref="B2:N51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>4</v>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>2</v>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B49" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="N4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+      <c r="E49" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -6073,11 +6405,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BD8981-4FF0-497D-829F-61801F8BAED6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6086,52 +6418,160 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71006EA9-40F6-4D3A-95DF-25D6B75326D9}">
-  <dimension ref="B4:C13"/>
+  <dimension ref="B2:J42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="3.46484375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="F4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="F8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="F10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/8. Harmonising standards/Harmonizing SXI-DF.xlsx
+++ b/8. Harmonising standards/Harmonizing SXI-DF.xlsx
@@ -5,34 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sxDaten\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BD28AE-FD41-4B45-99FA-D2CC41105374}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB1AFDB-4938-4236-A182-6E41CBCC735F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" activeTab="2" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Zielstellung" sheetId="2" r:id="rId1"/>
     <sheet name="Datenstruktur" sheetId="1" r:id="rId2"/>
     <sheet name="Prozess" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>Technisch</t>
   </si>
@@ -162,6 +157,21 @@
   <si>
     <t>Download von DataFactory Modulen nach Lizenz</t>
   </si>
+  <si>
+    <t>Installation</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>DataFactory</t>
+  </si>
+  <si>
+    <t>on premises</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
 </sst>
 </file>
 
@@ -235,13 +245,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -258,8 +268,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="457200" y="3086100"/>
-          <a:ext cx="790575" cy="2085975"/>
+          <a:off x="457201" y="3143250"/>
+          <a:ext cx="552450" cy="3171825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -293,7 +303,21 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>GuV Planung</a:t>
+            <a:t>Konto </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>KST</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>MDT</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -303,15 +327,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -326,7 +350,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2181225" y="4895850"/>
+          <a:off x="2171700" y="3286125"/>
           <a:ext cx="3057525" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -677,15 +701,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -700,7 +724,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2171700" y="4124325"/>
+          <a:off x="2190750" y="4010025"/>
           <a:ext cx="3057525" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1154,15 +1178,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1177,7 +1201,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2162175" y="4419600"/>
+          <a:off x="2190750" y="4305300"/>
           <a:ext cx="3057525" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1221,16 +1245,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1245,8 +1269,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="428625" y="3457575"/>
-          <a:ext cx="4838700" cy="238125"/>
+          <a:off x="2209799" y="5572125"/>
+          <a:ext cx="3057525" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1290,15 +1314,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>642938</xdr:colOff>
+      <xdr:colOff>642937</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>223838</xdr:colOff>
+      <xdr:colOff>409574</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1313,8 +1337,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5562601" y="2181225"/>
-          <a:ext cx="1104900" cy="771525"/>
+          <a:off x="5538787" y="2295525"/>
+          <a:ext cx="1290637" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartExtract">
           <a:avLst/>
@@ -1346,6 +1370,13 @@
             <a:t>AD</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>AD B2C</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -1355,13 +1386,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:rowOff>42863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>157163</xdr:colOff>
+      <xdr:colOff>203596</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1378,9 +1409,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5253038" y="2566988"/>
-          <a:ext cx="585788" cy="14287"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5229225" y="2709863"/>
+          <a:ext cx="632221" cy="42862"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1406,15 +1437,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1429,7 +1460,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2171700" y="4695825"/>
+          <a:off x="2181225" y="4572000"/>
           <a:ext cx="3057525" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1474,15 +1505,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1497,7 +1528,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2162175" y="5314950"/>
+          <a:off x="2209800" y="5229225"/>
           <a:ext cx="3057525" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1549,15 +1580,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1572,7 +1603,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2171700" y="4972050"/>
+          <a:off x="2190750" y="4876800"/>
           <a:ext cx="3057525" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2174,15 +2205,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2198,8 +2229,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="428625" y="3105150"/>
-          <a:ext cx="4829175" cy="257175"/>
+          <a:off x="2171700" y="3676650"/>
+          <a:ext cx="3086100" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2386,16 +2417,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2410,8 +2441,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="3819525"/>
-          <a:ext cx="4838700" cy="238125"/>
+          <a:off x="2209799" y="5848350"/>
+          <a:ext cx="3095626" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2449,7 +2480,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t> Bemessungsgrenzen, etc.)</a:t>
+            <a:t> Bemessungsgrenzen)</a:t>
           </a:r>
           <a:endParaRPr lang="de-DE" sz="1100"/>
         </a:p>
@@ -2751,15 +2782,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>685798</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>109537</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>428623</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>614362</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2774,8 +2805,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7891461" y="5514975"/>
-          <a:ext cx="1709739" cy="1957387"/>
+          <a:off x="7610473" y="5381625"/>
+          <a:ext cx="1709739" cy="1800225"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -2907,14 +2938,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>159544</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>685798</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2926,18 +2957,22 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="43" idx="2"/>
+          <a:stCxn id="46" idx="1"/>
           <a:endCxn id="35" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3786189" y="6493669"/>
-          <a:ext cx="4105272" cy="159544"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3762376" y="6996113"/>
+          <a:ext cx="3809998" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="lg"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -2959,15 +2994,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>685798</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>159544</xdr:rowOff>
+      <xdr:colOff>428623</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2985,8 +3020,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5243513" y="5557838"/>
-          <a:ext cx="2647948" cy="935831"/>
+          <a:off x="5267325" y="5376863"/>
+          <a:ext cx="2343148" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3007,6 +3042,544 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>521493</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Gerader Verbinder 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51667A1C-241B-4B50-BFE6-6B02AE67C360}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="1"/>
+          <a:endCxn id="41" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8465343" y="4972050"/>
+          <a:ext cx="21432" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Rechteck 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2844E89A-B0E1-4613-9E03-5CAFD208B840}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7572374" y="7229475"/>
+          <a:ext cx="1800226" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>File Storage</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Rechteck 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2262110D-8D14-497D-A356-C706CFA80C5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7581899" y="7781925"/>
+          <a:ext cx="1800226" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>File Storage pro Customer</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Gerader Verbinder 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B0236A8-5F80-4C9B-BD85-B020A93E9B06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="1"/>
+          <a:endCxn id="35" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3762376" y="6996113"/>
+          <a:ext cx="3819523" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723901</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Rechteck 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93F680F8-1EEF-48C7-ADD9-CD8B1B86E4A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047751" y="4619625"/>
+          <a:ext cx="466724" cy="1685925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IST</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>733426</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Rechteck 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC52C326-1E56-4112-975C-3821F9E7574E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057276" y="3143250"/>
+          <a:ext cx="552449" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Kontoplan</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Rechteck 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4D84936-C02E-49B1-86B6-EE3BD57F739F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600201" y="4619625"/>
+          <a:ext cx="552450" cy="1685925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IST</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Rechteck 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D2B0DA-F153-402D-B39D-D8728147C1AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610474" y="8515350"/>
+          <a:ext cx="1800226" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Lizenzmanager</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6325,18 +6898,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57257774-D818-4A13-91F1-A7DCB0C009FC}">
-  <dimension ref="B2:N51"/>
+  <dimension ref="B2:N63"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.86328125" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
@@ -6344,7 +6917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -6352,7 +6925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -6360,17 +6933,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>0</v>
       </c>
@@ -6378,7 +6951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>7</v>
       </c>
@@ -6386,12 +6959,45 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>8</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" t="s">
+        <v>46</v>
+      </c>
+      <c r="F60" t="s">
+        <v>47</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" t="s">
+        <v>46</v>
+      </c>
+      <c r="F63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -6409,7 +7015,7 @@
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6420,59 +7026,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71006EA9-40F6-4D3A-95DF-25D6B75326D9}">
   <dimension ref="B2:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.46484375" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F4" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F9" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F11" s="2"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
@@ -6480,7 +7086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -6488,7 +7094,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>39</v>
       </c>
@@ -6496,7 +7102,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>42</v>
       </c>
@@ -6504,72 +7110,72 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>17</v>
       </c>

--- a/8. Harmonising standards/Harmonizing SXI-DF.xlsx
+++ b/8. Harmonising standards/Harmonizing SXI-DF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB1AFDB-4938-4236-A182-6E41CBCC735F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D3D1B3-9A18-4E4F-99F1-D4D7549C892B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
   </bookViews>
@@ -1655,15 +1655,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1678,8 +1678,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5781675" y="3362325"/>
-          <a:ext cx="5886450" cy="390525"/>
+          <a:off x="5724525" y="3228975"/>
+          <a:ext cx="5886450" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1722,6 +1722,53 @@
             </a:rPr>
             <a:t>Modellierung</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Attribute</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> an Knoten (Stammkostenstelle)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Zeitabhängige Modellierung (IC Kennzeichen)</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" indent="0" algn="ctr"/>
@@ -2274,15 +2321,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2297,7 +2344,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5791200" y="3819525"/>
+          <a:off x="5724525" y="4048125"/>
           <a:ext cx="1771649" cy="1152525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2491,15 +2538,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2514,7 +2561,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7600950" y="3819525"/>
+          <a:off x="7553325" y="4048125"/>
           <a:ext cx="1771649" cy="1152525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2649,15 +2696,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2672,7 +2719,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9439275" y="3819525"/>
+          <a:off x="9382125" y="4038600"/>
           <a:ext cx="2257425" cy="1152525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3047,13 +3094,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>521493</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -3072,9 +3119,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8465343" y="4972050"/>
-          <a:ext cx="21432" cy="409575"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8439150" y="5200650"/>
+          <a:ext cx="26193" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6901,7 +6948,7 @@
   <dimension ref="B2:N63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/8. Harmonising standards/Harmonizing SXI-DF.xlsx
+++ b/8. Harmonising standards/Harmonizing SXI-DF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D3D1B3-9A18-4E4F-99F1-D4D7549C892B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A78F35-A5A9-43A6-9461-23D17974B13A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Zielstellung" sheetId="2" r:id="rId1"/>
@@ -5093,8 +5093,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5109,8 +5109,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10553700" y="304800"/>
-          <a:ext cx="4600575" cy="2076450"/>
+          <a:off x="10553700" y="295275"/>
+          <a:ext cx="4600575" cy="2395538"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5210,6 +5210,12 @@
           <a:r>
             <a:rPr lang="de-DE" sz="1100" baseline="0"/>
             <a:t>Dimensionserweitung über custom Dimension zum 1:1 Join-&gt; echte Datentypen, echte Namen (im Personal häufig umfangreich notwendig)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t>Feldgrößen für ID, Name etc.  harmonisieren</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6947,16 +6953,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57257774-D818-4A13-91F1-A7DCB0C009FC}">
   <dimension ref="B2:N63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
@@ -6964,7 +6970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -6972,7 +6978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -6980,17 +6986,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
         <v>0</v>
       </c>
@@ -6998,7 +7004,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
         <v>7</v>
       </c>
@@ -7006,7 +7012,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
         <v>8</v>
       </c>
@@ -7014,12 +7020,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
         <v>45</v>
       </c>
@@ -7033,7 +7039,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
         <v>44</v>
       </c>
@@ -7058,11 +7064,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BD8981-4FF0-497D-829F-61801F8BAED6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7077,55 +7083,55 @@
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F4" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F9" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F11" s="2"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
@@ -7133,7 +7139,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -7141,7 +7147,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>39</v>
       </c>
@@ -7149,7 +7155,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>42</v>
       </c>
@@ -7157,72 +7163,72 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
       <c r="J17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
       <c r="J18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
       <c r="J20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
       <c r="J21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>17</v>
       </c>

--- a/8. Harmonising standards/Harmonizing SXI-DF.xlsx
+++ b/8. Harmonising standards/Harmonizing SXI-DF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A78F35-A5A9-43A6-9461-23D17974B13A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935DA4F6-0C92-452A-B76D-F5D3422FC580}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
   </bookViews>
@@ -5088,13 +5088,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5109,8 +5109,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10553700" y="295275"/>
-          <a:ext cx="4600575" cy="2395538"/>
+          <a:off x="10553700" y="295274"/>
+          <a:ext cx="4600575" cy="2843213"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5216,6 +5216,21 @@
           <a:r>
             <a:rPr lang="de-DE" sz="1100" baseline="0"/>
             <a:t>Feldgrößen für ID, Name etc.  harmonisieren</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t>Datenart IST / PLAN in globales Buchungsjournal </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t>Buchungskreis in globales Buchungsjournal</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7065,7 +7080,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/8. Harmonising standards/Harmonizing SXI-DF.xlsx
+++ b/8. Harmonising standards/Harmonizing SXI-DF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935DA4F6-0C92-452A-B76D-F5D3422FC580}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6F3B8C-ED54-47E3-AECA-12D7C95787D3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
   </bookViews>
@@ -5085,16 +5085,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5109,8 +5109,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10553700" y="295274"/>
-          <a:ext cx="4600575" cy="2843213"/>
+          <a:off x="9353550" y="247649"/>
+          <a:ext cx="4600575" cy="3357564"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5231,6 +5231,21 @@
           <a:r>
             <a:rPr lang="de-DE" sz="1100" baseline="0"/>
             <a:t>Buchungskreis in globales Buchungsjournal</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t>Regeln für Plural Singular in Tabellenamen / Spaltennamen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t>(Ruby - CoC -Convetion over Configuration)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7080,7 +7095,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/8. Harmonising standards/Harmonizing SXI-DF.xlsx
+++ b/8. Harmonising standards/Harmonizing SXI-DF.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6F3B8C-ED54-47E3-AECA-12D7C95787D3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FC732C-4CFC-4870-AF4B-5C2B7B10ABC1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" activeTab="2" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Zielstellung" sheetId="2" r:id="rId1"/>
-    <sheet name="Datenstruktur" sheetId="1" r:id="rId2"/>
-    <sheet name="Prozess" sheetId="3" r:id="rId3"/>
+    <sheet name="Zielstellung_BigBigPicture" sheetId="6" r:id="rId1"/>
+    <sheet name="Zielstellung_BigPicture" sheetId="4" r:id="rId2"/>
+    <sheet name="Zielstellung_Detail" sheetId="2" r:id="rId3"/>
+    <sheet name="Rollen" sheetId="5" r:id="rId4"/>
+    <sheet name="Datenstruktur" sheetId="1" r:id="rId5"/>
+    <sheet name="Prozess" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="107">
   <si>
     <t>Technisch</t>
   </si>
@@ -171,6 +174,183 @@
   </si>
   <si>
     <t>Cloud</t>
+  </si>
+  <si>
+    <t>Erfolgsfaktoren</t>
+  </si>
+  <si>
+    <t>Lösungskompetenz - den Kunden verstehen und eine Lösung entwerfen</t>
+  </si>
+  <si>
+    <t>Projektkompetenz - die Lösung umsetzen und betreiben können</t>
+  </si>
+  <si>
+    <t>Methodenkompetenz - die richtigen Tools bauen und einsetzen</t>
+  </si>
+  <si>
+    <t>Softwarearchitektur</t>
+  </si>
+  <si>
+    <t>Rollen Tool</t>
+  </si>
+  <si>
+    <t>Rollen Prozess</t>
+  </si>
+  <si>
+    <t>Vertrieb</t>
+  </si>
+  <si>
+    <t>Lehre</t>
+  </si>
+  <si>
+    <t>Prozessmethodik</t>
+  </si>
+  <si>
+    <t>Projektcontrolling</t>
+  </si>
+  <si>
+    <t>Datenintegration</t>
+  </si>
+  <si>
+    <t>Planung</t>
+  </si>
+  <si>
+    <t>Verwaltung</t>
+  </si>
+  <si>
+    <t>Entwicklung Integrationsplattform</t>
+  </si>
+  <si>
+    <t>Entwicklung Planungsplattform</t>
+  </si>
+  <si>
+    <t>Entwicklung Integrationsmodule</t>
+  </si>
+  <si>
+    <t>Entwicklung Planungsmodule</t>
+  </si>
+  <si>
+    <t>Entwicklung Visualisierung, Modellierung</t>
+  </si>
+  <si>
+    <t>Rollen Lösungen</t>
+  </si>
+  <si>
+    <t>Entwicklung Visualisierungsmodule</t>
+  </si>
+  <si>
+    <t>QS</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Geben Ihnen Überblick und Transparenz indem wir alle Ihre Datenquellen in einem Datawarehouse integrieren.</t>
+  </si>
+  <si>
+    <t>Ermöglichen auf Basis dieser Daten zu planen und Erfolgfaktoren zu steuern.</t>
+  </si>
+  <si>
+    <t>Ermöglichen Ihnen sehr viele Mitarbeiter im Unternehmen auf sehr einfache Weise einzubeziehen.</t>
+  </si>
+  <si>
+    <t>Plattform zur Unternehmensführung - Integration von Daten, Personen und Ideen</t>
+  </si>
+  <si>
+    <t>tagesaktuelle Datenintegration</t>
+  </si>
+  <si>
+    <t>GuV Planung</t>
+  </si>
+  <si>
+    <t>Liquiditätsplanung</t>
+  </si>
+  <si>
+    <t>Ressourcenplanung</t>
+  </si>
+  <si>
+    <t>Eigene Ziele</t>
+  </si>
+  <si>
+    <t>Anbieter einer vollständigen Plattform für Datenintegration und Unternehmensplanung</t>
+  </si>
+  <si>
+    <t>Starke eigene Platzierung und gleichzeitig ein gefragter Partner</t>
+  </si>
+  <si>
+    <t>Mitarbeiter mit einem Schwerpunkt und einem integrierten Thema</t>
+  </si>
+  <si>
+    <t>Arne - Personaldatenintegration und Personalplanung</t>
+  </si>
+  <si>
+    <t>Toni - Datenintegration und Zusatzbuchungsjournale</t>
+  </si>
+  <si>
+    <t>Direktaufgaben welche länger als 2 Monate offen sind (Abrechnung vergessen)</t>
+  </si>
+  <si>
+    <t>Kunden mit Wartungsvertrag, Supportzeit weit über 50% Supportwert</t>
+  </si>
+  <si>
+    <t>Projekte mit Zeitbuchung ohne Abrechnungen</t>
+  </si>
+  <si>
+    <t>Projekte mit außergewöhnlichem Zeitaufwand und geringem Ertrag</t>
+  </si>
+  <si>
+    <t>Mitarbeiter mit Organisationsaufgabe</t>
+  </si>
+  <si>
+    <t>Prozessorganisation</t>
+  </si>
+  <si>
+    <t>Solutionentwicklung</t>
+  </si>
+  <si>
+    <t>PowerBI / Qlikmuster</t>
+  </si>
+  <si>
+    <t>CP Lieferant</t>
+  </si>
+  <si>
+    <t>kein Rechtesystem</t>
+  </si>
+  <si>
+    <t>Status SXI</t>
+  </si>
+  <si>
+    <t>Status DF</t>
+  </si>
+  <si>
+    <t>Datenintegration oft SP</t>
+  </si>
+  <si>
+    <t>Pivot im Web</t>
+  </si>
+  <si>
+    <t>Rechtesystem</t>
+  </si>
+  <si>
+    <t>Referenzprojekte</t>
+  </si>
+  <si>
+    <t>SFZ Chemnitz</t>
+  </si>
+  <si>
+    <t>ASB Leipzig ?</t>
+  </si>
+  <si>
+    <t>Greif-Velux ?</t>
+  </si>
+  <si>
+    <t>Mitarbeiter</t>
+  </si>
+  <si>
+    <t>Jeder DF Mitarbeiter kann Integrator für Datev oder NAV einsetzen</t>
+  </si>
+  <si>
+    <t>Jeder SXI Mitarbeiter kann Solution Vertragsverwaltung einrichten.</t>
   </si>
 </sst>
 </file>
@@ -244,6 +424,2593 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rechteck 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC269847-10F4-4A3A-AC1F-61C01870BFF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="328613" y="2205038"/>
+          <a:ext cx="890588" cy="519113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>IST</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>990599</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Flussdiagramm: Auszug 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40859E57-14E2-4586-AD3D-ED6F19C40350}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6886574" y="1633537"/>
+          <a:ext cx="1071564" cy="866776"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartExtract">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>AD</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Wolke 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AEDA1E5-61E2-4C0F-859C-B4E86D5ECAEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1871663" y="8905875"/>
+          <a:ext cx="1076325" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="cloud">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Cloud</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>461963</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Wolke 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79FC228A-6F74-49F9-BF40-87AED74DD479}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3857626" y="8934450"/>
+          <a:ext cx="1076325" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="cloud">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Cloud</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rechteck 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9507C499-7973-488F-9477-FBBFA14C9DAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1862138" y="10144125"/>
+          <a:ext cx="1109662" cy="452438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>On Premises</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rechteck 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{280BFFEE-1710-4947-AA2B-D6FB3FC33CC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771901" y="10144125"/>
+          <a:ext cx="1109662" cy="452438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>On Premises</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>313428</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>150977</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Gerade Verbindung mit Pfeil 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FE83EA8-716E-4203-99E1-1E67E1AD417C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="0"/>
+          <a:endCxn id="16" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2947091" y="9196388"/>
+          <a:ext cx="913874" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>538163</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>75581</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>545306</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Gerade Verbindung mit Pfeil 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36405526-63EE-4816-84A8-4AAC8A3E9A15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="1"/>
+          <a:endCxn id="17" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2409826" y="9486281"/>
+          <a:ext cx="7143" cy="657844"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>54769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>54769</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Gerade Verbindung mit Pfeil 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F63809AC-8EC5-43A1-B2C1-ACF2D82B3D93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="1"/>
+          <a:endCxn id="17" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2971800" y="10370344"/>
+          <a:ext cx="800101" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>616744</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>104156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Gerade Verbindung mit Pfeil 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE56F923-5264-4C06-B2D0-B9AF2D37103B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="1"/>
+          <a:endCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4326732" y="9514856"/>
+          <a:ext cx="69057" cy="629269"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Textfeld 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{028B2AA5-5A4A-4B7F-ADC8-4A39B0888C08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="9458325"/>
+          <a:ext cx="995362" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Alle Wege, alle</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t> Systeme</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>733426</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>862014</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rechteck 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74193CD4-41FF-4D6E-B289-C71E498A9059}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2605089" y="2233613"/>
+          <a:ext cx="890588" cy="519113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>PLAN</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>966787</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rechteck 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06F355AC-458C-4FF8-8AE2-FEE7BC324B4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5438775" y="2433638"/>
+          <a:ext cx="1104899" cy="519113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>IST</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>976312</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rechteck 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0FB809B-D4BC-46B1-88AB-D5F78DF3DB6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5448300" y="1881188"/>
+          <a:ext cx="1085849" cy="519113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>PLAN</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>976313</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rechteck 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8025790-37AB-46D4-983A-D1237586BE1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5448301" y="1323975"/>
+          <a:ext cx="1095374" cy="519113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Visualisierung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>135732</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25002</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Gerader Verbinder 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F64DEBF-A5D4-4BB5-B5FB-F856FE76594B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6543675" y="1583532"/>
+          <a:ext cx="610790" cy="483393"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25002</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>150020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Gerader Verbinder 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5911C2AA-C94B-4147-9D91-D55488B4F2FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6534149" y="2066925"/>
+          <a:ext cx="620316" cy="73820"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25002</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>159545</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Gerader Verbinder 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D73A1237-2983-4546-B08E-D48949A76128}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6543674" y="2066925"/>
+          <a:ext cx="610791" cy="626270"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1004887</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Wolke 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E678C831-43D7-447C-AE0B-6BAC4238A187}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6900862" y="904875"/>
+          <a:ext cx="1223963" cy="509587"/>
+        </a:xfrm>
+        <a:prstGeom prst="cloud">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Cloudfähig</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rechteck 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B562535-23B4-421F-B40B-8B3CC5FFCFAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="481014" y="2990850"/>
+          <a:ext cx="1843086" cy="3009900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Integrierte IST Werte</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>- ERP System übergreifend</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t> Fachsystem übergreifend</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Abgrenzungsbuchungen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rechteck 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C750E24-3CA8-44DD-BE86-532DFE829E23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="471488" y="2352675"/>
+          <a:ext cx="4781550" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Datenvisualisierung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rechteck 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10F6886E-1BD5-4C11-8495-A775F2454419}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="433387" y="6305550"/>
+          <a:ext cx="4810126" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Datenintegration</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Flussdiagramm: Magnetplattenspeicher 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D6BB40-599D-4B44-A8CA-C354438F7DF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="452438" y="7686675"/>
+          <a:ext cx="1104900" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Flussdiagramm: Magnetplattenspeicher 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C573A55-31E7-45D5-A923-AC52FF8902B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1890713" y="7686675"/>
+          <a:ext cx="1104900" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>747712</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1090612</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Flussdiagramm: Magnetplattenspeicher 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF938DB1-5D0A-4304-9DF8-FFC6695F4BBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4457700" y="7691438"/>
+          <a:ext cx="1104900" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Gerade Verbindung mit Pfeil 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{172F844E-24D7-4B53-BFB2-0963F93DA81F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="995363" y="7296150"/>
+          <a:ext cx="9525" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Gerade Verbindung mit Pfeil 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A25B6D8A-6B7C-4262-AED6-49A629757ECF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2452688" y="7324725"/>
+          <a:ext cx="9525" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>519112</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Gerade Verbindung mit Pfeil 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199F8E9F-B1FA-402A-AFB9-75C106C242CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4991100" y="7348538"/>
+          <a:ext cx="9525" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>52386</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Flussdiagramm: Auszug 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB822874-BC31-4C19-92FE-D338AEB4B5AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5734049" y="3690937"/>
+          <a:ext cx="2366964" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartExtract">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Berechtigungs-system über alle Module</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Rechteck 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EA5F7B0-1C90-4957-B1C9-07DF9D0F5394}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3986213" y="3014662"/>
+          <a:ext cx="2233612" cy="3019426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Planungsmodule</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t> für Unternehmensführung</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028701</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Rechteck 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1CF7C88-2CB5-4610-8C38-281F5438EB77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2466976" y="3014661"/>
+          <a:ext cx="1195388" cy="685799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Modellierung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>576263</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1009651</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>157160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Rechteck 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2D4333-7417-457C-BB9F-F2B778CEFB91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2447926" y="3814761"/>
+          <a:ext cx="1195388" cy="685799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Monitoring</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Wolke 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F10D93E2-B21A-4A40-8EEA-7D02003D862C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1871663" y="8905875"/>
+          <a:ext cx="1076325" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="cloud">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Cloud</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>461963</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Wolke 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D687D7F-E448-40BD-8A8C-AEC69D385BA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3857626" y="8934450"/>
+          <a:ext cx="1076325" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="cloud">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Cloud</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Rechteck 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{737AECEB-6646-413C-AFE3-3F3978BD3C1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1862138" y="10144125"/>
+          <a:ext cx="1109662" cy="452438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>On Premises</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Rechteck 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B993B65-74D1-4F3B-B504-2BE491C3D419}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771901" y="10144125"/>
+          <a:ext cx="1109662" cy="452438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>On Premises</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>313428</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>150977</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Gerade Verbindung mit Pfeil 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24562546-0194-4DD9-AE7B-0E440190F690}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="0"/>
+          <a:endCxn id="57" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2947091" y="9196388"/>
+          <a:ext cx="913874" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>538163</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>75581</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>545306</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Gerade Verbindung mit Pfeil 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14153235-5D8B-4584-9768-4C03B58E2945}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="1"/>
+          <a:endCxn id="58" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2409826" y="9486281"/>
+          <a:ext cx="7143" cy="657844"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>54769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>54769</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Gerade Verbindung mit Pfeil 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A6063A0-A612-4468-AD2B-5CD85C741648}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="1"/>
+          <a:endCxn id="58" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2971800" y="10370344"/>
+          <a:ext cx="800101" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>616744</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>104156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Gerade Verbindung mit Pfeil 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEA999FB-B497-42BE-BC73-9BA2B63BC790}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="57" idx="1"/>
+          <a:endCxn id="59" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4326732" y="9514856"/>
+          <a:ext cx="69057" cy="629269"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="Textfeld 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA00A56-2588-4CFE-8DB2-5814B98555DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="9458325"/>
+          <a:ext cx="995362" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Alle Wege, alle</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t> Systeme</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>133351</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -3345,7 +6112,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -3362,8 +6129,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047751" y="4619625"/>
-          <a:ext cx="466724" cy="1685925"/>
+          <a:off x="1071564" y="4391025"/>
+          <a:ext cx="523874" cy="1600200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3414,13 +6181,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>733426</xdr:colOff>
+      <xdr:colOff>733427</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:colOff>495301</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -3437,8 +6204,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1057276" y="3143250"/>
-          <a:ext cx="552449" cy="1409700"/>
+          <a:off x="1081090" y="2990850"/>
+          <a:ext cx="523874" cy="1343025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3488,81 +6255,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="Rechteck 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4D84936-C02E-49B1-86B6-EE3BD57F739F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1600201" y="4619625"/>
-          <a:ext cx="552450" cy="1685925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>IST</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>428624</xdr:colOff>
       <xdr:row>44</xdr:row>
@@ -3632,7 +6324,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6980,11 +9672,160 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FFF68C-378F-4B53-B6E1-CC1E8DA72D83}">
+  <dimension ref="B2:N49"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.86328125" customWidth="1"/>
+    <col min="5" max="5" width="15.06640625" customWidth="1"/>
+    <col min="7" max="7" width="19.9296875" customWidth="1"/>
+    <col min="8" max="8" width="17.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE61C21-B4DF-4ACF-89E3-F75BA53700E1}">
+  <dimension ref="B2:N49"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.86328125" customWidth="1"/>
+    <col min="5" max="5" width="15.06640625" customWidth="1"/>
+    <col min="7" max="7" width="19.9296875" customWidth="1"/>
+    <col min="8" max="8" width="17.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57257774-D818-4A13-91F1-A7DCB0C009FC}">
   <dimension ref="B2:N63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7026,6 +9867,21 @@
         <v>6</v>
       </c>
     </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="N9" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+    </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
         <v>0</v>
@@ -7090,12 +9946,195 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EF74D8-9026-466E-B120-5AD0A17FB84D}">
+  <dimension ref="B2:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="M3" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="M5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="M7" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="N9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="N10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="N15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="N17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" t="s">
+        <v>59</v>
+      </c>
+      <c r="N18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="J24" t="s">
+        <v>58</v>
+      </c>
+      <c r="M24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="N25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="J26" t="s">
+        <v>70</v>
+      </c>
+      <c r="N26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="N27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="J28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BD8981-4FF0-497D-829F-61801F8BAED6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R40" sqref="R40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7105,12 +10144,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71006EA9-40F6-4D3A-95DF-25D6B75326D9}">
   <dimension ref="B2:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/8. Harmonising standards/Harmonizing SXI-DF.xlsx
+++ b/8. Harmonising standards/Harmonizing SXI-DF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FC732C-4CFC-4870-AF4B-5C2B7B10ABC1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE17F8A-3D78-4454-8F28-A39F860162BB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" activeTab="2" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" activeTab="6" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Zielstellung_BigBigPicture" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Rollen" sheetId="5" r:id="rId4"/>
     <sheet name="Datenstruktur" sheetId="1" r:id="rId5"/>
     <sheet name="Prozess" sheetId="3" r:id="rId6"/>
+    <sheet name="Betriebsoptionen" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="108">
   <si>
     <t>Technisch</t>
   </si>
@@ -352,6 +353,9 @@
   <si>
     <t>Jeder SXI Mitarbeiter kann Solution Vertragsverwaltung einrichten.</t>
   </si>
+  <si>
+    <t>Alle drei Bausteine können einzeln eingesetzt werden.</t>
+  </si>
 </sst>
 </file>
 
@@ -9367,6 +9371,1269 @@
           <a:r>
             <a:rPr lang="de-DE" sz="1100"/>
             <a:t>Anonyme Buchung im Journal</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Flussdiagramm: Prozess 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73DECC13-C59C-40AB-89FF-D9521925A167}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="4705350"/>
+          <a:ext cx="1162050" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Integration</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Flussdiagramm: Prozess 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49357901-7654-4593-8134-850976E46B55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4805362" y="4300538"/>
+          <a:ext cx="1162050" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Planung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Wolke 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4719EBFB-8B6D-4735-9E9D-5B2553A9DB5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="1657350"/>
+          <a:ext cx="1223963" cy="509587"/>
+        </a:xfrm>
+        <a:prstGeom prst="cloud">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Cloud</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>195263</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rechteck 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A244C771-8396-4F93-B818-BD57D3594C68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="4572000"/>
+          <a:ext cx="1271588" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Lokal</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>404813</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Flussdiagramm: Prozess 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{071C1D71-0B8B-4CC7-83CB-0F8B415508FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3052763" y="4314825"/>
+          <a:ext cx="1162050" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Visualisierung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>728663</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rechteck 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FA647E7-2DC3-4F57-A1FE-7EF821236309}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3014663" y="1138238"/>
+          <a:ext cx="1271588" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Integration only</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>242888</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>752476</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rechteck 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6DDBA28-D8FE-48A3-B164-22157B270765}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4814888" y="1143000"/>
+          <a:ext cx="1271588" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Full local</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>233363</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>633413</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Flussdiagramm: Prozess 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AB4200D-D1CC-4070-B16A-E7D61B390563}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4805363" y="4676775"/>
+          <a:ext cx="1162050" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Integration</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>233363</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>633413</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Flussdiagramm: Prozess 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F369E449-5C44-4F3D-B058-20D22A7DBD2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4805363" y="3876675"/>
+          <a:ext cx="1162050" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Visualisierung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347661</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>747711</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Flussdiagramm: Prozess 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4125AE50-E773-4594-8AEC-39F7AA2F1909}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6443661" y="2066925"/>
+          <a:ext cx="1162050" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Planung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Flussdiagramm: Prozess 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3996FF3-7E5F-474F-B25E-724A7F771538}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457950" y="4691062"/>
+          <a:ext cx="1162050" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Integration</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>747713</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Flussdiagramm: Prozess 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A80CFB0B-B2B2-4FF5-AF30-BC4283A36D8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6443663" y="1676399"/>
+          <a:ext cx="1162050" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Visualisierung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>709613</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rechteck 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD9CCECB-2F86-4670-AB35-208D231514B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6296025" y="1157287"/>
+          <a:ext cx="1271588" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cloud Planung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>757238</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rechteck 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CACB219-AB79-4B8D-BBEA-9463568AC7BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6343650" y="2900362"/>
+          <a:ext cx="1271588" cy="623888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Sync Dimensionen</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> und Fakten(aggregate)</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>547688</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Flussdiagramm: Prozess 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28100E16-2DB6-45B7-A619-FCE281BCEEA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8529638" y="4710112"/>
+          <a:ext cx="1162050" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Integration 1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>623888</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Flussdiagramm: Prozess 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E110E3-495F-4568-8F64-2286F36A3577}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8429626" y="1695449"/>
+          <a:ext cx="2862262" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Visualisierung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>747712</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rechteck 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E31ADB4-D126-42E8-BD98-D9A832F68910}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8367712" y="1176337"/>
+          <a:ext cx="2986087" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Integration über Cloud</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rechteck 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3FFAC3B-E8BE-4076-82A1-0CB7291CC8E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9282113" y="2943225"/>
+          <a:ext cx="1271588" cy="623888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Sync Dimensionen</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> und Fakten(aggregate)</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Flussdiagramm: Prozess 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48025B95-09A9-4CC8-B353-B0FFBA261E7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10125076" y="4719637"/>
+          <a:ext cx="1162050" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Integration 2</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9676,7 +10943,7 @@
   <dimension ref="B2:N49"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9730,6 +10997,11 @@
       </c>
       <c r="E12" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H19" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.45">
@@ -9824,7 +11096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57257774-D818-4A13-91F1-A7DCB0C009FC}">
   <dimension ref="B2:N63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -10305,4 +11577,19 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DACF6E-0F61-4744-BDED-4D535B825F26}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/8. Harmonising standards/Harmonizing SXI-DF.xlsx
+++ b/8. Harmonising standards/Harmonizing SXI-DF.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE17F8A-3D78-4454-8F28-A39F860162BB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76193A37-73CD-4E22-B410-AAD5D5891E94}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" activeTab="6" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Zielstellung_BigBigPicture" sheetId="6" r:id="rId1"/>
-    <sheet name="Zielstellung_BigPicture" sheetId="4" r:id="rId2"/>
-    <sheet name="Zielstellung_Detail" sheetId="2" r:id="rId3"/>
-    <sheet name="Rollen" sheetId="5" r:id="rId4"/>
+    <sheet name="Rollen" sheetId="5" r:id="rId2"/>
+    <sheet name="Zielstellung_BigPicture" sheetId="4" r:id="rId3"/>
+    <sheet name="Zielstellung_Detail" sheetId="2" r:id="rId4"/>
     <sheet name="Datenstruktur" sheetId="1" r:id="rId5"/>
     <sheet name="Prozess" sheetId="3" r:id="rId6"/>
     <sheet name="Betriebsoptionen" sheetId="7" r:id="rId7"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
   <si>
     <t>Technisch</t>
   </si>
@@ -189,61 +189,10 @@
     <t>Methodenkompetenz - die richtigen Tools bauen und einsetzen</t>
   </si>
   <si>
-    <t>Softwarearchitektur</t>
-  </si>
-  <si>
-    <t>Rollen Tool</t>
-  </si>
-  <si>
-    <t>Rollen Prozess</t>
-  </si>
-  <si>
-    <t>Vertrieb</t>
-  </si>
-  <si>
-    <t>Lehre</t>
-  </si>
-  <si>
-    <t>Prozessmethodik</t>
-  </si>
-  <si>
     <t>Projektcontrolling</t>
   </si>
   <si>
     <t>Datenintegration</t>
-  </si>
-  <si>
-    <t>Planung</t>
-  </si>
-  <si>
-    <t>Verwaltung</t>
-  </si>
-  <si>
-    <t>Entwicklung Integrationsplattform</t>
-  </si>
-  <si>
-    <t>Entwicklung Planungsplattform</t>
-  </si>
-  <si>
-    <t>Entwicklung Integrationsmodule</t>
-  </si>
-  <si>
-    <t>Entwicklung Planungsmodule</t>
-  </si>
-  <si>
-    <t>Entwicklung Visualisierung, Modellierung</t>
-  </si>
-  <si>
-    <t>Rollen Lösungen</t>
-  </si>
-  <si>
-    <t>Entwicklung Visualisierungsmodule</t>
-  </si>
-  <si>
-    <t>QS</t>
-  </si>
-  <si>
-    <t>Support</t>
   </si>
   <si>
     <t>Geben Ihnen Überblick und Transparenz indem wir alle Ihre Datenquellen in einem Datawarehouse integrieren.</t>
@@ -279,15 +228,6 @@
     <t>Starke eigene Platzierung und gleichzeitig ein gefragter Partner</t>
   </si>
   <si>
-    <t>Mitarbeiter mit einem Schwerpunkt und einem integrierten Thema</t>
-  </si>
-  <si>
-    <t>Arne - Personaldatenintegration und Personalplanung</t>
-  </si>
-  <si>
-    <t>Toni - Datenintegration und Zusatzbuchungsjournale</t>
-  </si>
-  <si>
     <t>Direktaufgaben welche länger als 2 Monate offen sind (Abrechnung vergessen)</t>
   </si>
   <si>
@@ -298,15 +238,6 @@
   </si>
   <si>
     <t>Projekte mit außergewöhnlichem Zeitaufwand und geringem Ertrag</t>
-  </si>
-  <si>
-    <t>Mitarbeiter mit Organisationsaufgabe</t>
-  </si>
-  <si>
-    <t>Prozessorganisation</t>
-  </si>
-  <si>
-    <t>Solutionentwicklung</t>
   </si>
   <si>
     <t>PowerBI / Qlikmuster</t>
@@ -333,9 +264,6 @@
     <t>Rechtesystem</t>
   </si>
   <si>
-    <t>Referenzprojekte</t>
-  </si>
-  <si>
     <t>SFZ Chemnitz</t>
   </si>
   <si>
@@ -355,6 +283,12 @@
   </si>
   <si>
     <t>Alle drei Bausteine können einzeln eingesetzt werden.</t>
+  </si>
+  <si>
+    <t>Sollten mehrere Rollen in der Firma besetzten</t>
+  </si>
+  <si>
+    <t>Referenzprojekte für Etablierung</t>
   </si>
 </sst>
 </file>
@@ -1609,6 +1543,2945 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rechteck 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0542BCD-E529-4121-AFCC-13793B6A2DA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181350" y="7748588"/>
+          <a:ext cx="890588" cy="519113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IST</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>742951</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>109539</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rechteck 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FE837FA-CE56-47E4-A5AA-5D0827857286}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181351" y="7072312"/>
+          <a:ext cx="890588" cy="519113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PLAN</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rechteck 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98810BA-DEC4-41A2-B374-4396B9BDDE17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181350" y="6381749"/>
+          <a:ext cx="890588" cy="519113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>VISU</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Textfeld 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C60522C8-AD92-421C-AD47-5E3878DA70FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2981325" y="5934074"/>
+          <a:ext cx="1481137" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1"/>
+            <a:t>Softwareentwicklung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Textfeld 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65664833-6939-4F9E-8528-99E4F5F8DEF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4786313" y="5934074"/>
+          <a:ext cx="1481137" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1"/>
+            <a:t>Modulentwicklung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Textfeld 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10CF2FF6-879C-426C-83E1-CD42BB2F17C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4014788" y="5505449"/>
+          <a:ext cx="1481137" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="1"/>
+            <a:t>Produkt</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>585788</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Textfeld 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E3F9142-9A13-451E-99A3-990615FFA70B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7596188" y="5519736"/>
+          <a:ext cx="1481137" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Prozess</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>733426</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rechteck 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAB192DE-9E08-496F-90CD-C7E383E7FF61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171826" y="8429627"/>
+          <a:ext cx="900112" cy="295274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>752476</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>14290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>128589</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rechteck 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E969C3D-137A-47DF-A9E2-11B582645B01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3190876" y="8882065"/>
+          <a:ext cx="900112" cy="295274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Handbuch</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>538163</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>290513</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rechteck 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97920A63-7A93-4337-8FF5-19D9C834C093}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4500563" y="7948613"/>
+          <a:ext cx="514350" cy="338138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>I1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rechteck 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2673E709-FCDA-475A-AA98-3D3A60217941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5181601" y="7958138"/>
+          <a:ext cx="514350" cy="338138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>I2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>433389</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>185739</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rechteck 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F61A05C1-5370-4C4B-AFDE-C3DCD5E0C9EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5919789" y="7943850"/>
+          <a:ext cx="514350" cy="338138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>I3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>509588</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>147639</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123827</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rechteck 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D71E5F-D801-4068-A5CF-A2634C9D105A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4471988" y="7205664"/>
+          <a:ext cx="514350" cy="338138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>P1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>147639</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123827</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rechteck 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{820D05F2-9C5B-400B-B4E5-9D25EF5F3EFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5181601" y="7205664"/>
+          <a:ext cx="514350" cy="338138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>P2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>147639</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123827</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rechteck 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{053C2800-3089-4CDE-A56D-D2CEF2542DC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5934075" y="7205664"/>
+          <a:ext cx="514350" cy="338138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>P3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rechteck 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3663CE14-3648-4605-B9E1-53E5DCD935FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4448175" y="6538914"/>
+          <a:ext cx="514350" cy="338138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>V1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rechteck 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFCBA409-6311-417B-BEF9-C1DDCE5B9686}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5205412" y="6538914"/>
+          <a:ext cx="514350" cy="338138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>V2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rechteck 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D010A1E9-FB2B-4EEF-8298-DDD1B14C7F43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5934075" y="6538914"/>
+          <a:ext cx="514350" cy="338138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>V3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rechteck 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C01BA4C-A3B8-4C9C-8437-E847579159D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5081588" y="6429375"/>
+          <a:ext cx="752475" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>366713</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Textfeld 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFAA47A8-BD28-4605-BD33-68C918C66AD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5091113" y="8453436"/>
+          <a:ext cx="833437" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Solution</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>61914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rechteck 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84CAAB2F-AE51-45E0-956E-BE3648CC7E3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8062912" y="8567739"/>
+          <a:ext cx="862013" cy="338138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Vertrieb</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>42864</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rechteck 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E48B398F-410C-47C6-A013-B1DA2AD70544}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8062912" y="8029576"/>
+          <a:ext cx="862013" cy="338138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Konzeption</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>128589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>376237</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104777</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rechteck 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B3DA40C-2FE2-4A46-BB06-CC73D7047811}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8048624" y="7548564"/>
+          <a:ext cx="862013" cy="338138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Integration</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>42864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19052</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rechteck 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12C66A82-5E00-4C81-B213-DD9462258C16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8029574" y="7100889"/>
+          <a:ext cx="862013" cy="338138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Planung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>71440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rechteck 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD1B937C-4938-4AB0-A3BD-7FB1FEDA5AD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8029574" y="6610352"/>
+          <a:ext cx="862013" cy="338138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Visual</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>661988</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>61914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rechteck 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBFFE0BE-5E99-4EF0-97F0-50DB2DDEEC3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9196388" y="8205789"/>
+          <a:ext cx="976312" cy="438149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Projekt-controlling</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rechteck 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C14228D-63F7-4350-A691-54E01B45C5C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9182100" y="7305675"/>
+          <a:ext cx="966787" cy="438149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Prozess-organisation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rechteck 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B816D6E-2900-4BCF-BAC2-9479DDD9DA32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7077074" y="7372352"/>
+          <a:ext cx="862013" cy="519111"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Projekt-leitung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rechteck 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E347C1-7FBB-459C-A779-2B205BF90048}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7015163" y="10610850"/>
+          <a:ext cx="966787" cy="438149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Verwaltung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>385764</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rechteck 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{181C629B-3D1F-44E7-BE2B-1EFDB8E12776}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5872164" y="10610851"/>
+          <a:ext cx="966787" cy="438149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IT</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>90490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>442913</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>23814</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rechteck 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF218DAC-C9B5-440B-BCD3-D704D9D81279}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029201" y="9320215"/>
+          <a:ext cx="900112" cy="295274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Support</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>690563</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Textfeld 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C600075A-BE29-4994-99D4-E45BE4FC6A20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11510963" y="6572249"/>
+          <a:ext cx="2571750" cy="742952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Wir wollen Projekte</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t> ohne Dienstleistung oder mit sehr viel Dienstleistung - aber möglichst nicht in der Mitte.</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Textfeld 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C3D7E9C-A156-4D23-A7B2-FD71AB7C23B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7881938" y="5829299"/>
+          <a:ext cx="1347787" cy="261939"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>10-50 Tage Projekt</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>757238</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rechteck 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CD74041-74D2-4D22-8132-E0BB9322B387}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3195638" y="9324978"/>
+          <a:ext cx="900112" cy="295274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Schulung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>385763</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rechteck 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F01D846F-5910-4427-938E-8B142FCEE9A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8048626" y="9267826"/>
+          <a:ext cx="871537" cy="438149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Betrieb</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>614363</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Gerader Verbinder 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5187FE38-96C3-4368-9BB9-6B6DA8BDFC19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6858000" y="5567363"/>
+          <a:ext cx="4763" cy="4195763"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>366713</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Gerader Verbinder 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{694E555F-CFE2-4749-88EA-4C51827080F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3200400" y="9991725"/>
+          <a:ext cx="7986713" cy="47625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>728662</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Textfeld 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76BB8D43-F3D6-41CA-B5AC-B911ABF271DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6257925" y="10163174"/>
+          <a:ext cx="1481137" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="1"/>
+            <a:t>Infrastruktur</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>133351</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -3011,7 +5884,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6328,7 +9201,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9380,7 +12253,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10943,7 +13816,7 @@
   <dimension ref="B2:N49"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10961,47 +13834,47 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H19" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.45">
@@ -11016,6 +13889,93 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EF74D8-9026-466E-B120-5AD0A17FB84D}">
+  <dimension ref="B2:M14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="K12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE61C21-B4DF-4ACF-89E3-F75BA53700E1}">
   <dimension ref="B2:N49"/>
   <sheetViews>
@@ -11033,52 +13993,52 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.45">
@@ -11092,7 +14052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57257774-D818-4A13-91F1-A7DCB0C009FC}">
   <dimension ref="B2:N63"/>
   <sheetViews>
@@ -11141,17 +14101,17 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.45">
       <c r="N9" s="1" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.45">
       <c r="N10" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.45">
       <c r="N11" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.45">
@@ -11215,189 +14175,6 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EF74D8-9026-466E-B120-5AD0A17FB84D}">
-  <dimension ref="B2:N28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="2.1328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B2" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="M3" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="M5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="M7" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="N9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="N10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" t="s">
-        <v>55</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="N15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" t="s">
-        <v>64</v>
-      </c>
-      <c r="J16" t="s">
-        <v>60</v>
-      </c>
-      <c r="N16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="N17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" t="s">
-        <v>65</v>
-      </c>
-      <c r="J18" t="s">
-        <v>59</v>
-      </c>
-      <c r="N18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" t="s">
-        <v>68</v>
-      </c>
-      <c r="J20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" t="s">
-        <v>69</v>
-      </c>
-      <c r="J22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="J24" t="s">
-        <v>58</v>
-      </c>
-      <c r="M24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="N25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="J26" t="s">
-        <v>70</v>
-      </c>
-      <c r="N26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="N27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="J28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11583,8 +14360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DACF6E-0F61-4744-BDED-4D535B825F26}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/8. Harmonising standards/Harmonizing SXI-DF.xlsx
+++ b/8. Harmonising standards/Harmonizing SXI-DF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76193A37-73CD-4E22-B410-AAD5D5891E94}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A1E0C6-D706-4B63-B452-6F9B2EAB2795}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="96">
   <si>
     <t>Technisch</t>
   </si>
@@ -290,6 +290,36 @@
   <si>
     <t>Referenzprojekte für Etablierung</t>
   </si>
+  <si>
+    <t>Kapazitätsplanung</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Hans</t>
+  </si>
+  <si>
+    <t>% SWE</t>
+  </si>
+  <si>
+    <t>% MOE</t>
+  </si>
+  <si>
+    <t>% Orga</t>
+  </si>
+  <si>
+    <t>% Sonstiges</t>
+  </si>
+  <si>
+    <t>Summe Tage</t>
+  </si>
+  <si>
+    <t>% PROZ</t>
+  </si>
+  <si>
+    <t>Tage / M</t>
+  </si>
 </sst>
 </file>
 
@@ -320,7 +350,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -328,11 +358,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -341,6 +389,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3994,15 +4049,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>690563</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:colOff>623888</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4017,8 +4072,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11510963" y="6572249"/>
-          <a:ext cx="2571750" cy="742952"/>
+          <a:off x="11434763" y="2857499"/>
+          <a:ext cx="2571750" cy="781052"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13819,20 +13874,20 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.86328125" customWidth="1"/>
-    <col min="5" max="5" width="15.06640625" customWidth="1"/>
-    <col min="7" max="7" width="19.9296875" customWidth="1"/>
-    <col min="8" max="8" width="17.265625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="L2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>72</v>
       </c>
@@ -13840,7 +13895,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>70</v>
       </c>
@@ -13848,7 +13903,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>71</v>
       </c>
@@ -13856,7 +13911,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>69</v>
       </c>
@@ -13864,7 +13919,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>53</v>
       </c>
@@ -13872,12 +13927,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="E49" s="1"/>
     </row>
@@ -13890,18 +13945,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EF74D8-9026-466E-B120-5AD0A17FB84D}">
-  <dimension ref="B2:M14"/>
+  <dimension ref="B2:W29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.1328125" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>48</v>
       </c>
@@ -13909,7 +13965,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>49</v>
       </c>
@@ -13917,20 +13973,20 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>52</v>
       </c>
@@ -13938,7 +13994,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>65</v>
       </c>
@@ -13946,7 +14002,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>66</v>
       </c>
@@ -13955,7 +14011,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>67</v>
       </c>
@@ -13963,9 +14019,79 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="V23" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R24" s="4">
+        <v>18</v>
+      </c>
+      <c r="S24" s="4">
+        <v>0</v>
+      </c>
+      <c r="T24" s="4">
+        <v>30</v>
+      </c>
+      <c r="U24" s="4">
+        <v>60</v>
+      </c>
+      <c r="V24" s="4">
+        <v>10</v>
+      </c>
+      <c r="W24" s="4"/>
+    </row>
+    <row r="29" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q29" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6">
+        <v>200</v>
+      </c>
+      <c r="T29" s="6">
+        <v>300</v>
+      </c>
+      <c r="U29" s="6">
+        <v>800</v>
+      </c>
+      <c r="V29" s="6">
+        <v>100</v>
+      </c>
+      <c r="W29" s="6">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -13983,15 +14109,15 @@
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.86328125" customWidth="1"/>
-    <col min="5" max="5" width="15.06640625" customWidth="1"/>
-    <col min="7" max="7" width="19.9296875" customWidth="1"/>
-    <col min="8" max="8" width="17.265625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>57</v>
       </c>
@@ -14000,7 +14126,7 @@
       </c>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>54</v>
       </c>
@@ -14008,7 +14134,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>55</v>
       </c>
@@ -14016,32 +14142,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="E49" s="1"/>
     </row>
@@ -14060,12 +14186,12 @@
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.86328125" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
@@ -14073,7 +14199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -14081,7 +14207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -14089,32 +14215,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N9" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>0</v>
       </c>
@@ -14122,7 +14248,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>7</v>
       </c>
@@ -14130,7 +14256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>8</v>
       </c>
@@ -14138,12 +14264,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>45</v>
       </c>
@@ -14157,7 +14283,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>44</v>
       </c>
@@ -14186,7 +14312,7 @@
       <selection activeCell="R40" sqref="R40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14201,55 +14327,55 @@
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F4" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F9" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F11" s="2"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
@@ -14257,7 +14383,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -14265,7 +14391,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>39</v>
       </c>
@@ -14273,7 +14399,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>42</v>
       </c>
@@ -14281,72 +14407,72 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>17</v>
       </c>
@@ -14364,7 +14490,7 @@
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/8. Harmonising standards/Harmonizing SXI-DF.xlsx
+++ b/8. Harmonising standards/Harmonizing SXI-DF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A1E0C6-D706-4B63-B452-6F9B2EAB2795}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702099E5-FCE1-4CA7-B68F-AC5466BF1FA1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
   <si>
     <t>Technisch</t>
   </si>
@@ -320,6 +320,39 @@
   <si>
     <t>Tage / M</t>
   </si>
+  <si>
+    <t>Sollen Nebenrollen periodisch wechseln.</t>
+  </si>
+  <si>
+    <t>Karrierewege</t>
+  </si>
+  <si>
+    <t>Technischer Spezialist</t>
+  </si>
+  <si>
+    <t>Unternehmensführung</t>
+  </si>
+  <si>
+    <t>Hauptrolle und gut</t>
+  </si>
+  <si>
+    <t>aktiver Wille, Eigenintitative</t>
+  </si>
+  <si>
+    <t>Rollen dürfen nicht aus Selbstzweck wachsen (Jeder Organisation füllt vorhandene Kapazität aus.)</t>
+  </si>
+  <si>
+    <t>Saxess als Eigenprojekt</t>
+  </si>
+  <si>
+    <t>Können neue Rollen vorschlagen.</t>
+  </si>
+  <si>
+    <t>Rollenmitglieder lassen sich beraten und stellen Roadmap im Team vor.</t>
+  </si>
+  <si>
+    <t>Explizt über Zeit als wichtigste Ressource entscheiden, nicht getrieben sein und implizit entscheiden.</t>
+  </si>
 </sst>
 </file>
 
@@ -3559,15 +3592,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>661988</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>61914</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
+      <xdr:colOff>509588</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>166689</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3582,8 +3615,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9196388" y="8205789"/>
-          <a:ext cx="976312" cy="438149"/>
+          <a:off x="9034463" y="4929189"/>
+          <a:ext cx="976312" cy="457199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3641,16 +3674,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>90487</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3665,8 +3698,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9182100" y="7305675"/>
-          <a:ext cx="966787" cy="438149"/>
+          <a:off x="9563100" y="2800350"/>
+          <a:ext cx="1314450" cy="323849"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3715,7 +3748,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Prozess-organisation</a:t>
+            <a:t>Prozessarchitektur</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4524,6 +4557,89 @@
           <a:r>
             <a:rPr lang="de-DE" sz="1400" b="1"/>
             <a:t>Infrastruktur</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>733424</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rechteck 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0587E32-BBE8-4899-867E-F291687329F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1771650" y="2933702"/>
+          <a:ext cx="1390649" cy="314324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Produktarchitektur</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -13948,7 +14064,7 @@
   <dimension ref="B2:W29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13957,52 +14073,84 @@
     <col min="17" max="17" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>48</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="P2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R2" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>50</v>
+      <c r="P4" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s">
+        <v>96</v>
+      </c>
+      <c r="P5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>52</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="P10" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>65</v>
       </c>
       <c r="K11" t="s">
         <v>77</v>
       </c>
+      <c r="P11" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>66</v>
       </c>
@@ -14010,8 +14158,11 @@
       <c r="K12" t="s">
         <v>78</v>
       </c>
+      <c r="P12" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>67</v>
       </c>
@@ -14019,7 +14170,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>68</v>
       </c>

--- a/8. Harmonising standards/Harmonizing SXI-DF.xlsx
+++ b/8. Harmonising standards/Harmonizing SXI-DF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702099E5-FCE1-4CA7-B68F-AC5466BF1FA1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33BA9D7-8C6A-4556-A681-5413843E1728}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="121">
   <si>
     <t>Technisch</t>
   </si>
@@ -353,6 +353,48 @@
   <si>
     <t>Explizt über Zeit als wichtigste Ressource entscheiden, nicht getrieben sein und implizit entscheiden.</t>
   </si>
+  <si>
+    <t>Vertrieb</t>
+  </si>
+  <si>
+    <t>Angebotsvorlage nach Modulkonzept</t>
+  </si>
+  <si>
+    <t>Frageliste nach Modulkonzept</t>
+  </si>
+  <si>
+    <t>Leistungsbeschreibung Standard und Customer in Angebotsvorlage integriert</t>
+  </si>
+  <si>
+    <t>Modulentwicklung</t>
+  </si>
+  <si>
+    <t>Basissolution Kontoplanung</t>
+  </si>
+  <si>
+    <t>Solutions mit Integration in Kontoplanung</t>
+  </si>
+  <si>
+    <t>Solutions ohne Integration in Kontoplanung</t>
+  </si>
+  <si>
+    <t>Zusammenführung beider Produkte zu einem Produkte</t>
+  </si>
+  <si>
+    <t>Entwicklung in Richtung Cloudfähigkeit der gesamten Produktwelt</t>
+  </si>
+  <si>
+    <t>Zusammenführung der Prozesse und Best Practices in der Umsetzung von Projekten</t>
+  </si>
+  <si>
+    <t>Projekte</t>
+  </si>
+  <si>
+    <t>Orientierung in Richtung "Richtig Produkt" - "Richtig Projekt"</t>
+  </si>
+  <si>
+    <t>Hügel zum U machen</t>
+  </si>
 </sst>
 </file>
 
@@ -1633,13 +1675,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>147638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>109538</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1715,13 +1757,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>742951</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>109539</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1797,13 +1839,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>109538</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1872,13 +1914,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1938,13 +1980,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>61913</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2004,13 +2046,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>52388</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2071,13 +2113,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>585788</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>90486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>147636</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2145,13 +2187,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>733426</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>104777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>109538</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2228,13 +2270,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>752476</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>14290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>128588</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>128589</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2311,13 +2353,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>538163</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>166688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>290513</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2393,13 +2435,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>176213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2475,13 +2517,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>433389</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>185739</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>138113</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2557,13 +2599,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>509588</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>147639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>123827</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2639,13 +2681,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>147639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>123827</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2721,13 +2763,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>147639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>123827</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2803,13 +2845,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>23814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2885,13 +2927,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>23814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>233362</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2967,13 +3009,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>23814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3049,13 +3091,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>347663</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3117,13 +3159,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>366713</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>128586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>4761</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3183,13 +3225,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>290512</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>61914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>38102</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3265,13 +3307,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>290512</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>42864</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3347,13 +3389,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>128589</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>376237</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>104777</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3429,13 +3471,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>42864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>19052</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3511,13 +3553,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>95252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>71440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3593,13 +3635,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>509588</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>166689</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>52388</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3676,13 +3718,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3759,13 +3801,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>133352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>109538</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3841,13 +3883,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3924,13 +3966,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>385764</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4007,13 +4049,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>90490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>442913</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>23814</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4083,13 +4125,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>623888</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>147638</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4154,13 +4196,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>109538</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4220,13 +4262,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>757238</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>95253</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>28577</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4303,13 +4345,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>385763</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4386,13 +4428,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>138113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>614363</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4443,13 +4485,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>366713</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4500,13 +4542,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>728662</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4567,13 +4609,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>76202</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>733424</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10255,8 +10297,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3810000" y="6638926"/>
-          <a:ext cx="1162050" cy="523874"/>
+          <a:off x="3810000" y="6981826"/>
+          <a:ext cx="1162050" cy="552449"/>
           <a:chOff x="4629150" y="5676901"/>
           <a:chExt cx="1162050" cy="552449"/>
         </a:xfrm>
@@ -10389,8 +10431,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3810000" y="7277101"/>
-          <a:ext cx="1162050" cy="523874"/>
+          <a:off x="3810000" y="7658101"/>
+          <a:ext cx="1162050" cy="552449"/>
           <a:chOff x="4629150" y="5676901"/>
           <a:chExt cx="1162050" cy="552449"/>
         </a:xfrm>
@@ -10523,8 +10565,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7972425" y="6086476"/>
-          <a:ext cx="1162050" cy="523874"/>
+          <a:off x="7972425" y="6400801"/>
+          <a:ext cx="1162050" cy="552449"/>
           <a:chOff x="4629150" y="5676901"/>
           <a:chExt cx="1162050" cy="552449"/>
         </a:xfrm>
@@ -14061,10 +14103,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EF74D8-9026-466E-B120-5AD0A17FB84D}">
-  <dimension ref="B2:W29"/>
+  <dimension ref="B1:W57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14073,176 +14115,251 @@
     <col min="17" max="17" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="R2" t="s">
-        <v>101</v>
+      <c r="B2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" t="s">
-        <v>96</v>
-      </c>
-      <c r="P5" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="J6" t="s">
-        <v>104</v>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
-      <c r="M7" s="1"/>
+      <c r="P7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="P10" t="s">
-        <v>105</v>
+      <c r="J10" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>65</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K15" t="s">
         <v>77</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="K12" t="s">
+      <c r="F16" s="1"/>
+      <c r="K16" t="s">
         <v>78</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>67</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="17:23" x14ac:dyDescent="0.25">
-      <c r="Q21" t="s">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Q25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="17:23" x14ac:dyDescent="0.25">
-      <c r="Q23" s="5" t="s">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Q27" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R23" s="5" t="s">
+      <c r="R27" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="S23" s="5" t="s">
+      <c r="S27" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="T23" s="5" t="s">
+      <c r="T27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="U23" s="5" t="s">
+      <c r="U27" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="V23" s="5" t="s">
+      <c r="V27" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="W23" s="5" t="s">
+      <c r="W27" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="17:23" x14ac:dyDescent="0.25">
-      <c r="Q24" s="4" t="s">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Q28" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R28" s="4">
         <v>18</v>
       </c>
-      <c r="S24" s="4">
+      <c r="S28" s="4">
         <v>0</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T28" s="4">
         <v>30</v>
       </c>
-      <c r="U24" s="4">
+      <c r="U28" s="4">
         <v>60</v>
       </c>
-      <c r="V24" s="4">
+      <c r="V28" s="4">
         <v>10</v>
       </c>
-      <c r="W24" s="4"/>
+      <c r="W28" s="4"/>
     </row>
-    <row r="29" spans="17:23" x14ac:dyDescent="0.25">
-      <c r="Q29" s="6" t="s">
+    <row r="33" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q33" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6">
+      <c r="R33" s="6"/>
+      <c r="S33" s="6">
         <v>200</v>
       </c>
-      <c r="T29" s="6">
+      <c r="T33" s="6">
         <v>300</v>
       </c>
-      <c r="U29" s="6">
+      <c r="U33" s="6">
         <v>800</v>
       </c>
-      <c r="V29" s="6">
+      <c r="V33" s="6">
         <v>100</v>
       </c>
-      <c r="W29" s="6">
+      <c r="W33" s="6">
         <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q41" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q48" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q55" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q57" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -14257,7 +14374,7 @@
   <dimension ref="B2:N49"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/8. Harmonising standards/Harmonizing SXI-DF.xlsx
+++ b/8. Harmonising standards/Harmonizing SXI-DF.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33BA9D7-8C6A-4556-A681-5413843E1728}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B3B10B-BD9A-4ED7-A70B-397C1B760287}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Zielstellung_BigBigPicture" sheetId="6" r:id="rId1"/>
     <sheet name="Rollen" sheetId="5" r:id="rId2"/>
-    <sheet name="Zielstellung_BigPicture" sheetId="4" r:id="rId3"/>
-    <sheet name="Zielstellung_Detail" sheetId="2" r:id="rId4"/>
-    <sheet name="Datenstruktur" sheetId="1" r:id="rId5"/>
-    <sheet name="Prozess" sheetId="3" r:id="rId6"/>
-    <sheet name="Betriebsoptionen" sheetId="7" r:id="rId7"/>
+    <sheet name="Schritte" sheetId="8" r:id="rId3"/>
+    <sheet name="Zielstellung_BigPicture" sheetId="4" r:id="rId4"/>
+    <sheet name="Zielstellung_Detail" sheetId="2" r:id="rId5"/>
+    <sheet name="Datenstruktur" sheetId="1" r:id="rId6"/>
+    <sheet name="Prozess" sheetId="3" r:id="rId7"/>
+    <sheet name="Betriebsoptionen" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="136">
   <si>
     <t>Technisch</t>
   </si>
@@ -202,9 +203,6 @@
   </si>
   <si>
     <t>Ermöglichen Ihnen sehr viele Mitarbeiter im Unternehmen auf sehr einfache Weise einzubeziehen.</t>
-  </si>
-  <si>
-    <t>Plattform zur Unternehmensführung - Integration von Daten, Personen und Ideen</t>
   </si>
   <si>
     <t>tagesaktuelle Datenintegration</t>
@@ -395,12 +393,60 @@
   <si>
     <t>Hügel zum U machen</t>
   </si>
+  <si>
+    <t>DB Meeting mit Definition Solution Kontoplan</t>
+  </si>
+  <si>
+    <t>SXI Schemaanpassung</t>
+  </si>
+  <si>
+    <t>Primärschlüssel</t>
+  </si>
+  <si>
+    <t>Regeln für Datentypen</t>
+  </si>
+  <si>
+    <t>Konfigurationsservice</t>
+  </si>
+  <si>
+    <t>Download</t>
+  </si>
+  <si>
+    <t>Visualisierung</t>
+  </si>
+  <si>
+    <t>Developer Meeting mit Mike</t>
+  </si>
+  <si>
+    <t>Modulare Plattform für Unternehmensführung - Integration von Daten, Personen und Ideen</t>
+  </si>
+  <si>
+    <t>MOPLUF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulare Plattform für </t>
+  </si>
+  <si>
+    <t>Daten</t>
+  </si>
+  <si>
+    <t>Lösungen</t>
+  </si>
+  <si>
+    <t>Kommunikation</t>
+  </si>
+  <si>
+    <t>Planung, Organisation</t>
+  </si>
+  <si>
+    <t>Visualisierung, Events</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +457,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -455,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -471,6 +524,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -14047,34 +14101,34 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -14082,12 +14136,12 @@
         <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
@@ -14106,7 +14160,7 @@
   <dimension ref="B1:W57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14122,17 +14176,17 @@
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
@@ -14140,13 +14194,13 @@
         <v>48</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
@@ -14154,7 +14208,7 @@
         <v>49</v>
       </c>
       <c r="P7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
@@ -14162,10 +14216,10 @@
         <v>50</v>
       </c>
       <c r="J8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
@@ -14173,20 +14227,20 @@
         <v>51</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M11" s="1"/>
     </row>
@@ -14195,79 +14249,100 @@
         <v>52</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F16" s="1"/>
       <c r="K16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>98</v>
+      </c>
       <c r="Q25" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D27" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="Q27" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S27" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T27" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="T27" s="5" t="s">
+      <c r="U27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="V27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="U27" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="V27" s="5" t="s">
+      <c r="W27" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="W27" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="Q28" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R28" s="4">
         <v>18</v>
@@ -14286,9 +14361,19 @@
       </c>
       <c r="W28" s="4"/>
     </row>
-    <row r="33" spans="17:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D31" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="4:23" x14ac:dyDescent="0.25">
       <c r="Q33" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R33" s="6"/>
       <c r="S33" s="6">
@@ -14307,59 +14392,64 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="17:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="4:23" x14ac:dyDescent="0.25">
       <c r="Q41" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="Q42" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="17:23" x14ac:dyDescent="0.25">
-      <c r="Q42" t="s">
+    <row r="43" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="Q43" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="17:23" x14ac:dyDescent="0.25">
-      <c r="Q43" t="s">
+    <row r="44" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="Q44" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="17:23" x14ac:dyDescent="0.25">
-      <c r="Q44" t="s">
+    <row r="48" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="Q48" s="1" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="17:23" x14ac:dyDescent="0.25">
-      <c r="Q48" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="49" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q55" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -14370,11 +14460,74 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C61D5E-3274-4E91-B4BA-CF516F62AFDD}">
+  <dimension ref="B3:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE61C21-B4DF-4ACF-89E3-F75BA53700E1}">
   <dimension ref="B2:N49"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14387,10 +14540,10 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N2" s="1"/>
     </row>
@@ -14399,7 +14552,7 @@
         <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -14407,7 +14560,7 @@
         <v>55</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -14417,22 +14570,22 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
@@ -14446,7 +14599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57257774-D818-4A13-91F1-A7DCB0C009FC}">
   <dimension ref="B2:N63"/>
   <sheetViews>
@@ -14495,17 +14648,17 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -14572,7 +14725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BD8981-4FF0-497D-829F-61801F8BAED6}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -14587,7 +14740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71006EA9-40F6-4D3A-95DF-25D6B75326D9}">
   <dimension ref="B2:J42"/>
   <sheetViews>
@@ -14750,7 +14903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DACF6E-0F61-4744-BDED-4D535B825F26}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/8. Harmonising standards/Harmonizing SXI-DF.xlsx
+++ b/8. Harmonising standards/Harmonizing SXI-DF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B3B10B-BD9A-4ED7-A70B-397C1B760287}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF4B985-1561-493B-9F48-E5665CCAD3BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
   </bookViews>
@@ -4240,6 +4240,8 @@
             <a:rPr lang="de-DE" sz="1100" baseline="0"/>
             <a:t> ohne Dienstleistung oder mit sehr viel Dienstleistung - aber möglichst nicht in der Mitte.</a:t>
           </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="de-DE" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -14160,7 +14162,7 @@
   <dimension ref="B1:W57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/8. Harmonising standards/Harmonizing SXI-DF.xlsx
+++ b/8. Harmonising standards/Harmonizing SXI-DF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF4B985-1561-493B-9F48-E5665CCAD3BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46459E6D-3677-4EB1-BE4C-220DC84374BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Zielstellung_BigBigPicture" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="130">
   <si>
     <t>Technisch</t>
   </si>
@@ -238,30 +238,6 @@
     <t>Projekte mit außergewöhnlichem Zeitaufwand und geringem Ertrag</t>
   </si>
   <si>
-    <t>PowerBI / Qlikmuster</t>
-  </si>
-  <si>
-    <t>CP Lieferant</t>
-  </si>
-  <si>
-    <t>kein Rechtesystem</t>
-  </si>
-  <si>
-    <t>Status SXI</t>
-  </si>
-  <si>
-    <t>Status DF</t>
-  </si>
-  <si>
-    <t>Datenintegration oft SP</t>
-  </si>
-  <si>
-    <t>Pivot im Web</t>
-  </si>
-  <si>
-    <t>Rechtesystem</t>
-  </si>
-  <si>
     <t>SFZ Chemnitz</t>
   </si>
   <si>
@@ -278,9 +254,6 @@
   </si>
   <si>
     <t>Jeder SXI Mitarbeiter kann Solution Vertragsverwaltung einrichten.</t>
-  </si>
-  <si>
-    <t>Alle drei Bausteine können einzeln eingesetzt werden.</t>
   </si>
   <si>
     <t>Sollten mehrere Rollen in der Firma besetzten</t>
@@ -427,12 +400,6 @@
     <t xml:space="preserve">Modulare Plattform für </t>
   </si>
   <si>
-    <t>Daten</t>
-  </si>
-  <si>
-    <t>Lösungen</t>
-  </si>
-  <si>
     <t>Kommunikation</t>
   </si>
   <si>
@@ -441,12 +408,27 @@
   <si>
     <t>Visualisierung, Events</t>
   </si>
+  <si>
+    <t>Stärke, Geschwindigkeit</t>
+  </si>
+  <si>
+    <t>Planung</t>
+  </si>
+  <si>
+    <t>Modulare Plattform für Unternehmensführung</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S</t>
+  </si>
+  <si>
+    <t>System for Enterprise Leading and Force - SELF</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,6 +446,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -508,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -525,6 +515,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -546,23 +537,212 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>742947</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Flussdiagramm: Auszug 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40859E57-14E2-4586-AD3D-ED6F19C40350}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2262185" y="1404938"/>
+          <a:ext cx="685803" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartExtract">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>AD</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>328613</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>461963</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Wolke 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79FC228A-6F74-49F9-BF40-87AED74DD479}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3857626" y="8934450"/>
+          <a:ext cx="1076325" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="cloud">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Cloud</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rechteck 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{280BFFEE-1710-4947-AA2B-D6FB3FC33CC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771901" y="10144125"/>
+          <a:ext cx="1109662" cy="452438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>On Premises</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>109538</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rechteck 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC269847-10F4-4A3A-AC1F-61C01870BFF9}"/>
+      <xdr:colOff>390523</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>80964</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rechteck 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06F355AC-458C-4FF8-8AE2-FEE7BC324B4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -570,8 +750,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="328613" y="2205038"/>
-          <a:ext cx="890588" cy="519113"/>
+          <a:off x="433388" y="2505076"/>
+          <a:ext cx="1476373" cy="519113"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -605,6 +785,13 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Datenintegration</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
             <a:t>IST</a:t>
           </a:r>
         </a:p>
@@ -614,23 +801,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>990599</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>157163</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>380998</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>147638</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Flussdiagramm: Auszug 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40859E57-14E2-4586-AD3D-ED6F19C40350}"/>
+      <xdr:rowOff>71439</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rechteck 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0FB809B-D4BC-46B1-88AB-D5F78DF3DB6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -638,12 +825,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6886574" y="1633537"/>
-          <a:ext cx="1071564" cy="866776"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartExtract">
-          <a:avLst/>
-        </a:prstGeom>
+          <a:off x="442913" y="1952626"/>
+          <a:ext cx="1457323" cy="519113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -662,38 +854,45 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>AD</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Wolke 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AEDA1E5-61E2-4C0F-859C-B4E86D5ECAEF}"/>
+            <a:t>Planung/Organisation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>PLAN</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>166689</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rechteck 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8025790-37AB-46D4-983A-D1237586BE1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -701,12 +900,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1871663" y="8905875"/>
-          <a:ext cx="1076325" cy="581025"/>
-        </a:xfrm>
-        <a:prstGeom prst="cloud">
-          <a:avLst/>
-        </a:prstGeom>
+          <a:off x="452439" y="1395413"/>
+          <a:ext cx="1457324" cy="519113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -731,32 +935,32 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>Cloud</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>147638</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>461963</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Wolke 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79FC228A-6F74-49F9-BF40-87AED74DD479}"/>
+            <a:t>Visualisierung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>233363</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Wolke 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E678C831-43D7-447C-AE0B-6BAC4238A187}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -764,8 +968,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3857626" y="8934450"/>
-          <a:ext cx="1076325" cy="581025"/>
+          <a:off x="1171575" y="785812"/>
+          <a:ext cx="1343026" cy="509587"/>
         </a:xfrm>
         <a:prstGeom prst="cloud">
           <a:avLst/>
@@ -788,76 +992,13 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>Cloud</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rechteck 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9507C499-7973-488F-9477-FBBFA14C9DAF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1862138" y="10144125"/>
-          <a:ext cx="1109662" cy="452438"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>On Premises</a:t>
+            <a:t>Cloudfähig</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -867,313 +1008,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>61913</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Rechteck 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{280BFFEE-1710-4947-AA2B-D6FB3FC33CC3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3771901" y="10144125"/>
-          <a:ext cx="1109662" cy="452438"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>On Premises</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>313428</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>147638</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>150977</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>176213</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Gerade Verbindung mit Pfeil 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FE83EA8-716E-4203-99E1-1E67E1AD417C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="0"/>
-          <a:endCxn id="16" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2947091" y="9196388"/>
-          <a:ext cx="913874" cy="28575"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>538163</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>75581</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>545306</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Gerade Verbindung mit Pfeil 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36405526-63EE-4816-84A8-4AAC8A3E9A15}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="1"/>
-          <a:endCxn id="17" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2409826" y="9486281"/>
-          <a:ext cx="7143" cy="657844"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>54769</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>61913</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>54769</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Gerade Verbindung mit Pfeil 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F63809AC-8EC5-43A1-B2C1-ACF2D82B3D93}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="18" idx="1"/>
-          <a:endCxn id="17" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2971800" y="10370344"/>
-          <a:ext cx="800101" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>616744</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>104156</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>685801</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Gerade Verbindung mit Pfeil 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE56F923-5264-4C06-B2D0-B9AF2D37103B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="16" idx="1"/>
-          <a:endCxn id="18" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4326732" y="9514856"/>
-          <a:ext cx="69057" cy="629269"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>271462</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Textfeld 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{028B2AA5-5A4A-4B7F-ADC8-4A39B0888C08}"/>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>33339</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Textfeld 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEA812F0-DDDF-4F53-A36B-49CDB9900CC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1181,8 +1031,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2905125" y="9458325"/>
-          <a:ext cx="995362" cy="552450"/>
+          <a:off x="4310063" y="704850"/>
+          <a:ext cx="5281612" cy="3357564"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1191,7 +1041,11 @@
           <a:schemeClr val="lt1"/>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1214,507 +1068,51 @@
         <a:p>
           <a:r>
             <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>Alle Wege, alle</a:t>
+            <a:t>SELF</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t> Systeme</a:t>
-          </a:r>
+            <a:t> ist unsere Plattform für die Führung von Unternehmen. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t>Die Plattform umfasst drei zentrale Themengebiete:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t>- alles vorhandene Datenwissen zusammenzutragen und leicht verfügbar zu machen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t>- Finanzströme und Organisationsprozesse zu planen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t>- Ziel und Status zu visualisieren und Kommunikation über den Prozess zu ermöglichen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>733426</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>862014</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Rechteck 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74193CD4-41FF-4D6E-B289-C71E498A9059}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2605089" y="2233613"/>
-          <a:ext cx="890588" cy="519113"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>PLAN</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>966787</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>647699</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Rechteck 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06F355AC-458C-4FF8-8AE2-FEE7BC324B4C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5438775" y="2433638"/>
-          <a:ext cx="1104899" cy="519113"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>IST</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>976312</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>638174</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Rechteck 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0FB809B-D4BC-46B1-88AB-D5F78DF3DB6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5448300" y="1881188"/>
-          <a:ext cx="1085849" cy="519113"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>PLAN</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>976313</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Rechteck 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8025790-37AB-46D4-983A-D1237586BE1C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5448301" y="1323975"/>
-          <a:ext cx="1095374" cy="519113"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>Visualisierung</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>135732</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>25002</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Gerader Verbinder 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F64DEBF-A5D4-4BB5-B5FB-F856FE76594B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="27" idx="3"/>
-          <a:endCxn id="11" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6543675" y="1583532"/>
-          <a:ext cx="610790" cy="483393"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>638174</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>25002</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>150020</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Gerader Verbinder 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5911C2AA-C94B-4147-9D91-D55488B4F2FB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="26" idx="3"/>
-          <a:endCxn id="11" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6534149" y="2066925"/>
-          <a:ext cx="620316" cy="73820"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>647699</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>25002</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>159545</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Gerader Verbinder 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D73A1237-2983-4546-B08E-D48949A76128}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="25" idx="3"/>
-          <a:endCxn id="11" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6543674" y="2066925"/>
-          <a:ext cx="610791" cy="626270"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1004887</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>233362</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Wolke 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E678C831-43D7-447C-AE0B-6BAC4238A187}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6900862" y="904875"/>
-          <a:ext cx="1223963" cy="509587"/>
-        </a:xfrm>
-        <a:prstGeom prst="cloud">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>Cloudfähig</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10353,8 +9751,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3810000" y="6981826"/>
-          <a:ext cx="1162050" cy="552449"/>
+          <a:off x="3810000" y="6638926"/>
+          <a:ext cx="1162050" cy="523874"/>
           <a:chOff x="4629150" y="5676901"/>
           <a:chExt cx="1162050" cy="552449"/>
         </a:xfrm>
@@ -10487,8 +9885,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3810000" y="7658101"/>
-          <a:ext cx="1162050" cy="552449"/>
+          <a:off x="3810000" y="7277101"/>
+          <a:ext cx="1162050" cy="523874"/>
           <a:chOff x="4629150" y="5676901"/>
           <a:chExt cx="1162050" cy="552449"/>
         </a:xfrm>
@@ -10621,8 +10019,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7972425" y="6400801"/>
-          <a:ext cx="1162050" cy="552449"/>
+          <a:off x="7972425" y="6086476"/>
+          <a:ext cx="1162050" cy="523874"/>
           <a:chOff x="4629150" y="5676901"/>
           <a:chExt cx="1162050" cy="552449"/>
         </a:xfrm>
@@ -10924,15 +10322,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10947,7 +10345,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9353550" y="247649"/>
+          <a:off x="9420225" y="371474"/>
           <a:ext cx="4600575" cy="3357564"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14082,73 +13480,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FFF68C-378F-4B53-B6E1-CC1E8DA72D83}">
-  <dimension ref="B2:N49"/>
+  <dimension ref="B1:O3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="17.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="N2" s="1"/>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="O1" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>72</v>
-      </c>
+    <row r="2" spans="2:15" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-      <c r="E49" s="1"/>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -14161,190 +13520,190 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EF74D8-9026-466E-B120-5AD0A17FB84D}">
   <dimension ref="B1:W57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.1328125" customWidth="1"/>
+    <col min="17" max="17" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>48</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="R6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>49</v>
       </c>
       <c r="P7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>50</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="P8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>51</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
       <c r="J10" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M11" s="1"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="P14" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>64</v>
       </c>
       <c r="K15" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="P15" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>65</v>
       </c>
       <c r="F16" s="1"/>
       <c r="K16" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="P16" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>66</v>
       </c>
       <c r="K17" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Q25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="D26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="D27" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R27" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="S27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="V27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D27" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q27" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="R27" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="S27" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="T27" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="U27" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="V27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="W27" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.45">
       <c r="Q28" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="R28" s="4">
         <v>18</v>
@@ -14363,19 +13722,22 @@
       </c>
       <c r="W28" s="4"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.45">
       <c r="D30" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.45">
       <c r="D31" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="33" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:23" x14ac:dyDescent="0.45">
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
       <c r="Q33" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="R33" s="6"/>
       <c r="S33" s="6">
@@ -14394,64 +13756,64 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>131</v>
+    <row r="34" spans="4:23" x14ac:dyDescent="0.45">
+      <c r="D34" s="7" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="41" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:23" x14ac:dyDescent="0.45">
       <c r="Q41" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="42" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:23" x14ac:dyDescent="0.45">
       <c r="Q42" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="43" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:23" x14ac:dyDescent="0.45">
       <c r="Q43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="4:23" x14ac:dyDescent="0.45">
+      <c r="Q44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="4:23" x14ac:dyDescent="0.45">
+      <c r="Q48" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="Q49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="Q50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="Q51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="Q55" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="Q44" t="s">
+    <row r="56" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="Q56" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="Q48" s="1" t="s">
+    <row r="57" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="Q57" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q49" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="50" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q50" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="51" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q51" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q55" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="56" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q56" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="57" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q57" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -14469,54 +13831,54 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="3.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -14529,27 +13891,27 @@
   <dimension ref="B2:N49"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.86328125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>61</v>
       </c>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>54</v>
       </c>
@@ -14557,7 +13919,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>55</v>
       </c>
@@ -14565,32 +13927,32 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B49" s="1"/>
       <c r="E49" s="1"/>
     </row>
@@ -14606,15 +13968,15 @@
   <dimension ref="B2:N63"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
@@ -14622,7 +13984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -14630,7 +13992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -14638,32 +14000,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
       <c r="N9" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
       <c r="N10" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
       <c r="N11" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
         <v>0</v>
       </c>
@@ -14671,7 +14033,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
         <v>7</v>
       </c>
@@ -14679,7 +14041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
         <v>8</v>
       </c>
@@ -14687,12 +14049,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
         <v>45</v>
       </c>
@@ -14706,7 +14068,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
         <v>44</v>
       </c>
@@ -14732,10 +14094,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R40" sqref="R40"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14750,55 +14112,55 @@
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F4" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F9" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F11" s="2"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
@@ -14806,7 +14168,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -14814,7 +14176,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>39</v>
       </c>
@@ -14822,7 +14184,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>42</v>
       </c>
@@ -14830,72 +14192,72 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
       <c r="J17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
       <c r="J18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
       <c r="J20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
       <c r="J21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>17</v>
       </c>
@@ -14913,7 +14275,7 @@
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/8. Harmonising standards/Harmonizing SXI-DF.xlsx
+++ b/8. Harmonising standards/Harmonizing SXI-DF.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46459E6D-3677-4EB1-BE4C-220DC84374BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8A945D-90BD-4183-9A5F-79C579AADE72}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="13680" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Zielstellung_BigBigPicture" sheetId="6" r:id="rId1"/>
     <sheet name="Rollen" sheetId="5" r:id="rId2"/>
-    <sheet name="Schritte" sheetId="8" r:id="rId3"/>
-    <sheet name="Zielstellung_BigPicture" sheetId="4" r:id="rId4"/>
-    <sheet name="Zielstellung_Detail" sheetId="2" r:id="rId5"/>
-    <sheet name="Datenstruktur" sheetId="1" r:id="rId6"/>
-    <sheet name="Prozess" sheetId="3" r:id="rId7"/>
-    <sheet name="Betriebsoptionen" sheetId="7" r:id="rId8"/>
+    <sheet name="Rollen_Backup" sheetId="9" r:id="rId3"/>
+    <sheet name="Schritte" sheetId="8" r:id="rId4"/>
+    <sheet name="Zielstellung_BigPicture" sheetId="4" r:id="rId5"/>
+    <sheet name="Zielstellung_Detail" sheetId="2" r:id="rId6"/>
+    <sheet name="Datenstruktur" sheetId="1" r:id="rId7"/>
+    <sheet name="Prozess" sheetId="3" r:id="rId8"/>
+    <sheet name="Betriebsoptionen" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="129">
   <si>
     <t>Technisch</t>
   </si>
@@ -415,13 +416,10 @@
     <t>Planung</t>
   </si>
   <si>
-    <t>Modulare Plattform für Unternehmensführung</t>
+    <t>System for Enterprise Leading and Force - SELF</t>
   </si>
   <si>
-    <t xml:space="preserve"> S</t>
-  </si>
-  <si>
-    <t>System for Enterprise Leading and Force - SELF</t>
+    <t>Modulares Unternehmensführungssystem</t>
   </si>
 </sst>
 </file>
@@ -537,16 +535,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>742947</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57145</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>90490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190497</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47627</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -561,8 +559,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2262185" y="1404938"/>
-          <a:ext cx="685803" cy="590550"/>
+          <a:off x="3100383" y="8101015"/>
+          <a:ext cx="895352" cy="862012"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartExtract">
           <a:avLst/>
@@ -594,67 +592,11 @@
             <a:t>AD</a:t>
           </a:r>
         </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>461963</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Wolke 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79FC228A-6F74-49F9-BF40-87AED74DD479}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3857626" y="8934450"/>
-          <a:ext cx="1076325" cy="581025"/>
-        </a:xfrm>
-        <a:prstGeom prst="cloud">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>Cloud</a:t>
+            <a:t>sicher</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -727,15 +669,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>147638</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>390523</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>80964</xdr:rowOff>
+      <xdr:colOff>1157287</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>90490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638172</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>66678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -750,7 +692,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="433388" y="2505076"/>
+          <a:off x="1443037" y="9005890"/>
           <a:ext cx="1476373" cy="519113"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -785,14 +727,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>Datenintegration</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>IST</a:t>
+            <a:t>Integration</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -802,15 +737,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>157163</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>380998</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>71439</xdr:rowOff>
+      <xdr:colOff>1166812</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>80965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628647</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57153</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -825,7 +760,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="442913" y="1952626"/>
+          <a:off x="1452562" y="8453440"/>
           <a:ext cx="1457323" cy="519113"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -860,14 +795,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>Planung/Organisation</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>PLAN</a:t>
+            <a:t>Planung</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -877,15 +805,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>166689</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:colOff>1176338</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>42865</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -900,7 +828,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="452439" y="1395413"/>
+          <a:off x="1462088" y="7896227"/>
           <a:ext cx="1457324" cy="519113"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -945,15 +873,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>1209674</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>233363</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:colOff>528636</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -968,8 +896,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1171575" y="785812"/>
-          <a:ext cx="1343026" cy="509587"/>
+          <a:off x="1495424" y="7229476"/>
+          <a:ext cx="1314450" cy="509587"/>
         </a:xfrm>
         <a:prstGeom prst="cloud">
           <a:avLst/>
@@ -1007,16 +935,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>452437</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>33339</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1031,8 +959,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4310063" y="704850"/>
-          <a:ext cx="5281612" cy="3357564"/>
+          <a:off x="404813" y="5038725"/>
+          <a:ext cx="5253037" cy="1323975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1068,6 +996,1653 @@
         <a:p>
           <a:r>
             <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Modulare </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t>Plattform für die Führung von Unternehmen.				 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t>Die Plattform umfasst drei zentrale Themengebiete:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t>- alles vorhandene Datenwissen zusammenzutragen und leicht verfügbar zu machen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t>- Finanzströme und Organisationsprozesse zu planen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t>- Ziel und Status zu visualisieren und Kommunikation über den Prozess zu ermöglichen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>33339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9527</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rechteck 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBDF6968-DFC4-4083-8750-06C309F8B35B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="1166814"/>
+          <a:ext cx="4090988" cy="519113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Philosophie</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>166691</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rechteck 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FBCBAC0-9672-4B76-999F-B06B0DE0ACB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="1771651"/>
+          <a:ext cx="1824038" cy="795340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Produkt</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>671513</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>176214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rechteck 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DD3E1A1-CB11-4E7C-9073-AC52EF2CD297}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2333625" y="1781175"/>
+          <a:ext cx="2143126" cy="795339"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Projekte</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>61914</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rechteck 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B7230D2-FD60-4DFC-99B6-0AA109818062}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="2667001"/>
+          <a:ext cx="4090988" cy="519113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Kommunikation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rechteck 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D9B7743-5F04-412B-AA99-91BE9CCF897A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="390525" y="3243264"/>
+          <a:ext cx="4090988" cy="519113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Infrastruktur</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t> / Organisation</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Textfeld 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98D1C4EE-DA2D-402D-BEED-7D4C4FED5B7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="747713"/>
+          <a:ext cx="3543300" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="1"/>
+            <a:t>Die</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="1" baseline="0"/>
+            <a:t> Firma</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>233363</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Textfeld 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEEC96FF-3BF9-4D3E-8E06-19E7C215564C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="519113" y="4143375"/>
+          <a:ext cx="3543300" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="1"/>
+            <a:t>Das Produkt</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>157165</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rechteck 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F7AF14-3C32-4563-96AD-6E2DFFA48331}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5600700" y="1133477"/>
+          <a:ext cx="4090988" cy="519113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Philosophie</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>280986</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>61914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>576261</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133354</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rechteck 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D81BDB37-8A0B-49D5-864C-6F22B419AAB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5610224" y="1738314"/>
+          <a:ext cx="4105275" cy="795340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Produkt (Camtasia, Wordpress, Skype)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>52389</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rechteck 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B59150-65B2-4400-8732-40642B614036}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591175" y="2633664"/>
+          <a:ext cx="4090988" cy="519113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Kommunikation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>61915</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rechteck 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{167E5A0B-A1C2-4CC8-98DF-9EEC9DAD63D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581650" y="3209927"/>
+          <a:ext cx="4090988" cy="519113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Infrastruktur</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t> / Organisation</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Textfeld 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D89C8B7-AC5A-4FAE-9156-23BB97CEC91A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5724525" y="709613"/>
+          <a:ext cx="3543300" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="1"/>
+            <a:t>Softwarefirma</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>147639</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rechteck 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860BD724-C47E-46C0-8F3F-D318711D0CFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10444163" y="1123951"/>
+          <a:ext cx="4090988" cy="519113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Philosophie</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rechteck 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D0CF598-0C6A-4730-8F55-887FEFB72233}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10453687" y="1728788"/>
+          <a:ext cx="4105275" cy="795340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Projekt (Steria, BCG, Individualsoftware)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rechteck 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CA74A6A-ED45-4C26-883A-F88E240EE5A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10434638" y="2624138"/>
+          <a:ext cx="4090988" cy="519113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Kommunikation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>42863</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>52389</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rechteck 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B445E6C3-1D88-460D-AE14-B4774464F638}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10425113" y="3200401"/>
+          <a:ext cx="4090988" cy="519113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Infrastruktur</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t> / Organisation</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Textfeld 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6889AE1-B0B0-43C9-AA17-AD77131BE88B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10567988" y="700087"/>
+          <a:ext cx="3543300" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="1"/>
+            <a:t>Consultingfirma</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rechteck 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7419B9B9-A5E4-4F55-BC83-5F6205609ED0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15382876" y="1128713"/>
+          <a:ext cx="4090988" cy="519113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Philosophie</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>138115</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rechteck 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{886D43D3-5955-43A8-A278-85046841084A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16173450" y="1743075"/>
+          <a:ext cx="2443163" cy="795340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Produktartige</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t> Software</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t> welche im Rahmen eines Projektes nutzbar wird.</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rechteck 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81837E18-5C1C-42BF-A862-A9473EF612F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15373351" y="2628900"/>
+          <a:ext cx="4090988" cy="519113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Kommunikation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Rechteck 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B2ED412-D633-4F41-8912-A778CC7C19FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15363826" y="3205163"/>
+          <a:ext cx="4090988" cy="519113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Infrastruktur</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t> / Organisation</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>271463</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Textfeld 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1773357A-3B48-4288-A212-3D4C874C10E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15506701" y="704849"/>
+          <a:ext cx="3543300" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="1"/>
+            <a:t>Wir derzeit</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Textfeld 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{178C3680-36E2-4E4E-8A4F-455FF9A95DEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8920163" y="6248399"/>
+          <a:ext cx="5253037" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
             <a:t>SELF</a:t>
           </a:r>
           <a:r>
@@ -1125,6 +2700,6553 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rechteck 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0542BCD-E529-4121-AFCC-13793B6A2DA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="3752851"/>
+          <a:ext cx="1438275" cy="771524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Integration</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>109539</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rechteck 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FE837FA-CE56-47E4-A5AA-5D0827857286}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352425" y="2871786"/>
+          <a:ext cx="1423989" cy="804863"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Planung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rechteck 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98810BA-DEC4-41A2-B374-4396B9BDDE17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="1800225"/>
+          <a:ext cx="1414463" cy="890587"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Visualisierung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Textfeld 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C60522C8-AD92-421C-AD47-5E3878DA70FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752476" y="1257299"/>
+          <a:ext cx="781050" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1"/>
+            <a:t>Software</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>747713</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Textfeld 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65664833-6939-4F9E-8528-99E4F5F8DEF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3938588" y="1238249"/>
+          <a:ext cx="957261" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1"/>
+            <a:t>Logikpakete</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Textfeld 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10CF2FF6-879C-426C-83E1-CD42BB2F17C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2452688" y="581024"/>
+          <a:ext cx="1481137" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="1"/>
+            <a:t>Produkt</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>461963</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>157160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Textfeld 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E3F9142-9A13-451E-99A3-990615FFA70B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8996363" y="519110"/>
+          <a:ext cx="1481137" cy="357189"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Projektprozess</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>661988</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rechteck 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAB192DE-9E08-496F-90CD-C7E383E7FF61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="423862" y="8791576"/>
+          <a:ext cx="1152526" cy="423862"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Software- qualitätssicherung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>109541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>176211</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rechteck 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E969C3D-137A-47DF-A9E2-11B582645B01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1685924" y="8796341"/>
+          <a:ext cx="928687" cy="428622"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Handbuch</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rechteck 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97920A63-7A93-4337-8FF5-19D9C834C093}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1957387" y="4471988"/>
+          <a:ext cx="500063" cy="366712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Datev FiBu</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rechteck 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C01BA4C-A3B8-4C9C-8437-E847579159D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="1581150"/>
+          <a:ext cx="1676400" cy="3781425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Softwareentwicklung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>14289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rechteck 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBFFE0BE-5E99-4EF0-97F0-50DB2DDEEC3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13435013" y="4205289"/>
+          <a:ext cx="1090612" cy="457199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Projekt-controlling</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rechteck 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C14228D-63F7-4350-A691-54E01B45C5C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9963150" y="1466850"/>
+          <a:ext cx="1314450" cy="323849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Prozessarchitektur</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>404813</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rechteck 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E347C1-7FBB-459C-A779-2B205BF90048}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162426" y="8391525"/>
+          <a:ext cx="966787" cy="447674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Buchhaltung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>404814</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rechteck 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{181C629B-3D1F-44E7-BE2B-1EFDB8E12776}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="557214" y="8391526"/>
+          <a:ext cx="842961" cy="447674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Lokal</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>233363</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>661989</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>157164</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rechteck 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF218DAC-C9B5-440B-BCD3-D704D9D81279}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="385763" y="6638926"/>
+          <a:ext cx="1952626" cy="395288"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Produktsupport</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>42865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rechteck 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CD74041-74D2-4D22-8132-E0BB9322B387}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419099" y="9272590"/>
+          <a:ext cx="1152526" cy="400048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Schulung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rechteck 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F01D846F-5910-4427-938E-8B142FCEE9A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8324850" y="2657475"/>
+          <a:ext cx="3543299" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Betrieb</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>614363</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>623889</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Gerader Verbinder 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5187FE38-96C3-4368-9BB9-6B6DA8BDFC19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7624763" y="1071563"/>
+          <a:ext cx="9526" cy="6105525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>862013</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Gerader Verbinder 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{694E555F-CFE2-4749-88EA-4C51827080F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="333375" y="9825038"/>
+          <a:ext cx="12111038" cy="66676"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>604838</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>19048</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Textfeld 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76BB8D43-F3D6-41CA-B5AC-B911ABF271DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5329238" y="9915523"/>
+          <a:ext cx="3543300" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="1"/>
+            <a:t>Infrastruktur und interne Organisation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rechteck 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF0300AD-400F-4576-B519-DE05BA6F24F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4233862" y="4691063"/>
+          <a:ext cx="500063" cy="366712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Datev KoRe</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rechteck 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A4B1A78-B6F5-4804-8D88-38987E3BE343}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3652837" y="4681538"/>
+          <a:ext cx="500063" cy="366712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NAV KoRe</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rechteck 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E46B4C09-94ED-49EB-A1A6-F74B822830F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4805363" y="4700588"/>
+          <a:ext cx="433387" cy="366712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SAP KoRe</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rechteck 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDF1AC2F-10D3-456B-BB52-DF0D58F90095}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5624512" y="4481513"/>
+          <a:ext cx="500063" cy="366712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Datev Personal</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Rechteck 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15CD7CFA-9A2D-4A39-AC78-A8C64B06CE2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6167437" y="4471988"/>
+          <a:ext cx="500063" cy="366712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NAV Personal</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Rechteck 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADE44F59-A1A9-4014-A9DB-D958D5482AF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6724650" y="4462463"/>
+          <a:ext cx="428625" cy="366712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SAP HR</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rechteck 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90D2B58D-9F5C-4588-A23D-CB053087A75A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1976437" y="2881313"/>
+          <a:ext cx="500063" cy="366712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Kontoplanung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>490537</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Rechteck 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDE7F210-7408-479D-AC19-B04A01E27AD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6729412" y="2881313"/>
+          <a:ext cx="500063" cy="366712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Personal I</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>709612</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Rechteck 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{571F1FC9-BD3C-4126-ADE2-2BB427A3976B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6186487" y="2871788"/>
+          <a:ext cx="500063" cy="366712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Personal II</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rechteck 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79D5DA37-8F84-427F-9FE9-7C36F1BBA149}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5614987" y="2862263"/>
+          <a:ext cx="500063" cy="366712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Personal ÖD</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>738187</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Rechteck 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF9176F0-72E6-4602-BEAD-74CB19A51C39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6215062" y="2243138"/>
+          <a:ext cx="500063" cy="366712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Personal cockpit</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Rechteck 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A6FABF3-5A79-455E-B0E6-5D0E8697CD46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1985962" y="2214563"/>
+          <a:ext cx="500063" cy="366712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GuV Cockpit</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Rechteck 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{366DFF05-03C1-469E-A1C5-EDFFBC38F6F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2633662" y="2195513"/>
+          <a:ext cx="500063" cy="366712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bilanz cockpit</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>42863</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Rechteck 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85752690-463C-4882-9973-3D1E48BC7B5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1957387" y="3414712"/>
+          <a:ext cx="523876" cy="414337"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Zusatzbuchungen</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>671513</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Rechteck 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{890B787A-2C2B-41A3-B901-F2791A893FF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2557462" y="3414713"/>
+          <a:ext cx="552451" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>KST</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Umlage</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>728662</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Rechteck 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BA3DD27-5DD4-4766-9DD9-FC5C3AB24F6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3167062" y="3405188"/>
+          <a:ext cx="528638" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IFRS Überltg</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Rechteck 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AFD1C07-0F9D-40AE-AE50-F8302E6AC015}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3595687" y="4495799"/>
+          <a:ext cx="1709738" cy="666751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Logikentwicklung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>280988</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Rechteck 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F482EE-B179-415A-9087-9277282BCAA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1947863" y="4214813"/>
+          <a:ext cx="1604962" cy="204787"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FiBu</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>471488</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Rechteck 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADB4435B-B11D-4511-A132-8E7EFB95DBE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3662363" y="4224338"/>
+          <a:ext cx="1604962" cy="204787"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>KoRe</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Rechteck 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{537D5581-B4A0-498E-A16B-2FB7805853E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5634037" y="4214813"/>
+          <a:ext cx="1538287" cy="204787"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Personal</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>33336</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Rechteck 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FE4D89C-4BA3-4BF0-A299-D75217890169}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5510211" y="1866899"/>
+          <a:ext cx="1795463" cy="3086101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Solutionentwicklung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>752473</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>47628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>185736</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Rechteck 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AF6241A-37FA-4A99-B942-87195B3D869C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666873" y="9277353"/>
+          <a:ext cx="957263" cy="404810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Wissens-managment</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>652463</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Rechteck 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7919ACED-060E-40BB-A74E-768C560E1037}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285749" y="8558212"/>
+          <a:ext cx="2805114" cy="1219201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Wissensmanagement</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Rechteck 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D049FF-7525-4F98-AE59-05BAAA569667}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="290512" y="6410326"/>
+          <a:ext cx="7058026" cy="728662"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Produktsupport</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>576264</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Rechteck 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26B45A6E-236C-472E-8ED7-769B1F43FC18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1490664" y="8401051"/>
+          <a:ext cx="1233486" cy="447674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Azure Cloudmanagement</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Rechteck 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA3BD33-B9A3-473C-9B92-E1F2F0DA16F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="328612" y="8201025"/>
+          <a:ext cx="3309938" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IT Management</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>376239</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Rechteck 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3FB6197-C69B-4B12-A857-15B0B18A1379}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2814639" y="8401051"/>
+          <a:ext cx="700086" cy="447674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Telefon</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>385764</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="Rechteck 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5CE3815-02A2-46C8-AFC8-A354244C0623}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2824164" y="8905876"/>
+          <a:ext cx="700086" cy="447674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Mail</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>376239</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="Rechteck 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B534F232-7E70-47E1-9A18-84B37102DEB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2052639" y="8896351"/>
+          <a:ext cx="700086" cy="447674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Git</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>338139</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Rechteck 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E84E116B-6152-406D-A222-04D67E8BB36E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1252539" y="8896351"/>
+          <a:ext cx="700086" cy="447674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Jira</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Rechteck 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E844ACAC-9B49-4B3E-8D44-76DA2D117A77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8191499" y="3095624"/>
+          <a:ext cx="1419225" cy="3190875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Projektleitung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="Rechteck 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{882F0FB9-2642-4C67-89BD-33ED4E07086E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8367712" y="4772026"/>
+          <a:ext cx="1100138" cy="447674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Arbeitspaket Integration</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Rechteck 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{990273C5-0135-4337-BB3C-3ACAD8C74827}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8358187" y="4048126"/>
+          <a:ext cx="1100138" cy="447674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Arbeitspaket Planung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="Rechteck 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD5C8AD4-89CD-4E56-9A88-8E0EECFC3B57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8367712" y="3419476"/>
+          <a:ext cx="1100138" cy="447674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Arbeitspaket Visualisierung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="Rechteck 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F48B1DF-54A1-471E-A8E8-A28B1960B8A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8348662" y="5486401"/>
+          <a:ext cx="1100138" cy="447674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Konzeption</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="Rechteck 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7176634F-9104-4BE8-9544-F447B6723B4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8210549" y="6610351"/>
+          <a:ext cx="1223963" cy="428624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Vertrieb</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="Rechteck 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{624F205C-F4ED-4D4C-9FF8-91FD9F0FA866}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9715500" y="3095624"/>
+          <a:ext cx="381000" cy="3190875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PL</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="Rechteck 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A120BA8C-C85B-43C6-AC07-F585D7B799A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10163175" y="3095624"/>
+          <a:ext cx="381000" cy="3190875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PL</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="Rechteck 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{134392A3-43D6-4A60-B420-B764A2519F64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10639425" y="3095624"/>
+          <a:ext cx="381000" cy="3190875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PL</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="Rechteck 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66EC6072-22BE-452D-BA68-D01EB342DFBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="4591052"/>
+          <a:ext cx="1438275" cy="295273"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Modellierung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="Rechteck 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B63F760-FC22-4E68-BFD1-F08061640587}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="4962527"/>
+          <a:ext cx="1438275" cy="295273"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Security</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="Rechteck 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8444C9E-8267-4384-921D-741A5BBD1693}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8315325" y="4562474"/>
+          <a:ext cx="1238250" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Projektmitarbeit</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>723899</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="Rechteck 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3AD09B7-7D52-4EDF-9D4D-C5C1500D3DD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13239749" y="3867149"/>
+          <a:ext cx="1419225" cy="1181101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Projektcontrolling</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="Rechteck 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E3B8AC-9863-4D58-BAFC-DDC5825F4A63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11115674" y="3086099"/>
+          <a:ext cx="809625" cy="3190875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Saxess Software</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Planung und Controlling</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>128586</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>223837</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="Rechteck 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{803F8F2B-33D4-442A-B7BA-0424DB6045CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7900986" y="6391276"/>
+          <a:ext cx="3905251" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Vertrieb</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="Rechteck 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF41A85E-3217-44B3-9E52-F955BA6ECB47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9591675" y="1238249"/>
+          <a:ext cx="2724150" cy="742951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Projektworkflow</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>661987</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>176213</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="Rechteck 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A14A70D-3A86-454D-A885-429B0F88EC60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3862387" y="8201024"/>
+          <a:ext cx="4086226" cy="1238251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Verwaltung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>671513</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="Rechteck 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8640606-3F35-4E7F-8BDA-11A00F91A3B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5191126" y="8391525"/>
+          <a:ext cx="966787" cy="447674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Fakturierung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>704851</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="Rechteck 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F046305-1DF9-44AD-A87B-86D87FFA7E72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191251" y="8391525"/>
+          <a:ext cx="966787" cy="447674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Lohn</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>404813</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="Rechteck 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DF3A585-7CFA-4B52-AFCC-10FDE2FAA47A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162426" y="8867775"/>
+          <a:ext cx="966787" cy="438149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Zahlungsverkehr</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>671513</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="Rechteck 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E05FBBC5-6D9E-4A09-A049-6708A7C3CEAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5191126" y="8867775"/>
+          <a:ext cx="966787" cy="438149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Mahnwesen</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>714376</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>157163</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="Rechteck 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F474F9-2AE1-4842-9B3D-F67E42B43383}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6200776" y="8877300"/>
+          <a:ext cx="966787" cy="438149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Essen</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="Rechteck 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71E05321-7597-4364-B50B-E1861A39AEED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7981949" y="2285999"/>
+          <a:ext cx="4086226" cy="742951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Betriebsmanagement</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>738187</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="Rechteck 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00470123-F0DC-4B54-9676-50F0F6DB1D2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9572624" y="6610351"/>
+          <a:ext cx="1223963" cy="428624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Redesign Bestandskunden</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="Gerader Verbinder 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6771CF9E-61B3-4110-AA23-6A2C5A05D2BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="304800" y="7496175"/>
+          <a:ext cx="12172950" cy="42864"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="Textfeld 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AEFE13E-7EFE-49CE-B4FE-C50CCF29DF67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="7648574"/>
+          <a:ext cx="3543300" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="1"/>
+            <a:t>Kommuikation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="1" baseline="0"/>
+            <a:t> und Wissenmanagement</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="Rechteck 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8E94309-F88C-4AB8-AE3F-346DC1CF3C62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3371849" y="8791576"/>
+          <a:ext cx="1152526" cy="423862"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Marketing</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>166686</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>42865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="Rechteck 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B1E2B6D-FA26-4FF7-B5B8-7645A4E9E28C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3367086" y="9272590"/>
+          <a:ext cx="1152526" cy="400048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Veranstaltungen</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>33336</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="Rechteck 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C971C4B3-10E2-4861-BEBA-87AD77948F1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3233736" y="8558212"/>
+          <a:ext cx="1562102" cy="1219201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Externe Kommunikation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="Textfeld 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C1AE2BA-BB8F-4187-A554-D05D12EA9787}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="7800974"/>
+          <a:ext cx="3543300" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="1"/>
+            <a:t>Kommuikation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="1" baseline="0"/>
+            <a:t> und Wissenmanagement</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
       <xdr:row>31</xdr:row>
@@ -1141,7 +9263,7 @@
         <xdr:cNvPr id="2" name="Rechteck 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0542BCD-E529-4121-AFCC-13793B6A2DA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB433278-DF36-4ABA-82BE-8C8FBB58933B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1149,8 +9271,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3181350" y="7748588"/>
-          <a:ext cx="890588" cy="519113"/>
+          <a:off x="3171825" y="6053138"/>
+          <a:ext cx="890588" cy="547688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1223,7 +9345,7 @@
         <xdr:cNvPr id="3" name="Rechteck 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FE837FA-CE56-47E4-A5AA-5D0827857286}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF8C13D9-ECA9-4D68-B854-C0C76F922572}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1231,8 +9353,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3181351" y="7072312"/>
-          <a:ext cx="890588" cy="519113"/>
+          <a:off x="3171826" y="5348287"/>
+          <a:ext cx="890588" cy="538163"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1305,7 +9427,7 @@
         <xdr:cNvPr id="4" name="Rechteck 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98810BA-DEC4-41A2-B374-4396B9BDDE17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{419201D8-1275-4F2C-BC0C-9EC87888C3C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1313,8 +9435,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3181350" y="6381749"/>
-          <a:ext cx="890588" cy="519113"/>
+          <a:off x="3171825" y="4619624"/>
+          <a:ext cx="890588" cy="547688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1380,7 +9502,7 @@
         <xdr:cNvPr id="5" name="Textfeld 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C60522C8-AD92-421C-AD47-5E3878DA70FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42BCE338-4DAC-4B70-A71F-9C9E5ED7EB4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1388,8 +9510,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2981325" y="5934074"/>
-          <a:ext cx="1481137" cy="238125"/>
+          <a:off x="2971800" y="4143374"/>
+          <a:ext cx="1481137" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1446,7 +9568,7 @@
         <xdr:cNvPr id="6" name="Textfeld 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65664833-6939-4F9E-8528-99E4F5F8DEF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80CA0FE2-4AA0-4A04-8D38-DEE71A7C28CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1454,8 +9576,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4786313" y="5934074"/>
-          <a:ext cx="1481137" cy="238125"/>
+          <a:off x="4776788" y="4143374"/>
+          <a:ext cx="1481137" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1512,7 +9634,7 @@
         <xdr:cNvPr id="7" name="Textfeld 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10CF2FF6-879C-426C-83E1-CD42BB2F17C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EFFB4A6-7549-4E86-93BE-268025F25475}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1520,8 +9642,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4014788" y="5505449"/>
-          <a:ext cx="1481137" cy="238125"/>
+          <a:off x="4005263" y="3695699"/>
+          <a:ext cx="1481137" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1579,7 +9701,7 @@
         <xdr:cNvPr id="8" name="Textfeld 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E3F9142-9A13-451E-99A3-990615FFA70B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEF308E3-7E5E-4627-999A-5BCDD833AB7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1587,8 +9709,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7596188" y="5519736"/>
-          <a:ext cx="1481137" cy="238125"/>
+          <a:off x="7586663" y="3709986"/>
+          <a:ext cx="1481137" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1653,7 +9775,7 @@
         <xdr:cNvPr id="9" name="Rechteck 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAB192DE-9E08-496F-90CD-C7E383E7FF61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3D686E3-4D0D-4760-9892-A632489EC734}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1661,8 +9783,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3171826" y="8429627"/>
-          <a:ext cx="900112" cy="295274"/>
+          <a:off x="3162301" y="6772277"/>
+          <a:ext cx="900112" cy="314324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1736,7 +9858,7 @@
         <xdr:cNvPr id="10" name="Rechteck 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E969C3D-137A-47DF-A9E2-11B582645B01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC18E483-5788-4E15-8ED7-96A6990433CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1744,8 +9866,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3190876" y="8882065"/>
-          <a:ext cx="900112" cy="295274"/>
+          <a:off x="3181351" y="7253290"/>
+          <a:ext cx="900112" cy="304799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1819,7 +9941,7 @@
         <xdr:cNvPr id="11" name="Rechteck 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97920A63-7A93-4337-8FF5-19D9C834C093}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F67296C7-C303-4B54-817E-F58A5B5F6F3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1827,8 +9949,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4500563" y="7948613"/>
-          <a:ext cx="514350" cy="338138"/>
+          <a:off x="4491038" y="6262688"/>
+          <a:ext cx="514350" cy="357188"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1901,7 +10023,7 @@
         <xdr:cNvPr id="12" name="Rechteck 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2673E709-FCDA-475A-AA98-3D3A60217941}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED157517-585C-4FB4-AB1C-8FBC4393C9AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1909,8 +10031,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5181601" y="7958138"/>
-          <a:ext cx="514350" cy="338138"/>
+          <a:off x="5172076" y="6272213"/>
+          <a:ext cx="514350" cy="357188"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1983,7 +10105,7 @@
         <xdr:cNvPr id="13" name="Rechteck 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F61A05C1-5370-4C4B-AFDE-C3DCD5E0C9EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5899CB7-741A-49CA-973B-66CA1FE37E9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1991,8 +10113,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5919789" y="7943850"/>
-          <a:ext cx="514350" cy="338138"/>
+          <a:off x="5910264" y="6257925"/>
+          <a:ext cx="514350" cy="357188"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2065,7 +10187,7 @@
         <xdr:cNvPr id="14" name="Rechteck 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D71E5F-D801-4068-A5CF-A2634C9D105A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{899ABE93-F7EA-4DD1-BB74-2E5777DD5DFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2073,8 +10195,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4471988" y="7205664"/>
-          <a:ext cx="514350" cy="338138"/>
+          <a:off x="4462463" y="5481639"/>
+          <a:ext cx="514350" cy="357188"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2147,7 +10269,7 @@
         <xdr:cNvPr id="15" name="Rechteck 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{820D05F2-9C5B-400B-B4E5-9D25EF5F3EFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3494ECBA-5DF5-4AEE-9C12-5C445233DE87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2155,8 +10277,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5181601" y="7205664"/>
-          <a:ext cx="514350" cy="338138"/>
+          <a:off x="5172076" y="5481639"/>
+          <a:ext cx="514350" cy="357188"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2229,7 +10351,7 @@
         <xdr:cNvPr id="16" name="Rechteck 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{053C2800-3089-4CDE-A56D-D2CEF2542DC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8DFAC6D-ADD2-42CD-B1D8-348E1E6B7213}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2237,8 +10359,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5934075" y="7205664"/>
-          <a:ext cx="514350" cy="338138"/>
+          <a:off x="5924550" y="5481639"/>
+          <a:ext cx="514350" cy="357188"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2311,7 +10433,7 @@
         <xdr:cNvPr id="17" name="Rechteck 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3663CE14-3648-4605-B9E1-53E5DCD935FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E147DE84-6CB2-4B19-A0C4-85326FC5867C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2319,8 +10441,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4448175" y="6538914"/>
-          <a:ext cx="514350" cy="338138"/>
+          <a:off x="4438650" y="4786314"/>
+          <a:ext cx="514350" cy="357188"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2393,7 +10515,7 @@
         <xdr:cNvPr id="18" name="Rechteck 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFCBA409-6311-417B-BEF9-C1DDCE5B9686}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCC0331F-1C1D-471B-9BA2-83A1962D8E0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2401,8 +10523,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5205412" y="6538914"/>
-          <a:ext cx="514350" cy="338138"/>
+          <a:off x="5195887" y="4786314"/>
+          <a:ext cx="514350" cy="357188"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2475,7 +10597,7 @@
         <xdr:cNvPr id="19" name="Rechteck 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D010A1E9-FB2B-4EEF-8298-DDD1B14C7F43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A04AC15E-8924-47FD-A8C9-D77A98B1FFF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2483,8 +10605,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5934075" y="6538914"/>
-          <a:ext cx="514350" cy="338138"/>
+          <a:off x="5924550" y="4786314"/>
+          <a:ext cx="514350" cy="357188"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2557,7 +10679,7 @@
         <xdr:cNvPr id="20" name="Rechteck 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C01BA4C-A3B8-4C9C-8437-E847579159D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E4DA6D3-8632-4DD4-A32B-03D9F4E2B7BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2565,8 +10687,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5081588" y="6429375"/>
-          <a:ext cx="752475" cy="1981200"/>
+          <a:off x="5072063" y="4667250"/>
+          <a:ext cx="752475" cy="2085975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2625,7 +10747,7 @@
         <xdr:cNvPr id="21" name="Textfeld 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFAA47A8-BD28-4605-BD33-68C918C66AD5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9426F9E0-2ACF-46C4-A7CF-FDCB2A27F446}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2633,8 +10755,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5091113" y="8453436"/>
-          <a:ext cx="833437" cy="238125"/>
+          <a:off x="5081588" y="6796086"/>
+          <a:ext cx="833437" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2691,7 +10813,7 @@
         <xdr:cNvPr id="22" name="Rechteck 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84CAAB2F-AE51-45E0-956E-BE3648CC7E3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BF77567-6F05-4737-8913-4A7886561A85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2699,8 +10821,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8062912" y="8567739"/>
-          <a:ext cx="862013" cy="338138"/>
+          <a:off x="8053387" y="6919914"/>
+          <a:ext cx="862013" cy="357188"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2773,7 +10895,7 @@
         <xdr:cNvPr id="23" name="Rechteck 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E48B398F-410C-47C6-A013-B1DA2AD70544}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E844DF3-1EEC-42F9-8274-242A797D7301}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2781,8 +10903,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8062912" y="8029576"/>
-          <a:ext cx="862013" cy="338138"/>
+          <a:off x="8053387" y="6353176"/>
+          <a:ext cx="862013" cy="357188"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2855,7 +10977,7 @@
         <xdr:cNvPr id="24" name="Rechteck 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B3DA40C-2FE2-4A46-BB06-CC73D7047811}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C94A43D-9330-422E-8A78-F4E0EE10A94F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2863,8 +10985,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8048624" y="7548564"/>
-          <a:ext cx="862013" cy="338138"/>
+          <a:off x="8039099" y="5843589"/>
+          <a:ext cx="862013" cy="357188"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2937,7 +11059,7 @@
         <xdr:cNvPr id="25" name="Rechteck 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12C66A82-5E00-4C81-B213-DD9462258C16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F25074B8-B1F2-4B3F-8DBA-ACB654BA33BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2945,8 +11067,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8029574" y="7100889"/>
-          <a:ext cx="862013" cy="338138"/>
+          <a:off x="8020049" y="5376864"/>
+          <a:ext cx="862013" cy="357188"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3019,7 +11141,7 @@
         <xdr:cNvPr id="26" name="Rechteck 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD1B937C-4938-4AB0-A3BD-7FB1FEDA5AD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CFF31DC-F846-450A-857D-AB466498556E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3027,8 +11149,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8029574" y="6610352"/>
-          <a:ext cx="862013" cy="338138"/>
+          <a:off x="8020049" y="4857752"/>
+          <a:ext cx="862013" cy="357188"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3101,7 +11223,7 @@
         <xdr:cNvPr id="27" name="Rechteck 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBFFE0BE-5E99-4EF0-97F0-50DB2DDEEC3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1CE7F0C-1EAC-4B47-B769-082A5E3259EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3109,7 +11231,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9034463" y="4929189"/>
+          <a:off x="9034463" y="5691189"/>
           <a:ext cx="976312" cy="457199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3184,7 +11306,7 @@
         <xdr:cNvPr id="28" name="Rechteck 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C14228D-63F7-4350-A691-54E01B45C5C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B0532A4-A88C-4BF0-92AC-68062E8C6087}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3192,7 +11314,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9563100" y="2800350"/>
+          <a:off x="9563100" y="3562350"/>
           <a:ext cx="1314450" cy="323849"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3267,7 +11389,7 @@
         <xdr:cNvPr id="29" name="Rechteck 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B816D6E-2900-4BCF-BAC2-9479DDD9DA32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A711E96E-4F7B-4FD8-959B-F198D01B1D7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3275,8 +11397,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7077074" y="7372352"/>
-          <a:ext cx="862013" cy="519111"/>
+          <a:off x="7067549" y="5657852"/>
+          <a:ext cx="862013" cy="547686"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3349,7 +11471,7 @@
         <xdr:cNvPr id="30" name="Rechteck 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E347C1-7FBB-459C-A779-2B205BF90048}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C30AFD-458E-4559-A682-4578DD478D5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3357,8 +11479,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7015163" y="10610850"/>
-          <a:ext cx="966787" cy="438149"/>
+          <a:off x="7005638" y="9067800"/>
+          <a:ext cx="966787" cy="466724"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3432,7 +11554,7 @@
         <xdr:cNvPr id="31" name="Rechteck 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{181C629B-3D1F-44E7-BE2B-1EFDB8E12776}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4AB0DE1-F168-4A50-931D-8B7E931D4964}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3440,8 +11562,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5872164" y="10610851"/>
-          <a:ext cx="966787" cy="438149"/>
+          <a:off x="5862639" y="9067801"/>
+          <a:ext cx="966787" cy="466724"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3515,7 +11637,7 @@
         <xdr:cNvPr id="32" name="Rechteck 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF218DAC-C9B5-440B-BCD3-D704D9D81279}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69646F1C-19EB-41D4-875E-A49ADD0D91ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3523,8 +11645,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029201" y="9320215"/>
-          <a:ext cx="900112" cy="295274"/>
+          <a:off x="5019676" y="7710490"/>
+          <a:ext cx="900112" cy="314324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3591,7 +11713,7 @@
         <xdr:cNvPr id="33" name="Textfeld 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C600075A-BE29-4994-99D4-E45BE4FC6A20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627F798E-20A0-4F79-8390-56F63A3360E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3599,8 +11721,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11434763" y="2857499"/>
-          <a:ext cx="2571750" cy="781052"/>
+          <a:off x="11434763" y="3619499"/>
+          <a:ext cx="3409950" cy="781052"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3664,7 +11786,7 @@
         <xdr:cNvPr id="34" name="Textfeld 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C3D7E9C-A156-4D23-A7B2-FD71AB7C23B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE4EDB3C-5B22-452D-ADD6-A73ECD3EEF2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3672,8 +11794,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7881938" y="5829299"/>
-          <a:ext cx="1347787" cy="261939"/>
+          <a:off x="7872413" y="4038599"/>
+          <a:ext cx="1347787" cy="271464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3730,7 +11852,7 @@
         <xdr:cNvPr id="35" name="Rechteck 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CD74041-74D2-4D22-8132-E0BB9322B387}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5BABD04-D732-4C15-8E2C-FD3D794BD4A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3738,8 +11860,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3195638" y="9324978"/>
-          <a:ext cx="900112" cy="295274"/>
+          <a:off x="3186113" y="7715253"/>
+          <a:ext cx="900112" cy="314324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3813,7 +11935,7 @@
         <xdr:cNvPr id="36" name="Rechteck 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F01D846F-5910-4427-938E-8B142FCEE9A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{554751AA-203F-421F-B056-A184B52949A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3821,8 +11943,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8048626" y="9267826"/>
-          <a:ext cx="871537" cy="438149"/>
+          <a:off x="8039101" y="7658101"/>
+          <a:ext cx="871537" cy="457199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3893,10 +12015,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Gerader Verbinder 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5187FE38-96C3-4368-9BB9-6B6DA8BDFC19}"/>
+        <xdr:cNvPr id="37" name="Gerader Verbinder 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A3F2DE-A425-4562-8EA2-DC2077A76F29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3904,8 +12026,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6858000" y="5567363"/>
-          <a:ext cx="4763" cy="4195763"/>
+          <a:off x="6848475" y="3757613"/>
+          <a:ext cx="4763" cy="4414838"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3950,10 +12072,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Gerader Verbinder 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{694E555F-CFE2-4749-88EA-4C51827080F3}"/>
+        <xdr:cNvPr id="38" name="Gerader Verbinder 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F77EC456-3F06-4904-8E89-6309DF27ED0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3961,7 +12083,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3200400" y="9991725"/>
+          <a:off x="3190875" y="8420100"/>
           <a:ext cx="7986713" cy="47625"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4007,10 +12129,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Textfeld 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76BB8D43-F3D6-41CA-B5AC-B911ABF271DC}"/>
+        <xdr:cNvPr id="39" name="Textfeld 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E880818-6962-4CA4-B001-32A7942CA599}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4018,8 +12140,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6257925" y="10163174"/>
-          <a:ext cx="1481137" cy="238125"/>
+          <a:off x="6248400" y="8601074"/>
+          <a:ext cx="1481137" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4077,7 +12199,7 @@
         <xdr:cNvPr id="40" name="Rechteck 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0587E32-BBE8-4899-867E-F291687329F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D916B805-861F-40BD-AD1A-0AD839767A37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4085,7 +12207,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1771650" y="2933702"/>
+          <a:off x="1771650" y="3695702"/>
           <a:ext cx="1390649" cy="314324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4145,7 +12267,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5551,7 +13673,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8868,7 +16990,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11920,7 +20042,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13480,10 +21602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FFF68C-378F-4B53-B6E1-CC1E8DA72D83}">
-  <dimension ref="B1:O3"/>
+  <dimension ref="B2:K3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13492,21 +21614,19 @@
     <col min="2" max="2" width="17.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="O1" t="s">
+    <row r="2" spans="2:11" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="8" t="s">
         <v>128</v>
       </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
-    <row r="2" spans="2:15" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="8" t="s">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
         <v>127</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -13518,10 +21638,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EF74D8-9026-466E-B120-5AD0A17FB84D}">
+  <dimension ref="M4:Q30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.1328125" customWidth="1"/>
+    <col min="17" max="17" width="12.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="13:17" x14ac:dyDescent="0.45">
+      <c r="M4" s="1"/>
+    </row>
+    <row r="16" spans="13:17" x14ac:dyDescent="0.45">
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="23" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="30" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="Q30" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5863FB49-312D-4F1B-B125-9B18D0C22F7F}">
   <dimension ref="B1:W57"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="V37" sqref="V37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13823,7 +21976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C61D5E-3274-4E91-B4BA-CF516F62AFDD}">
   <dimension ref="B3:C15"/>
   <sheetViews>
@@ -13886,11 +22039,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE61C21-B4DF-4ACF-89E3-F75BA53700E1}">
   <dimension ref="B2:N49"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -13963,7 +22116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57257774-D818-4A13-91F1-A7DCB0C009FC}">
   <dimension ref="B2:N63"/>
   <sheetViews>
@@ -14089,7 +22242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BD8981-4FF0-497D-829F-61801F8BAED6}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -14104,7 +22257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71006EA9-40F6-4D3A-95DF-25D6B75326D9}">
   <dimension ref="B2:J42"/>
   <sheetViews>
@@ -14267,7 +22420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DACF6E-0F61-4744-BDED-4D535B825F26}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/8. Harmonising standards/Harmonizing SXI-DF.xlsx
+++ b/8. Harmonising standards/Harmonizing SXI-DF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F7D852-49FB-4BAA-823A-E71E88255C55}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF42062A-F6C5-455E-B499-D059D8939EAF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="13680" activeTab="1" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="13680" activeTab="2" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Zielstellung_Herleitung" sheetId="6" r:id="rId1"/>
@@ -9187,7 +9187,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="de-DE" sz="1100" b="1"/>
-            <a:t>Logikpakete / Modulentwicklung</a:t>
+            <a:t>Logikpakete / Module</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11845,7 +11845,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Logikentwicklung</a:t>
+            <a:t>Logikentwickler</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -12182,7 +12182,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Solutionentwicklung</a:t>
+            <a:t>Solutionmanager</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -15685,6 +15685,23 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>berät Projektleiter</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>führt interne Abnahme durch</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -17326,6 +17343,153 @@
             <a:t> wo dieses Wissen zu finden ist (für intern und extern)</a:t>
           </a:r>
           <a:endParaRPr lang="de-DE" sz="800" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="Rechteck 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{833B99E9-AC31-47C7-9AC4-25703D2C9286}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5514975" y="1152524"/>
+          <a:ext cx="1581150" cy="1181101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Solutionmanager</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>erstellt Solutionkonzpt</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>erstellt Tickets</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>bindet Modulentwickler ein</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="50000"/>
@@ -27072,7 +27236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7967790F-DC00-4364-AC7D-8D3B716FB35B}">
   <dimension ref="M18:Q44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
@@ -27105,8 +27269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EF74D8-9026-466E-B120-5AD0A17FB84D}">
   <dimension ref="M7:Q33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="W63" sqref="W63"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/8. Harmonising standards/Harmonizing SXI-DF.xlsx
+++ b/8. Harmonising standards/Harmonizing SXI-DF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6731C2-9F9F-40A1-BD8D-BE5F93B40E1E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BAF2C6-E081-474E-9357-D2968DB27799}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4620" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
   </bookViews>
@@ -1712,16 +1712,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>33336</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>176211</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1736,8 +1736,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15492411" y="3248025"/>
-          <a:ext cx="2119314" cy="1190626"/>
+          <a:off x="14182724" y="171449"/>
+          <a:ext cx="2119314" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1921,16 +1921,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>280986</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>566736</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1945,8 +1945,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="423861" y="3209925"/>
-          <a:ext cx="1947864" cy="1190626"/>
+          <a:off x="8339136" y="7334250"/>
+          <a:ext cx="1947864" cy="2786063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1994,7 +1994,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Technologiemodell</a:t>
+            <a:t>Projektmethodik</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2011,11 +2011,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Microsoft Plattform</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
+            <a:t>Kunden langjährig</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="de-DE" sz="800" baseline="0">
               <a:solidFill>
@@ -2028,25 +2025,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>SQL Server als einziges Zielsystem</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Kompetenzkonzentraion in Microsoft BI Welt</a:t>
-          </a:r>
+            <a:t> betreuen</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
@@ -2064,6 +2055,276 @@
         </a:p>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Kurzfristig</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Git Schulung für alle Projektmitarbeiter</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:prstClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Langfristig</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Los</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:prstClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
           <a:endParaRPr lang="de-DE" sz="800">
             <a:solidFill>
               <a:schemeClr val="tx1">
@@ -2082,16 +2343,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>90486</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>728662</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2106,8 +2367,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2519361" y="3209925"/>
-          <a:ext cx="1947864" cy="1190626"/>
+          <a:off x="6977062" y="14920913"/>
+          <a:ext cx="1947864" cy="1123951"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2302,16 +2563,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>652461</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485773</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2326,8 +2587,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4605336" y="3219450"/>
-          <a:ext cx="1947864" cy="1190626"/>
+          <a:off x="2924173" y="3795712"/>
+          <a:ext cx="1947864" cy="1943101"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2444,7 +2705,154 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Kurzfristig</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:prstClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:prstClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Langfristig</a:t>
+          </a:r>
           <a:endParaRPr lang="de-DE" sz="800" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1">
@@ -2511,16 +2919,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>452436</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>557211</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2535,8 +2943,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6691311" y="3200400"/>
-          <a:ext cx="1947864" cy="1190626"/>
+          <a:off x="709611" y="3786187"/>
+          <a:ext cx="1947864" cy="1952626"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2637,6 +3045,229 @@
         </a:p>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Kurzfristig</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Rollenmeeting ansetzen pro Bereich</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:prstClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Langfristig</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
           <a:endParaRPr lang="de-DE" sz="800">
             <a:solidFill>
               <a:schemeClr val="tx1">
@@ -2655,16 +3286,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>271461</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>481011</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2679,8 +3310,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8796336" y="3209925"/>
-          <a:ext cx="1947864" cy="1190626"/>
+          <a:off x="7491411" y="3786187"/>
+          <a:ext cx="2366964" cy="1976438"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2814,6 +3445,348 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Kurzfristig</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Personalkosten alt planen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Personalkosten nach neuem Modell planen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Personal mit Rollenkapazitäten planen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Umsatz aus DL berechnen </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:prstClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Langfristig</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:prstClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:prstClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
           <a:endParaRPr lang="de-DE" sz="800">
             <a:solidFill>
@@ -2833,16 +3806,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>80961</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>185739</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2857,8 +3830,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10891836" y="3209925"/>
-          <a:ext cx="1947864" cy="1190626"/>
+          <a:off x="5186362" y="3790949"/>
+          <a:ext cx="2009777" cy="1614489"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2906,7 +3879,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Beteiligungsmodell</a:t>
+            <a:t>Gehalts- und Beteiligungsmodell</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2952,6 +3925,270 @@
                 <a:lumOff val="50000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Kurzfristig</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Gehaltsmodell anschaulich darstellen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:prstClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:prstClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Langfristig</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Beteiligungsmodell neu aufbauen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:prstClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
@@ -3133,15 +4370,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3156,8 +4393,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="657225" y="9686925"/>
-          <a:ext cx="2228850" cy="247650"/>
+          <a:off x="409575" y="23250525"/>
+          <a:ext cx="2228850" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3200,15 +4437,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>681035</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:colOff>423860</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>714374</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3223,8 +4460,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="823910" y="10144124"/>
-          <a:ext cx="2319339" cy="2314576"/>
+          <a:off x="576260" y="23679149"/>
+          <a:ext cx="2319339" cy="2200276"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3618,15 +4855,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3641,8 +4878,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6200775" y="9639300"/>
-          <a:ext cx="2228850" cy="247650"/>
+          <a:off x="5953125" y="23202900"/>
+          <a:ext cx="2228850" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3685,15 +4922,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>481010</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>223835</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3708,8 +4945,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5957885" y="10172700"/>
-          <a:ext cx="3043240" cy="1190626"/>
+          <a:off x="5710235" y="23707725"/>
+          <a:ext cx="3043240" cy="1133476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3894,15 +5131,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3917,8 +5154,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10534650" y="9429750"/>
-          <a:ext cx="2228850" cy="247650"/>
+          <a:off x="10287000" y="23002875"/>
+          <a:ext cx="2290763" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3960,16 +5197,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>90485</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>595310</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3984,8 +5221,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10139360" y="10163175"/>
-          <a:ext cx="3043240" cy="1190626"/>
+          <a:off x="9891710" y="23698200"/>
+          <a:ext cx="3105153" cy="1133476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4152,16 +5389,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>14286</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>519112</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>42863</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4176,8 +5413,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13187361" y="285750"/>
-          <a:ext cx="1947864" cy="2171700"/>
+          <a:off x="12101512" y="190500"/>
+          <a:ext cx="1947864" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4356,22 +5593,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>90486</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>104773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="Rechteck 59">
+        <xdr:cNvPr id="31" name="Rechteck 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B01DC28-529E-4C46-A873-25094AF8B846}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9252A5DF-FF4A-492F-BE88-1781E5005CA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4379,8 +5616,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2519361" y="4629150"/>
-          <a:ext cx="1947864" cy="1190626"/>
+          <a:off x="3014662" y="18926173"/>
+          <a:ext cx="1947864" cy="2490788"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4428,429 +5665,6 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Umsetzungsstrategie</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Los</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>690561</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="Rechteck 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F1E2272-14AC-4557-A24A-686BC0677DA4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4643436" y="4638675"/>
-          <a:ext cx="1947864" cy="1190626"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-              <a:alpha val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Umsetzungsstrategie</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Los</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>300036</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="Rechteck 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B978B93-3B24-4919-8C00-871124B3FE61}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="442911" y="4610100"/>
-          <a:ext cx="1947864" cy="1190626"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-              <a:alpha val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Umsetzungsstrategie</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Los</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>604836</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Rechteck 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9252A5DF-FF4A-492F-BE88-1781E5005CA7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13015911" y="3219450"/>
-          <a:ext cx="1947864" cy="1190626"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-              <a:alpha val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
             <a:t>Modell für</a:t>
           </a:r>
           <a:r>
@@ -4958,175 +5772,6 @@
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
           <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>633411</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Rechteck 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4125632D-0091-40C6-942B-961E0E580B89}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13044486" y="4600575"/>
-          <a:ext cx="1947864" cy="1190626"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-              <a:alpha val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Kurzfristig</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Küchenschrank</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> von oben runter</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Pflanzen für Räume</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="800">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="50000"/>
@@ -5188,7 +5833,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Langfristig</a:t>
+            <a:t>Kurzfristig</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5227,8 +5872,189 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>eigenes Gebäude</a:t>
-          </a:r>
+            <a:t>Küchenschrank von oben runter</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Pflanzen für Räume</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:prstClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Langfristig</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>eigenes Gebäude bauen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
@@ -5431,6 +6257,1917 @@
             </a:rPr>
             <a:t>Kommunikation</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Textfeld 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AEA2AE9-E78A-4D9E-A699-54E59A532CCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6353174" y="3033713"/>
+          <a:ext cx="2228850" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="1"/>
+            <a:t>Philosophie</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Textfeld 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{752DEA4B-F4BC-4E77-A9BF-1B8E9702EA20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124074" y="6638925"/>
+          <a:ext cx="2228850" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="1"/>
+            <a:t>Produkt</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>671512</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>614362</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Textfeld 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5685B517-7608-45BE-9E48-43212196AEC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9205912" y="6491287"/>
+          <a:ext cx="2228850" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="1"/>
+            <a:t>Projekt</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Textfeld 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E7DE1F8-A5F6-4864-A075-0248933094DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6119812" y="14154149"/>
+          <a:ext cx="2228850" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="1"/>
+            <a:t>Kommunikation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Textfeld 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFCB2E11-748B-40E5-86AD-87F850170E47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6115050" y="18273711"/>
+          <a:ext cx="2228850" cy="338139"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="1"/>
+            <a:t>Eigenorganisation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>709611</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rechteck 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED8B996-E5D5-4949-AA10-C614ADFA0C76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="862011" y="7634287"/>
+          <a:ext cx="1947864" cy="2786063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Produktentwicklung</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Microsoft Plattform</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SQL Server als einziges Zielsystem</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Kompetenzkonzentraion in Microsoft BI Welt</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Kurzfristig</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Los</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:prstClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Langfristig</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Testumgebung Azure bereitstellen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:prstClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723898</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>385762</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rechteck 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75031AC2-8D69-4241-8A2E-E6F36828AADE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3162298" y="7615236"/>
+          <a:ext cx="1947864" cy="2786063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Solutionentwicklung </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Kurzfristig</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>result.Buchungsjournal überarbeiten</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Solution Kostenstellenumlage definieren</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:prstClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Langfristig</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Los</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:prstClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>80964</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Rechteck 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24A481B4-9C8A-4AF5-867A-11E7C7CAD9AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3233737" y="11987213"/>
+          <a:ext cx="1947864" cy="1123951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Supportmodell</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Kompetenz kommunizieren</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Kunden lebenslang betreuen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Selbst Anwenderbeispiel sein für Lösungen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Langfristig</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Leistungsverzeichnis DL erstellen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>123822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>471488</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>80960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rechteck 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39FD28AD-6C9B-4781-A417-BCF52B9C1CAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5534024" y="18945222"/>
+          <a:ext cx="1947864" cy="2490788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Modell für</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Räume</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> und Arbeitwelt</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Lernen</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> voneinander</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Rotation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Kurzfristig</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Kauf Marke mit AG klären</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:prstClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Langfristig</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Firmen und Produktname finden</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -28124,26 +30861,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7967790F-DC00-4364-AC7D-8D3B716FB35B}">
   <dimension ref="M18:Q44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="T102" sqref="T102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.1328125" customWidth="1"/>
+    <col min="17" max="17" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="13:17" x14ac:dyDescent="0.45">
       <c r="M18" s="1"/>
     </row>
-    <row r="30" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="13:17" x14ac:dyDescent="0.45">
       <c r="Q30" s="1"/>
     </row>
-    <row r="37" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q37" s="1"/>
     </row>
-    <row r="44" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q44" s="1"/>
     </row>
   </sheetData>
@@ -28161,45 +30898,45 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.1328125" customWidth="1"/>
+    <col min="17" max="17" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="7:13" ht="25.5" x14ac:dyDescent="0.75">
       <c r="G2" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="7:13" x14ac:dyDescent="0.45">
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="7:13" x14ac:dyDescent="0.45">
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="7:13" x14ac:dyDescent="0.45">
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="7:13" x14ac:dyDescent="0.45">
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="7:13" x14ac:dyDescent="0.45">
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="7:13" x14ac:dyDescent="0.45">
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="7:13" x14ac:dyDescent="0.45">
       <c r="M15" s="1"/>
     </row>
-    <row r="27" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q27" s="1"/>
     </row>
-    <row r="34" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q34" s="1"/>
     </row>
-    <row r="41" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q41" s="1"/>
     </row>
   </sheetData>
@@ -28217,7 +30954,7 @@
       <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -28232,61 +30969,61 @@
       <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.1328125" customWidth="1"/>
+    <col min="17" max="17" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>57</v>
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
       <c r="J8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
       <c r="J9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
       <c r="J10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>77</v>
       </c>
       <c r="M11" s="1"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>48</v>
       </c>
@@ -28297,7 +31034,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>50</v>
       </c>
@@ -28308,7 +31045,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>51</v>
       </c>
@@ -28320,7 +31057,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>52</v>
       </c>
@@ -28328,22 +31065,22 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.45">
       <c r="Q25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.45">
       <c r="D26" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.45">
       <c r="D27" s="7" t="s">
         <v>90</v>
       </c>
@@ -28369,7 +31106,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.45">
       <c r="Q28" s="4" t="s">
         <v>64</v>
       </c>
@@ -28390,17 +31127,17 @@
       </c>
       <c r="W28" s="4"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.45">
       <c r="D30" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.45">
       <c r="D31" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:23" x14ac:dyDescent="0.45">
       <c r="D33" t="s">
         <v>49</v>
       </c>
@@ -28424,42 +31161,42 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:23" x14ac:dyDescent="0.45">
       <c r="D34" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:23" x14ac:dyDescent="0.45">
       <c r="Q36" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:23" x14ac:dyDescent="0.45">
       <c r="Q37" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:23" x14ac:dyDescent="0.45">
       <c r="Q38" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:23" x14ac:dyDescent="0.45">
       <c r="Q39" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:23" x14ac:dyDescent="0.45">
       <c r="Q43" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:23" x14ac:dyDescent="0.45">
       <c r="Q44" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:23" x14ac:dyDescent="0.45">
       <c r="Q45" t="s">
         <v>87</v>
       </c>
@@ -28479,13 +31216,13 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="3.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>129</v>
       </c>
@@ -28493,12 +31230,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="N3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>94</v>
       </c>
@@ -28506,7 +31243,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>95</v>
       </c>
@@ -28514,12 +31251,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>97</v>
       </c>
@@ -28527,7 +31264,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>98</v>
       </c>
@@ -28535,7 +31272,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>99</v>
       </c>
@@ -28543,7 +31280,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>100</v>
       </c>
@@ -28551,7 +31288,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>101</v>
       </c>
@@ -28559,7 +31296,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>102</v>
       </c>
@@ -28567,7 +31304,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>103</v>
       </c>
@@ -28575,7 +31312,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>136</v>
       </c>
@@ -28583,73 +31320,73 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="O16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
       <c r="O17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
       <c r="O18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
       <c r="N20" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B26" s="1"/>
       <c r="M26" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B27" s="1"/>
       <c r="N27" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
       <c r="N28" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
       <c r="N29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
         <v>109</v>
       </c>
@@ -28657,37 +31394,37 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C38" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C39" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C40" t="s">
         <v>130</v>
       </c>
@@ -28706,12 +31443,12 @@
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
@@ -28719,7 +31456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -28727,7 +31464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -28735,32 +31472,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
       <c r="N9" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
       <c r="N10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
       <c r="N11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
         <v>0</v>
       </c>
@@ -28768,7 +31505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
         <v>7</v>
       </c>
@@ -28776,7 +31513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
         <v>8</v>
       </c>
@@ -28784,12 +31521,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
         <v>45</v>
       </c>
@@ -28803,7 +31540,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
         <v>44</v>
       </c>
@@ -28832,7 +31569,7 @@
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -28847,55 +31584,55 @@
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F4" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F9" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F11" s="2"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
@@ -28903,7 +31640,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -28911,7 +31648,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>39</v>
       </c>
@@ -28919,7 +31656,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>42</v>
       </c>
@@ -28927,72 +31664,72 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
       <c r="J17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
       <c r="J18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
       <c r="J20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
       <c r="J21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>17</v>
       </c>

--- a/8. Harmonising standards/Harmonizing SXI-DF.xlsx
+++ b/8. Harmonising standards/Harmonizing SXI-DF.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BAF2C6-E081-474E-9357-D2968DB27799}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC38602-5529-4D0E-B58C-A933E74F4C23}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4620" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4620" activeTab="1" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Firmenmodell" sheetId="10" r:id="rId1"/>
     <sheet name="Rollen" sheetId="5" r:id="rId2"/>
-    <sheet name="Softwarearchitektur" sheetId="11" r:id="rId3"/>
-    <sheet name="Rollen_Backup" sheetId="9" r:id="rId4"/>
-    <sheet name="Schritte" sheetId="8" r:id="rId5"/>
-    <sheet name="Zielstellung_Detail" sheetId="2" r:id="rId6"/>
-    <sheet name="Datenstruktur" sheetId="1" r:id="rId7"/>
-    <sheet name="Prozess" sheetId="3" r:id="rId8"/>
+    <sheet name="Software" sheetId="11" r:id="rId3"/>
+    <sheet name="Solutions" sheetId="12" r:id="rId4"/>
+    <sheet name="Rollen_Backup" sheetId="9" r:id="rId5"/>
+    <sheet name="Schritte" sheetId="8" r:id="rId6"/>
+    <sheet name="Zielstellung_Detail" sheetId="2" r:id="rId7"/>
+    <sheet name="Datenstruktur" sheetId="1" r:id="rId8"/>
+    <sheet name="Prozess" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="139">
   <si>
     <t>Technisch</t>
   </si>
@@ -447,6 +448,9 @@
   <si>
     <t>Saxess Unternehmensmodell</t>
   </si>
+  <si>
+    <t>Solutions</t>
+  </si>
 </sst>
 </file>
 
@@ -9865,15 +9869,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>461962</xdr:colOff>
+      <xdr:colOff>494934</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
+      <xdr:rowOff>135182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>232997</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>120894</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9888,8 +9892,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3652837" y="4681538"/>
-          <a:ext cx="500063" cy="366712"/>
+          <a:off x="3696799" y="6560894"/>
+          <a:ext cx="500063" cy="344731"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21170,6 +21174,4689 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>757669</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>160193</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="Gerader Verbinder 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{990DE57A-337B-4293-9D78-1CFB3DEFFF0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34636" y="5182466"/>
+          <a:ext cx="11542568" cy="30307"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>519546</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>151534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>536932</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>90255</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rechteck 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{277E53EC-E4F4-4D44-8849-AD68700BFAFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1433081" y="5385955"/>
+          <a:ext cx="1541386" cy="484244"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FiBu</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" i="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Monatssaldo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" i="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> pro Sachkonto</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" i="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>482311</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83558</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>480579</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>129885</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rechteck 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC11BB45-015B-4A69-83E6-D88D716067D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1395846" y="2954047"/>
+          <a:ext cx="1522268" cy="2046577"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GuV Planung</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="900" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="75000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Werteerfassung pro GuV Konto und Kostenstelle</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>530803</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>42429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>528204</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rechteck 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8AE18F4-6714-4793-8C57-49ECB000D091}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1444338" y="1458191"/>
+          <a:ext cx="1521401" cy="459798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>GuV Cockpit</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="900" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="75000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Erfolg pro Periode, KST</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>55419</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>135947</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>398318</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Textfeld 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02FE5D25-856C-416C-A2F6-0BB145307417}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1730954" y="642504"/>
+          <a:ext cx="1104899" cy="444212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1"/>
+            <a:t>Kontoplanung Mastersolution</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>382331</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>77931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>665018</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>129886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rechteck 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D14D7F2-D1B6-47FB-97D6-F9AA1D072ADF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295866" y="1311852"/>
+          <a:ext cx="1806687" cy="6234546"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>531236</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>744682</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>15586</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rechteck 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D91BC2F-A578-4BD8-94D3-541123A3167D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1444771" y="6660139"/>
+          <a:ext cx="213446" cy="590118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NAV </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>446276</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>32306</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45627</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="Rechteck 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5DF45BE-32EC-4E2A-9A46-EFF9514CCA69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12027811" y="723034"/>
+          <a:ext cx="2634030" cy="1102037"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Solution</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>das Projekte professionell</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> umsetzen</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>basiert</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> auf eine generischen Tabellenmodell</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>409641</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>163322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>13987</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>11656</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="Rechteck 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07A18F93-B25C-4B34-BD5B-E4359417C991}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11991176" y="1942766"/>
+          <a:ext cx="2652346" cy="757538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Offene</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Fragen</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Was ist</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Plan - Ist</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  - Datenebenen ? </a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>376669</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>11189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>646300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>172382</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="Rechteck 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB23ABC0-5BAB-494C-B92D-F0F6BF481CFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11958204" y="3609042"/>
+          <a:ext cx="1793631" cy="1070397"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Planung pro Sachkonto und Kostenstelle</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ermöglicht</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> direkte Planung pro KT0/KST</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>bietet Rahmen für die Integration von anderen Solutions</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:prstClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>520411</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>5192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>537797</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>34635</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="Rechteck 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D28AEDB1-431B-49C9-B387-FF6D36CD8A2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1433946" y="5966977"/>
+          <a:ext cx="1541386" cy="574965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>KoRe</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" i="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Monatswert</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" i="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> pro GuV Konto und Kostenstelle</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" i="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>405745</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>80195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>10091</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>110369</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="Rechteck 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FBCA522-C59E-491F-B384-78FB0716345A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11987280" y="2768843"/>
+          <a:ext cx="2652346" cy="757538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Datenebenen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ist</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ist Adjustment</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Plan </a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>170183</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>458931</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="Rechteck 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCDB9AE5-C2F3-43C1-9F20-CA9B025DE79A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3369718" y="4714875"/>
+          <a:ext cx="3336748" cy="1879023"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30306</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>84858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>373205</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>151533</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="Textfeld 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05736CDE-57D7-4376-9EE6-79D7CCA9E8FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3991841" y="591415"/>
+          <a:ext cx="1104899" cy="248516"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1"/>
+            <a:t>Adjustments</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>84425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>264967</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>127288</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="Rechteck 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70230540-0F24-4C87-B2EA-CE045E23B769}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3466234" y="5682528"/>
+          <a:ext cx="1522268" cy="770226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Zusatzbuchungsjournal</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="900" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="75000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Manuelle Erfassung von Buchungen</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>319519</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>317787</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>128154</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="Rechteck 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1EB93C4-0546-4CE0-B8C9-2CEF9452EF63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5043054" y="5683394"/>
+          <a:ext cx="1522268" cy="770226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Kostenstellenumlage</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="900" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="75000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Verteilung der Werte von Kostenstellen auf andere Kostenstelllen</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>246782</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>245050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>3462</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="Rechteck 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABF8CDA4-043D-4219-93E0-CBEE1586E91F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3446317" y="4831339"/>
+          <a:ext cx="1522268" cy="770226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Verrechnung</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="900" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="75000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Abbildung von Zahlungsströmen von Mandant zu Mandant</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>332508</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>137245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>330776</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180107</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="Rechteck 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDC11A00-E979-4D75-8042-5C75CF57AE7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5056043" y="4826143"/>
+          <a:ext cx="1522268" cy="770226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IFRS Überleitung</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="900" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="75000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Aufteilung von GKV HGB Werte in die IFRS UKV Perspektive</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>16886</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>162357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>230332</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>25111</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="Rechteck 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{318C3E96-BCB6-492C-B046-C1E1973A3D79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1692421" y="6669664"/>
+          <a:ext cx="213446" cy="590118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DATEV </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>260206</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>158893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>473652</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>21647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="Rechteck 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{819B7975-75ED-4AB7-BC20-A19CF695AF63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1935741" y="6666200"/>
+          <a:ext cx="213446" cy="590118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SAP </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>494868</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>155429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>708314</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>18183</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="Rechteck 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3F8D92D-965B-438B-859D-2EC53AB169DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2170403" y="6662736"/>
+          <a:ext cx="213446" cy="590118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DIAMANT </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>742518</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>151965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>193964</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>14719</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="Rechteck 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9235FCA7-CE4D-48E4-A3C4-D9EAF8886391}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2418053" y="6659272"/>
+          <a:ext cx="213446" cy="590118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>VARIAL</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219509</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>432955</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>15585</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="Rechteck 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D68C3AC-359A-4E42-A11A-7BE42F7CA304}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2657044" y="6660138"/>
+          <a:ext cx="213446" cy="590118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CSS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152398</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>216475</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>177712</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="Rechteck 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09FE46D9-E090-490E-A1F9-3EF5C953872C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7161933" y="5416262"/>
+          <a:ext cx="1588077" cy="541394"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Kostenstellenverteiliung</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" i="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Zuordnung von Mitarbeitern</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" i="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> auf Kostenstellen</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" i="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>224271</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>60613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>221672</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="Rechteck 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2D59AEF-6BAA-44E9-831A-16CA662A1BCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7233806" y="2021898"/>
+          <a:ext cx="1521401" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Personalkosten</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="900" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="75000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Kosten pro KST</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="900" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="75000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Lohnstruktur</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>41163</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>151534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>493567</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>82261</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="Rechteck 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A24836CE-35D7-4B44-B653-716A41A6D137}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7050698" y="1203614"/>
+          <a:ext cx="1976404" cy="7386204"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133783</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>347229</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>163657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="Rechteck 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DF3C128-2C02-4B78-BD3C-DDB1A7DA5C45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7143318" y="7171892"/>
+          <a:ext cx="213446" cy="590118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NAV </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>131616</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>122959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>212145</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>61680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="Rechteck 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDE7B05E-4A08-4A7C-915E-AE4D0A5A867C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7141151" y="6630266"/>
+          <a:ext cx="1604529" cy="484244"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Personalkosten</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" i="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Lohnarten</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" i="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> pro Person</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900" i="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381433</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>594879</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="Rechteck 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{515907E3-B318-42B0-86B3-EFBC7EDA6A6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7390968" y="7181417"/>
+          <a:ext cx="213446" cy="590118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DATEV </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>624753</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>125123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>169718</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="Rechteck 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CF04FED-33B0-445B-9E85-5032417042AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7634288" y="7177953"/>
+          <a:ext cx="213446" cy="590118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SAP </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>97415</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>121659</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>310861</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>166254</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="Rechteck 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5212FDA6-F4C9-4E16-9E76-D03F6E90098A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7868950" y="7174489"/>
+          <a:ext cx="213446" cy="590118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DIAMANT </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>345065</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>118195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>558511</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>162790</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="Rechteck 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{836F10FD-099C-4271-81B4-54D07D18A282}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8116600" y="7171025"/>
+          <a:ext cx="213446" cy="590118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>VARIAL</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>584056</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>35502</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>163656</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="Rechteck 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61E85E19-BAB0-4357-BAD9-48925E94DF68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8355591" y="7171891"/>
+          <a:ext cx="213446" cy="590118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CSS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>211281</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>143741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>273626</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171448</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="Rechteck 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72FC7994-2DC0-4389-9473-FAC406FC2B4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7220816" y="3196071"/>
+          <a:ext cx="1586345" cy="573230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Personalplanung ÖD</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="900" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="75000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Planung der Lohnentwicklung tarifvertragsgebunden</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>225137</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>143741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>222538</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>169718</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="Rechteck 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E768EED-3F0A-4D57-885F-44A6F835473A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7234672" y="1377662"/>
+          <a:ext cx="1521401" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Stammdaten</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="900" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="75000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Altersstruktur</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="900" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="75000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Fluktuation / Krankheit</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>149799</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>230328</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>14920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="Rechteck 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B915D6AD-2F7F-4124-AF49-CF9583E1A79C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7159334" y="6037983"/>
+          <a:ext cx="1604529" cy="484244"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Zeiterfassung</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" i="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Urlaub / Krankheit / Projekt</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25977</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>13855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>749010</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>44162</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="Gerader Verbinder 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{913FF159-72E1-4DBD-AE34-304086B1C882}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25977" y="2702503"/>
+          <a:ext cx="11542568" cy="30307"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>134217</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>110835</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>325581</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177510</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="Textfeld 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF6AD781-83ED-4B27-B3E8-A6DA633BFA99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="134217" y="1890279"/>
+          <a:ext cx="1104899" cy="248516"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1"/>
+            <a:t>Visualisierung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>109106</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>167985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>300470</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>52820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="Textfeld 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20A7B096-4CC2-46E7-9DDD-150437D7580F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="109106" y="3947679"/>
+          <a:ext cx="1104899" cy="248516"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1"/>
+            <a:t>Planung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>140279</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>331643</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>58016</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="Textfeld 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8EC0332-C639-4EF2-9B15-61F8B40732DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="140279" y="5953125"/>
+          <a:ext cx="1104899" cy="248516"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1"/>
+            <a:t>Integration</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342033</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>402646</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>151533</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="Rechteck 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C4CD2DC-144E-4122-8C6E-0470B29E20A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2017568" y="3587027"/>
+          <a:ext cx="822613" cy="162359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Umsatz</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>355887</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>416500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>169717</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="Rechteck 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A7B82A9-23C4-4809-BC06-E0B478E89263}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2031422" y="3787052"/>
+          <a:ext cx="822613" cy="162359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Material</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352423</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>29871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>413036</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>10390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="Rechteck 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1484AE7B-3CE4-4738-A74D-A46CA86D76CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2027958" y="3991406"/>
+          <a:ext cx="822613" cy="162359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Personal</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>340300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>65374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400913</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>45892</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="Rechteck 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF12465D-2EC5-4EE9-83A2-CBEA21597604}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2015835" y="4208749"/>
+          <a:ext cx="822613" cy="162359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Betriebskosten</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>349825</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>109535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>410438</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>90053</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="Rechteck 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9A6C01E-875F-4908-94D2-71ABAB1E23FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2025360" y="4434751"/>
+          <a:ext cx="822613" cy="162359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Abschreibung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>350690</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>132049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>411303</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>112567</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="Rechteck 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{766843C4-33BF-46FD-99A6-E4388F28F927}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2026225" y="4639106"/>
+          <a:ext cx="822613" cy="162359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Zinsen</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>684069</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>220806</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>70138</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Textfeld 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAFBE3C8-7885-4F42-B43E-46B96B220969}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7693604" y="678006"/>
+          <a:ext cx="1060737" cy="444212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1"/>
+            <a:t>Personal </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>207817</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>88323</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>270162</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>116031</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Rechteck 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BCB778F-EBDC-4268-90B7-4C62C938953D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7217352" y="3868017"/>
+          <a:ext cx="1586345" cy="573230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Personalplanung</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="900" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="75000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Planung der Lohnkosten</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>580158</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>37392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>143640</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Pfeil: nach unten 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4E66B24-2D96-48BC-A356-BA4D356E069F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5000220" y="2016400"/>
+          <a:ext cx="170428" cy="4135482"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -24193,7 +28880,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -27510,7 +32197,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -30861,7 +35548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7967790F-DC00-4364-AC7D-8D3B716FB35B}">
   <dimension ref="M18:Q44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="T102" sqref="T102"/>
     </sheetView>
   </sheetViews>
@@ -30894,7 +35581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EF74D8-9026-466E-B120-5AD0A17FB84D}">
   <dimension ref="G2:Q41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -30962,6 +35649,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FD98BF-1A98-47CF-A1FF-974E6BB79044}">
+  <dimension ref="G2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="7:7" ht="25.5" x14ac:dyDescent="0.75">
+      <c r="G2" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5863FB49-312D-4F1B-B125-9B18D0C22F7F}">
   <dimension ref="B1:W45"/>
   <sheetViews>
@@ -31208,7 +35920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C61D5E-3274-4E91-B4BA-CF516F62AFDD}">
   <dimension ref="B2:O40"/>
   <sheetViews>
@@ -31435,7 +36147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57257774-D818-4A13-91F1-A7DCB0C009FC}">
   <dimension ref="B2:N63"/>
   <sheetViews>
@@ -31561,7 +36273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BD8981-4FF0-497D-829F-61801F8BAED6}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -31576,7 +36288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71006EA9-40F6-4D3A-95DF-25D6B75326D9}">
   <dimension ref="B2:J42"/>
   <sheetViews>

--- a/8. Harmonising standards/Harmonizing SXI-DF.xlsx
+++ b/8. Harmonising standards/Harmonizing SXI-DF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC38602-5529-4D0E-B58C-A933E74F4C23}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA4872A-F19D-429A-AB68-218CB97ADFC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4620" activeTab="1" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4620" activeTab="3" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Firmenmodell" sheetId="10" r:id="rId1"/>
@@ -21793,16 +21793,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>446276</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>34636</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>351026</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>181841</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>32306</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>45627</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>699056</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>2332</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21817,8 +21817,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12027811" y="723034"/>
-          <a:ext cx="2634030" cy="1102037"/>
+          <a:off x="1260231" y="12330546"/>
+          <a:ext cx="2634030" cy="1153991"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21866,50 +21866,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Solution</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>das Projekte professionell</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> umsetzen</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="800" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
+            <a:t>MetaDaten</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
@@ -21939,7 +21897,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>basiert</a:t>
+            <a:t>Installierte Konnektoren</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="de-DE" sz="800" baseline="0">
@@ -21953,7 +21911,75 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> auf eine generischen Tabellenmodell</a:t>
+            <a:t> mit Name des Vorsystems</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Installierte Solutions</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Flag für Updatesteuerung </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Prozessflags (integrator import grad..)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Versionen (OCT, API, </a:t>
           </a:r>
           <a:endParaRPr lang="de-DE" sz="800">
             <a:solidFill>
@@ -21987,16 +22013,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>409641</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>163322</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>556846</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>59414</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>13987</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>11656</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161192</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>98248</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -22011,8 +22037,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11991176" y="1942766"/>
-          <a:ext cx="2652346" cy="757538"/>
+          <a:off x="5276051" y="13160619"/>
+          <a:ext cx="2652346" cy="800834"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22164,16 +22190,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>376669</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>11189</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>97781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>646300</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>172382</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>31505</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>68474</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -22188,8 +22214,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11958204" y="3609042"/>
-          <a:ext cx="1793631" cy="1070397"/>
+          <a:off x="5243079" y="14913486"/>
+          <a:ext cx="1793631" cy="1113693"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22452,16 +22478,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>405745</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>80195</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552950</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>166787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>10091</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>110369</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>157296</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>6461</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -22476,8 +22502,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11987280" y="2768843"/>
-          <a:ext cx="2652346" cy="757538"/>
+          <a:off x="5272155" y="14029992"/>
+          <a:ext cx="2652346" cy="792174"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23850,8 +23876,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>493567</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>82261</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -23866,8 +23892,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7050698" y="1203614"/>
-          <a:ext cx="1976404" cy="7386204"/>
+          <a:off x="7046368" y="1251239"/>
+          <a:ext cx="1976404" cy="7070147"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24105,7 +24131,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> pro Person</a:t>
+            <a:t> pro Person incl. TZ Quote</a:t>
           </a:r>
           <a:endParaRPr lang="de-DE" sz="900" i="1">
             <a:solidFill>
@@ -24855,7 +24881,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Urlaub / Krankheit / Projekt</a:t>
+            <a:t>Urlaub / Krankheit / Projekt </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -25847,6 +25873,1974 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>290080</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>148071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>287481</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>174048</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rechteck 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76713C90-9224-4358-A141-12993011EB4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13391285" y="1438276"/>
+          <a:ext cx="1521401" cy="597477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Offene Posten</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="900" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="75000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Altersstruktur</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="900" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="75000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Abbau</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>156731</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>83993</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>154132</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>109970</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Rechteck 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44A0AB6F-A5E0-4748-A843-A4D96047D0A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11733936" y="2136198"/>
+          <a:ext cx="1521401" cy="597477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Fuhrpark</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="900" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="75000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Fahrzeugkosten</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>373540</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>5196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>721570</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>16187</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Rechteck 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{847B89C7-ACCA-4690-BCAD-173A356353E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1282745" y="8153401"/>
+          <a:ext cx="2634030" cy="1153991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dimension Kostenstellen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Gruppierung</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> zu Profitcentern</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Fiktive Kostenstellen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Hauptkostenstellen  / Hilfskostenstelle 1....X ter Ebene</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>378735</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>27710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>726765</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>38701</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Rechteck 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16111326-B08B-4DC7-B69B-CDAB96521DA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1287940" y="9509415"/>
+          <a:ext cx="2634030" cy="1153991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dimension Sachkonten</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Typ (Bilanz / GuV / Deb / Kred</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Fiktive Sachkonten (neu, für Umlage, Plankonto)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Exklusivität der Planung</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>130753</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>128154</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>187903</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Rechteck 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEC4F210-5341-45CD-9505-E804D01D4C78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11707958" y="1452131"/>
+          <a:ext cx="1521401" cy="597477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Umsatzplanung</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="900" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="75000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Artikelumsatz</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="900" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="75000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Kundenumsatz</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>352427</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>97848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>349828</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Rechteck 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{216D4D07-AAC0-45E0-ABBC-F726A8406A22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12691632" y="3483553"/>
+          <a:ext cx="1521401" cy="597477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Investitionsplanung</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="900" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="75000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Altersstruktur</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="900" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="75000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Abbau</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>158463</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>189635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>155864</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25112</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Rechteck 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCD2B9C4-7BFE-474C-A041-0B2201F1A2A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11735668" y="2813340"/>
+          <a:ext cx="1521401" cy="597477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Vertragsverwaltung</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="900" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="75000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dauerschuldverhältnisse</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>345499</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>186172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>21649</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Rechteck 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA89A97F-629D-4CA8-BC28-E10E57BB9DFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12684704" y="4143377"/>
+          <a:ext cx="1521401" cy="597477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Darlehen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="900" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="75000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Altersstruktur</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="900" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="75000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Abbau</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>563708</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>561109</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>187903</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Rechteck 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F97888BC-359D-4FF3-A97F-273575D76847}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15188913" y="1452131"/>
+          <a:ext cx="1521401" cy="597477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Personaleinsatz</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="900" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="75000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Planung Person auf Projekt</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>264103</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>262370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>562840</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Textfeld 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AF99F9E-D34F-484E-8EE3-7699E4D5B659}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11841308" y="452870"/>
+          <a:ext cx="1060737" cy="629516"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1"/>
+            <a:t>Solutions</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1"/>
+            <a:t> mit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1" baseline="0"/>
+            <a:t> Integration in GuV</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>537730</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>293543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>74467</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>13854</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Textfeld 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9C8B2D4-BEAA-4C5D-BCCB-76EDC98597D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15162935" y="484043"/>
+          <a:ext cx="1060737" cy="629516"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1"/>
+            <a:t>Solutions</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1"/>
+            <a:t> ohne Finanz Integration</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>355889</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>284884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>654626</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>5195</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Textfeld 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08C2FE9C-6138-43BD-9107-B9AC851021FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13457094" y="475384"/>
+          <a:ext cx="1060737" cy="629516"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1"/>
+            <a:t>Solutions</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1"/>
+            <a:t>mit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1" baseline="0"/>
+            <a:t> Integration in Liquidität</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>328181</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>325582</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Rechteck 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A80B412-8C48-4EBD-9866-EA00C98917CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13429386" y="4957331"/>
+          <a:ext cx="1521401" cy="731692"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>IFRS 16</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="900" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="75000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bilanzierung von Leasingverträgen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>49690</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>166255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>510886</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>177246</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Rechteck 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6008DE49-957F-4A41-9A73-23EAF24B9FD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7054895" y="8504960"/>
+          <a:ext cx="1985196" cy="1153991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dimension Person</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Name,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Geburtsdatum, Eintritt, Austritt</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>375272</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>32905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>723302</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>43896</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Rechteck 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CACC45C7-247A-4CEC-B67E-3CBF3D4887AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1284477" y="10848110"/>
+          <a:ext cx="2634030" cy="1153991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dimension Mandanten</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Name, Gruppierung</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>662422</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>139412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>659823</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>109104</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Rechteck 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFE38301-5DD7-4337-B15B-79403C3BCBD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9953627" y="6382617"/>
+          <a:ext cx="1521401" cy="731692"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Synchronisation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="900" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="75000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Diff mit ToDo von System A und B</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>667618</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>49358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>665019</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Rechteck 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{375410DF-6D96-4145-A079-7F268C08F2B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9958823" y="7245063"/>
+          <a:ext cx="1521401" cy="731692"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Writeback</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="900" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="75000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Output Buchungen als CSV oder Systemformat</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:endParaRPr lang="de-DE" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -35552,22 +37546,22 @@
       <selection activeCell="T102" sqref="T102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.1328125" customWidth="1"/>
-    <col min="17" max="17" width="12.59765625" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="13:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M18" s="1"/>
     </row>
-    <row r="30" spans="13:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="13:17" x14ac:dyDescent="0.25">
       <c r="Q30" s="1"/>
     </row>
-    <row r="37" spans="17:17" x14ac:dyDescent="0.45">
+    <row r="37" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q37" s="1"/>
     </row>
-    <row r="44" spans="17:17" x14ac:dyDescent="0.45">
+    <row r="44" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q44" s="1"/>
     </row>
   </sheetData>
@@ -35581,49 +37575,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EF74D8-9026-466E-B120-5AD0A17FB84D}">
   <dimension ref="G2:Q41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.1328125" customWidth="1"/>
-    <col min="17" max="17" width="12.59765625" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:13" ht="25.5" x14ac:dyDescent="0.75">
+    <row r="2" spans="7:13" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G2" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="7:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="7:13" x14ac:dyDescent="0.25">
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="7:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="7:13" x14ac:dyDescent="0.25">
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="7:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="7:13" x14ac:dyDescent="0.25">
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="7:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="7:13" x14ac:dyDescent="0.25">
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="7:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="7:13" x14ac:dyDescent="0.25">
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="7:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="7:13" x14ac:dyDescent="0.25">
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="7:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="7:13" x14ac:dyDescent="0.25">
       <c r="M15" s="1"/>
     </row>
-    <row r="27" spans="17:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q27" s="1"/>
     </row>
-    <row r="34" spans="17:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q34" s="1"/>
     </row>
-    <row r="41" spans="17:17" x14ac:dyDescent="0.45">
+    <row r="41" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q41" s="1"/>
     </row>
   </sheetData>
@@ -35641,7 +37635,7 @@
       <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -35652,16 +37646,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FD98BF-1A98-47CF-A1FF-974E6BB79044}">
   <dimension ref="G2"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.1328125" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:7" ht="25.5" x14ac:dyDescent="0.75">
+    <row r="2" spans="7:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G2" s="8" t="s">
         <v>138</v>
       </c>
@@ -35681,61 +37675,61 @@
       <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.1328125" customWidth="1"/>
-    <col min="17" max="17" width="12.59765625" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>57</v>
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>77</v>
       </c>
       <c r="M11" s="1"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>48</v>
       </c>
@@ -35746,7 +37740,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>50</v>
       </c>
@@ -35757,7 +37751,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>51</v>
       </c>
@@ -35769,7 +37763,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>52</v>
       </c>
@@ -35777,22 +37771,22 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="Q25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D27" s="7" t="s">
         <v>90</v>
       </c>
@@ -35818,7 +37812,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="Q28" s="4" t="s">
         <v>64</v>
       </c>
@@ -35839,17 +37833,17 @@
       </c>
       <c r="W28" s="4"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D31" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="4:23" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>49</v>
       </c>
@@ -35873,42 +37867,42 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="4:23" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D34" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="4:23" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:23" x14ac:dyDescent="0.25">
       <c r="Q36" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="4:23" x14ac:dyDescent="0.45">
+    <row r="37" spans="4:23" x14ac:dyDescent="0.25">
       <c r="Q37" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="4:23" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:23" x14ac:dyDescent="0.25">
       <c r="Q38" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="4:23" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:23" x14ac:dyDescent="0.25">
       <c r="Q39" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="4:23" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:23" x14ac:dyDescent="0.25">
       <c r="Q43" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="4:23" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:23" x14ac:dyDescent="0.25">
       <c r="Q44" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="4:23" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:23" x14ac:dyDescent="0.25">
       <c r="Q45" t="s">
         <v>87</v>
       </c>
@@ -35928,13 +37922,13 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="3.3984375" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>129</v>
       </c>
@@ -35942,12 +37936,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="N3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>94</v>
       </c>
@@ -35955,7 +37949,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>95</v>
       </c>
@@ -35963,12 +37957,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>97</v>
       </c>
@@ -35976,7 +37970,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>98</v>
       </c>
@@ -35984,7 +37978,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>99</v>
       </c>
@@ -35992,7 +37986,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>100</v>
       </c>
@@ -36000,7 +37994,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>101</v>
       </c>
@@ -36008,7 +38002,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>102</v>
       </c>
@@ -36016,7 +38010,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>103</v>
       </c>
@@ -36024,7 +38018,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>136</v>
       </c>
@@ -36032,73 +38026,73 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="O16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="O17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="O18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="N20" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="M26" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="N27" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="N28" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="N29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>109</v>
       </c>
@@ -36106,37 +38100,37 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>130</v>
       </c>
@@ -36155,12 +38149,12 @@
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.86328125" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
@@ -36168,7 +38162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -36176,7 +38170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -36184,32 +38178,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N9" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>0</v>
       </c>
@@ -36217,7 +38211,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>7</v>
       </c>
@@ -36225,7 +38219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>8</v>
       </c>
@@ -36233,12 +38227,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>45</v>
       </c>
@@ -36252,7 +38246,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>44</v>
       </c>
@@ -36281,7 +38275,7 @@
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -36296,55 +38290,55 @@
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F4" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F9" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F11" s="2"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
@@ -36352,7 +38346,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -36360,7 +38354,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>39</v>
       </c>
@@ -36368,7 +38362,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>42</v>
       </c>
@@ -36376,72 +38370,72 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>17</v>
       </c>

--- a/8. Harmonising standards/Harmonizing SXI-DF.xlsx
+++ b/8. Harmonising standards/Harmonizing SXI-DF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA4872A-F19D-429A-AB68-218CB97ADFC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB580BB6-2918-4BB5-A033-E8CF8FF31F7C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4620" activeTab="3" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4620" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Firmenmodell" sheetId="10" r:id="rId1"/>
@@ -1927,14 +1927,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>566736</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1949,7 +1949,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8339136" y="7334250"/>
+          <a:off x="8339136" y="7586663"/>
           <a:ext cx="1947864" cy="2786063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2161,6 +2161,123 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>Git Schulung für alle Projektmitarbeiter</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Umstellung auf Kommandozeile</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Projekt AGB erstellen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Monitoringkonzept</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3602,6 +3719,45 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>Personal mit Rollenkapazitäten planen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>effektiven Kostensatz pro MA planen</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6847,7 +7003,124 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Los</a:t>
+            <a:t>Strategiemeeting DF + SXI für 5.0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Software AGB erstellen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Datenschutzerklärung in Software</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Anfrage Kyrill</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6962,6 +7235,45 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>Testumgebung Azure bereitstellen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>API 5.0 aufbauen</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7720,16 +8032,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>123822</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>71435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>471488</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>80960</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7744,7 +8056,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5534024" y="18945222"/>
+          <a:off x="2566987" y="14911385"/>
           <a:ext cx="1947864" cy="2490788"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7793,10 +8105,13 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Modell für</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
+            <a:t>Wissensmanagement</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
@@ -7807,109 +8122,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Räume</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> und Arbeitwelt</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="800" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Lernen</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> voneinander</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Rotation</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
+            <a:t>dd</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
@@ -8000,7 +8214,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Kauf Marke mit AG klären</a:t>
+            <a:t>Praxisteil Stored Procedures</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -37542,26 +37756,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7967790F-DC00-4364-AC7D-8D3B716FB35B}">
   <dimension ref="M18:Q44"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="T102" sqref="T102"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.1328125" customWidth="1"/>
+    <col min="17" max="17" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="13:17" x14ac:dyDescent="0.45">
       <c r="M18" s="1"/>
     </row>
-    <row r="30" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="13:17" x14ac:dyDescent="0.45">
       <c r="Q30" s="1"/>
     </row>
-    <row r="37" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q37" s="1"/>
     </row>
-    <row r="44" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q44" s="1"/>
     </row>
   </sheetData>
@@ -37579,45 +37793,45 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.1328125" customWidth="1"/>
+    <col min="17" max="17" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="7:13" ht="25.5" x14ac:dyDescent="0.75">
       <c r="G2" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="7:13" x14ac:dyDescent="0.45">
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="7:13" x14ac:dyDescent="0.45">
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="7:13" x14ac:dyDescent="0.45">
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="7:13" x14ac:dyDescent="0.45">
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="7:13" x14ac:dyDescent="0.45">
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="7:13" x14ac:dyDescent="0.45">
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="7:13" x14ac:dyDescent="0.45">
       <c r="M15" s="1"/>
     </row>
-    <row r="27" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q27" s="1"/>
     </row>
-    <row r="34" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q34" s="1"/>
     </row>
-    <row r="41" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q41" s="1"/>
     </row>
   </sheetData>
@@ -37635,7 +37849,7 @@
       <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -37646,16 +37860,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FD98BF-1A98-47CF-A1FF-974E6BB79044}">
   <dimension ref="G2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="7:7" ht="25.5" x14ac:dyDescent="0.75">
       <c r="G2" s="8" t="s">
         <v>138</v>
       </c>
@@ -37675,61 +37889,61 @@
       <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.1328125" customWidth="1"/>
+    <col min="17" max="17" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>57</v>
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
       <c r="J8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
       <c r="J9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
       <c r="J10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>77</v>
       </c>
       <c r="M11" s="1"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>48</v>
       </c>
@@ -37740,7 +37954,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>50</v>
       </c>
@@ -37751,7 +37965,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>51</v>
       </c>
@@ -37763,7 +37977,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>52</v>
       </c>
@@ -37771,22 +37985,22 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.45">
       <c r="Q25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.45">
       <c r="D26" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.45">
       <c r="D27" s="7" t="s">
         <v>90</v>
       </c>
@@ -37812,7 +38026,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.45">
       <c r="Q28" s="4" t="s">
         <v>64</v>
       </c>
@@ -37833,17 +38047,17 @@
       </c>
       <c r="W28" s="4"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.45">
       <c r="D30" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.45">
       <c r="D31" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:23" x14ac:dyDescent="0.45">
       <c r="D33" t="s">
         <v>49</v>
       </c>
@@ -37867,42 +38081,42 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:23" x14ac:dyDescent="0.45">
       <c r="D34" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:23" x14ac:dyDescent="0.45">
       <c r="Q36" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:23" x14ac:dyDescent="0.45">
       <c r="Q37" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:23" x14ac:dyDescent="0.45">
       <c r="Q38" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:23" x14ac:dyDescent="0.45">
       <c r="Q39" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:23" x14ac:dyDescent="0.45">
       <c r="Q43" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:23" x14ac:dyDescent="0.45">
       <c r="Q44" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:23" x14ac:dyDescent="0.45">
       <c r="Q45" t="s">
         <v>87</v>
       </c>
@@ -37922,13 +38136,13 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="3.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>129</v>
       </c>
@@ -37936,12 +38150,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="N3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>94</v>
       </c>
@@ -37949,7 +38163,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>95</v>
       </c>
@@ -37957,12 +38171,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>97</v>
       </c>
@@ -37970,7 +38184,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>98</v>
       </c>
@@ -37978,7 +38192,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>99</v>
       </c>
@@ -37986,7 +38200,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>100</v>
       </c>
@@ -37994,7 +38208,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>101</v>
       </c>
@@ -38002,7 +38216,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>102</v>
       </c>
@@ -38010,7 +38224,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>103</v>
       </c>
@@ -38018,7 +38232,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>136</v>
       </c>
@@ -38026,73 +38240,73 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="O16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
       <c r="O17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
       <c r="O18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
       <c r="N20" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B26" s="1"/>
       <c r="M26" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B27" s="1"/>
       <c r="N27" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
       <c r="N28" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
       <c r="N29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
         <v>109</v>
       </c>
@@ -38100,37 +38314,37 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C38" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C39" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C40" t="s">
         <v>130</v>
       </c>
@@ -38149,12 +38363,12 @@
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
@@ -38162,7 +38376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -38170,7 +38384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -38178,32 +38392,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
       <c r="N9" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
       <c r="N10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
       <c r="N11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
         <v>0</v>
       </c>
@@ -38211,7 +38425,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
         <v>7</v>
       </c>
@@ -38219,7 +38433,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
         <v>8</v>
       </c>
@@ -38227,12 +38441,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
         <v>45</v>
       </c>
@@ -38246,7 +38460,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
         <v>44</v>
       </c>
@@ -38275,7 +38489,7 @@
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -38290,55 +38504,55 @@
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F4" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F9" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F11" s="2"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
@@ -38346,7 +38560,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -38354,7 +38568,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>39</v>
       </c>
@@ -38362,7 +38576,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>42</v>
       </c>
@@ -38370,72 +38584,72 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
       <c r="J17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
       <c r="J18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
       <c r="J20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
       <c r="J21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>17</v>
       </c>

--- a/8. Harmonising standards/Harmonizing SXI-DF.xlsx
+++ b/8. Harmonising standards/Harmonizing SXI-DF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB580BB6-2918-4BB5-A033-E8CF8FF31F7C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7016DD20-0C51-4FA9-A230-41B2077AE153}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4620" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4620" activeTab="1" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Firmenmodell" sheetId="10" r:id="rId1"/>
@@ -3966,16 +3966,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>461962</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>185739</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>633414</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
+      <xdr:rowOff>138113</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3990,7 +3990,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5186362" y="3790949"/>
+          <a:off x="10206037" y="3771899"/>
           <a:ext cx="2009777" cy="1614489"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8361,6 +8361,311 @@
         </a:p>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>404811</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rechteck 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ADEE765-D557-4FB6-8D99-35EB03625115}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5129211" y="3790949"/>
+          <a:ext cx="1947864" cy="1943101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Personalentwicklungsmodell</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>mit der Organisation wachsen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>notwenidges Wissen aufbauen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Kurzfristig</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:prstClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:prstClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Langfristig</a:t>
+          </a:r>
           <a:endParaRPr lang="de-DE" sz="800" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1">
@@ -11916,15 +12221,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>131885</xdr:colOff>
+      <xdr:colOff>113568</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>338138</xdr:colOff>
+      <xdr:colOff>319821</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11939,8 +12244,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="131885" y="8458201"/>
-          <a:ext cx="7210791" cy="766762"/>
+          <a:off x="113568" y="8428894"/>
+          <a:ext cx="7218118" cy="722800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18294,6 +18599,37 @@
         </a:p>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Module klassifizieren sind in Level 1..3 Module, je nach Schwierigkeitsgrad</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
           <a:endParaRPr lang="de-DE" sz="800" b="1">
             <a:solidFill>
               <a:schemeClr val="tx1">
@@ -18305,6 +18641,356 @@
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>150202</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>3664</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>84259</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>36634</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Textfeld 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0439E42-71B8-4E69-9680-F16A44C8774D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="150202" y="8583491"/>
+          <a:ext cx="849922" cy="212480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>support@sx.de</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>421297</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>43962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>674076</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>76932</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="Textfeld 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2585604F-30E9-4AC4-ADA4-2185DA7B661B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4385162" y="13291039"/>
+          <a:ext cx="1014779" cy="212480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>verwaltung@sx.de</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>196361</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>31507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>670414</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>64477</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="Textfeld 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C4B257E-EA4F-4AE9-B904-A84CC24D0A4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1112226" y="13278584"/>
+          <a:ext cx="1236053" cy="212480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>it-administration@sx.de</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>723899</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>16852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>214678</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>49823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="Textfeld 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84F3731B-9AF9-42C8-A044-2AE4396B3E85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5449764" y="11289324"/>
+          <a:ext cx="1014779" cy="212480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>info@sx.de</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76932</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>329711</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>91586</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="Textfeld 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{792ABC0D-AABE-4BE1-8E18-E139881B6895}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8612797" y="3073644"/>
+          <a:ext cx="1014779" cy="212480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>order@sx.de</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -37756,7 +38442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7967790F-DC00-4364-AC7D-8D3B716FB35B}">
   <dimension ref="M18:Q44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
@@ -37789,8 +38475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EF74D8-9026-466E-B120-5AD0A17FB84D}">
   <dimension ref="G2:Q41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/8. Harmonising standards/Harmonizing SXI-DF.xlsx
+++ b/8. Harmonising standards/Harmonizing SXI-DF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7016DD20-0C51-4FA9-A230-41B2077AE153}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69222FD3-9491-4A2D-A5B3-B472FE3FFC80}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4620" activeTab="1" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4620" activeTab="3" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Firmenmodell" sheetId="10" r:id="rId1"/>
@@ -9286,13 +9286,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>271462</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>661988</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9369,13 +9369,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>109541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>176211</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9699,13 +9699,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9782,13 +9782,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>404814</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9960,13 +9960,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>42865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10183,13 +10183,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>52388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>862013</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>119064</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10240,13 +10240,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>604838</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>142873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>19048</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10388,13 +10388,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>494934</xdr:colOff>
+      <xdr:colOff>465626</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>135182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>232997</xdr:colOff>
+      <xdr:colOff>203689</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>120894</xdr:rowOff>
     </xdr:to>
@@ -10411,8 +10411,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3696799" y="6560894"/>
-          <a:ext cx="500063" cy="344731"/>
+          <a:off x="3660164" y="6949220"/>
+          <a:ext cx="500063" cy="366712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11709,8 +11709,33 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Modulentwickler</a:t>
-          </a:r>
+            <a:t>Modulentwickler Level</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 1...3</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12057,13 +12082,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>752473</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>47628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>185736</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12140,13 +12165,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12211,7 +12236,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Wissensmanagement</a:t>
+            <a:t>Produktmanagement</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -12304,13 +12329,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>576264</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12387,13 +12412,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>176212</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12466,13 +12491,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>376239</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12549,13 +12574,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>385764</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12632,13 +12657,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>376239</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12715,13 +12740,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>338139</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13206,16 +13231,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>599341</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>211014</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>109905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>80596</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>454269</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>176579</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13230,7 +13255,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8365879" y="3480289"/>
+          <a:off x="6453552" y="10162443"/>
           <a:ext cx="1005255" cy="447674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13961,16 +13986,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>333740</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>86458</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>707413</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>101112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>428991</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>105508</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>40664</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>120162</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13985,7 +14010,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8100278" y="2753458"/>
+          <a:off x="6187951" y="9963150"/>
           <a:ext cx="3905251" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14045,13 +14070,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>661987</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>176213</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14127,13 +14152,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>671513</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14210,13 +14235,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>704851</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>147638</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14293,13 +14318,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14376,13 +14401,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>671513</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14459,13 +14484,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>714376</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>157163</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14622,16 +14647,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>80597</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>268897</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>147271</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>730860</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14646,7 +14671,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9947762" y="2938097"/>
+          <a:off x="8035435" y="10147789"/>
           <a:ext cx="1223963" cy="447674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14706,13 +14731,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>86458</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>17584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>772258</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>60448</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14763,13 +14788,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>552449</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>147638</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14846,13 +14871,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>547686</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>23815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>176212</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14929,13 +14954,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>414336</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>452438</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15011,13 +15036,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>732693</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>99646</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>465993</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>156796</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15083,13 +15108,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15165,13 +15190,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>419101</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17387,98 +17412,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>119066</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>433386</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>185738</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="Rechteck 116">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1450770A-413E-47B0-9F49-3A384A08CE30}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2695574" y="9834566"/>
-          <a:ext cx="928687" cy="447672"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Confluence</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>9523</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18078,13 +18020,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1694</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>65211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>263770</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>20994</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18161,14 +18103,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>43962</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>366347</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>80596</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>139211</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18183,7 +18125,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2051538" y="10096500"/>
+          <a:off x="2051538" y="10917115"/>
           <a:ext cx="9891347" cy="608134"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18232,7 +18174,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Arbeitsmethodik</a:t>
+            <a:t>Prozessmanagement</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -18243,13 +18185,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>344594</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>63746</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>606670</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>19529</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18326,13 +18268,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>687494</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>69608</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>187570</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>25391</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18409,13 +18351,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>261067</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>75470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>523143</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>31253</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18720,13 +18662,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>421297</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>43962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>674076</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>76932</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18742,8 +18684,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4385162" y="13291039"/>
-          <a:ext cx="1014779" cy="212480"/>
+          <a:off x="4377835" y="14097000"/>
+          <a:ext cx="2626703" cy="223470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18781,6 +18723,23 @@
             </a:rPr>
             <a:t>verwaltung@sx.de</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> / buchhaltung@sx.de</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -18790,13 +18749,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>196361</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>31507</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>670414</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>64477</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18860,13 +18819,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>723899</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>16852</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>214678</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>49823</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18928,16 +18887,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76932</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>58615</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>450605</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>329711</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>91586</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>703384</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>106240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18952,8 +18911,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8612797" y="3073644"/>
-          <a:ext cx="1014779" cy="212480"/>
+          <a:off x="6693143" y="9935307"/>
+          <a:ext cx="1014779" cy="223471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18990,6 +18949,298 @@
               </a:solidFill>
             </a:rPr>
             <a:t>order@sx.de</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>318721</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>62279</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>36634</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="Textfeld 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0386058-0C45-4D1B-BCD8-46433219D5D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="465259" y="6876317"/>
+          <a:ext cx="1241913" cy="223470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>datenintegration@sx.de</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>479913</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>32970</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="Textfeld 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D74E12-11D6-47FC-B4AE-B4B5D5406830}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9290538" y="4909038"/>
+          <a:ext cx="1241913" cy="223470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>consulting@sx.de</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>471122</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>24179</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>718040</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="Textfeld 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64FD3292-23A2-493D-82DC-D01F6E61B4B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="617660" y="5695217"/>
+          <a:ext cx="1008918" cy="223470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>planung@sx.de</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>491270</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>54951</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438883</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>26377</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="Rechteck 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0F701BE-041E-48FE-AA6A-81D7B35D7D7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9781808" y="14107989"/>
+          <a:ext cx="1471613" cy="1304926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Geschäftsführung</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -28742,6 +28993,263 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>297339</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>24245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>12987</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>164521</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Rechteck 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3A7832E-67E2-42B2-8CD8-65B1C1F3433F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7306874" y="9986530"/>
+          <a:ext cx="3525648" cy="1958685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Zusatzbuchungsjournal</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ein Zusatzbuchungsjournal</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> ermöglicht Ihnen die aus der Buchhaltung importierten Daten noch um einige Buchungen zu ergänzen. Das sind meist Zusatzbuchungen oder Umbuchungen für Sachverhalte die noch nicht oder anders als gewünscht in der Buchhaltung abgebildet sind, bspw:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450" algn="l">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Einbuchung von Bonuserwartungen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450" algn="l">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Umbuchungen um Fördermitteleffekte auszugleichen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450" algn="l">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>den Informationsvorsprung der Geschäftsleitung einfließen zu lassen (Wertberichtigungen, Umstrukturierungen etc.)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Die Buchungen des Zusatzbuchungsjournal</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> erfolgen in einen gesondert auswertbaren Buchungskreis, so dass sich die Unternehmesperspektive vor und nach Umbuchungen darstellen lässt. Bei regelmäßig stattfinden Zusatzbuchungen lässt sich der Buchungsstapel leicht in den Folgemonat als Vorschlag kopieren.</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -38475,8 +38983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EF74D8-9026-466E-B120-5AD0A17FB84D}">
   <dimension ref="G2:Q41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -38546,8 +39054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FD98BF-1A98-47CF-A1FF-974E6BB79044}">
   <dimension ref="G2"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/8. Harmonising standards/Harmonizing SXI-DF.xlsx
+++ b/8. Harmonising standards/Harmonizing SXI-DF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69222FD3-9491-4A2D-A5B3-B472FE3FFC80}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0550A66-1EA9-4FFE-9797-05B8519D94FC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4620" activeTab="3" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
   </bookViews>
@@ -19254,16 +19254,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>109539</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>690564</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19278,8 +19278,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2733675" y="8248649"/>
-          <a:ext cx="1947864" cy="2419351"/>
+          <a:off x="10172700" y="2428874"/>
+          <a:ext cx="1947864" cy="2295526"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19833,16 +19833,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>652464</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>757239</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19857,7 +19857,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="6067424"/>
+          <a:off x="7953375" y="3219449"/>
           <a:ext cx="1947864" cy="1981201"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19912,7 +19912,7 @@
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
+            <a:rPr lang="de-DE" sz="800" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
@@ -19923,7 +19923,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>SSIS Pakete nutzen ?</a:t>
+            <a:t>primär</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -19940,109 +19940,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Kettle als Azure Dienst ?</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Kettle als Docker Container ?</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Docker on Premises nutzen ?</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Docker auf VM ausführbar ?</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Teamviewer in den Service integrieren ?</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>alternative SAP Connectoren ?</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Kann Docker Files outside Docker erzeugen ?</a:t>
+            <a:t>Kann Carte mit Kettle auf Azure installiert werden ohne virtuelle Maschine ?</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -20061,6 +19959,125 @@
         </a:p>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sekundär</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Kettle als Docker Container ?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Docker on Premises nutzen ?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Docker auf VM ausführbar ?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Teamviewer in den Service integrieren ?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>alternative SAP Connectoren ?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Kann Docker Files outside Docker erzeugen ?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
           <a:endParaRPr lang="de-DE" sz="800" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1">
@@ -20073,222 +20090,19 @@
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rechteck 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BEFD708-E0EB-468D-862B-E082DCC6D546}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="314325" y="2886074"/>
-          <a:ext cx="2000249" cy="828675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>SXI</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t> Java Client</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85727</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rechteck 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E2EE7F-6709-413A-8D3F-1C48095C5C7F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2371727" y="2886074"/>
-          <a:ext cx="847724" cy="828675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>SXI Webclient</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rechteck 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C2BDF17-D3A0-4CA2-B454-993B772F64F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="904875" y="3228975"/>
-          <a:ext cx="1362075" cy="414338"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>Kettle</a:t>
-          </a:r>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -20304,8 +20118,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20320,8 +20134,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3990976" y="2886075"/>
-          <a:ext cx="3438523" cy="276226"/>
+          <a:off x="3990976" y="2743200"/>
+          <a:ext cx="3438523" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20365,15 +20179,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>180976</xdr:colOff>
+      <xdr:colOff>238126</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:colOff>661987</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20388,8 +20202,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3990976" y="3190874"/>
-          <a:ext cx="1200149" cy="447675"/>
+          <a:off x="4048126" y="3047999"/>
+          <a:ext cx="1185861" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20432,16 +20246,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>676276</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>652463</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>80964</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20456,8 +20270,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5248276" y="3209925"/>
-          <a:ext cx="571500" cy="414338"/>
+          <a:off x="3948113" y="4581526"/>
+          <a:ext cx="1276350" cy="385763"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20499,74 +20313,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>Kettle</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>742951</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Textfeld 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D57FAB9-FE39-4F26-8094-BE5B9EDEDF14}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="971551" y="2428875"/>
-          <a:ext cx="1295400" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400" b="1"/>
-            <a:t>Status</a:t>
+            <a:t>Kettle (Files)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -21039,16 +20786,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142877</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21063,542 +20810,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4010026" y="3771900"/>
-          <a:ext cx="828674" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>OCT DB</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="85000"/>
-                <a:lumOff val="15000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>161923</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Rechteck 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE443880-D878-40DC-A9DB-8EE411919AB7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8153400" y="2838450"/>
-          <a:ext cx="3438523" cy="276226"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>OCT Service</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rechteck 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{215CE4E5-46B8-4571-AA7F-1949F352CD20}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8153400" y="3143249"/>
-          <a:ext cx="1200149" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>OCT.integration</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>147638</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Rechteck 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C466967A-213C-462F-B5B4-92D459CF4548}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9410700" y="3162300"/>
-          <a:ext cx="571500" cy="414338"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>Kettle</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Textfeld 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE158D2-3F81-40B6-9668-210460ACADB3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9182100" y="1171575"/>
-          <a:ext cx="1295400" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400" b="1"/>
-            <a:t>OCT</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400" b="1" baseline="0"/>
-            <a:t> 6.0</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1400" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Rechteck 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE1BD9B5-C36E-47AB-93FC-C76DB7AB64DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8172450" y="2333624"/>
-          <a:ext cx="1142999" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>OCT.planning</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Flussdiagramm: Magnetplattenspeicher 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E70F818F-5011-4A33-8186-FFA69378A496}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8458200" y="3667125"/>
-          <a:ext cx="828674" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>OCT DB</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="85000"/>
-                <a:lumOff val="15000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Flussdiagramm: Magnetplattenspeicher 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F63B2D5-A293-457A-90A6-7A2C4D51889B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9420226" y="3657600"/>
-          <a:ext cx="828674" cy="714375"/>
+          <a:off x="2428877" y="2738438"/>
+          <a:ext cx="828674" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -21809,159 +21022,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>552451</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Rechteck 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B44A811-30E0-495E-A604-A48ED8B50238}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8172451" y="1838324"/>
-          <a:ext cx="1142999" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>OCT.visual</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Rechteck 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89734091-0464-456F-87BA-5F82312B62E5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9382126" y="2333625"/>
-          <a:ext cx="571500" cy="414338"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>DF</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21976,8 +21045,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6353176" y="333375"/>
-          <a:ext cx="828674" cy="714375"/>
+          <a:off x="7934326" y="900113"/>
+          <a:ext cx="828674" cy="919162"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -22026,7 +21095,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Logik</a:t>
+            <a:t>Logik &amp; License</a:t>
           </a:r>
           <a:endParaRPr lang="de-DE" sz="1100">
             <a:solidFill>
@@ -22134,16 +21203,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>271463</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>700089</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>695327</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -22158,8 +21227,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="276225" y="4105275"/>
-          <a:ext cx="1947864" cy="885826"/>
+          <a:off x="10177463" y="1362075"/>
+          <a:ext cx="1947864" cy="838201"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22302,6 +21371,1168 @@
             </a:rPr>
             <a:t>JAVA Update zerstört oft Pfade</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>23814</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rechteck 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340ECFAC-BF03-4EBA-8838-D65D71A89133}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3952876" y="4333876"/>
+          <a:ext cx="1276350" cy="214313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Webservice carte</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>512310</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>168047</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>593272</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>148999</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rechteck 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{272D8DC6-2661-47FB-95CA-E41FEF3166D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2036310" y="4168547"/>
+          <a:ext cx="1604962" cy="1314452"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Filesystem</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Paket</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- SQL Create Table</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- SQL Create Table</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Docu</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- SQL Create Index</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="900" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Kettle Transformation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>69057</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Gerade Verbindung mit Pfeil 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E84AD6-674F-45FE-BE51-41202805EFE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="33" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4591051" y="3467099"/>
+          <a:ext cx="50006" cy="866777"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>594213</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Textfeld 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3B9E51E-1A85-4F0C-B2D7-017A8574AE9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="3795712"/>
+          <a:ext cx="1241913" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Call</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Service</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>XML Jobdefinition</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>595314</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rechteck 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7491695-6F57-49AA-B31B-34576F71941F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12363450" y="2443161"/>
+          <a:ext cx="1947864" cy="2295526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Installationsvarianten</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>beschreiben</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>481014</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rechteck 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B8C63F-B222-487F-BC5A-BD85EA7A461A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14535150" y="2457449"/>
+          <a:ext cx="1947864" cy="2295526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Langfristige</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Zielstellung</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>beschreiben</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>652463</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rechteck 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C310D2C-343D-4D68-A92E-5D505C41AC9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3948113" y="5276851"/>
+          <a:ext cx="1276350" cy="171449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Java</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>734786</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>34017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>39460</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57829</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Flussdiagramm: Magnetplattenspeicher 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7831D8D-5807-41F6-9AB1-8DCF7D6CF510}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5306786" y="6130017"/>
+          <a:ext cx="828674" cy="976312"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Vorsystem</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>288471</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>717096</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rechteck 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B8A900C-809D-48EE-A497-1EBF6DA8069C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4860471" y="8943974"/>
+          <a:ext cx="2714625" cy="1981201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Konzeption</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>kein Runall Job mehr</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OCT ruft einzelne Jobs auf</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>höhere Modularität</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Möglichkeit einzelne Mandanten aufzurufen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Möglichkeit einzelne Zeitperioden zu laden</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Granularität - Job pro Mandant und Jahr, ggf. deltafähig</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
@@ -38954,22 +39185,22 @@
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.1328125" customWidth="1"/>
-    <col min="17" max="17" width="12.59765625" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="13:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M18" s="1"/>
     </row>
-    <row r="30" spans="13:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="13:17" x14ac:dyDescent="0.25">
       <c r="Q30" s="1"/>
     </row>
-    <row r="37" spans="17:17" x14ac:dyDescent="0.45">
+    <row r="37" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q37" s="1"/>
     </row>
-    <row r="44" spans="17:17" x14ac:dyDescent="0.45">
+    <row r="44" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q44" s="1"/>
     </row>
   </sheetData>
@@ -38983,49 +39214,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EF74D8-9026-466E-B120-5AD0A17FB84D}">
   <dimension ref="G2:Q41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.1328125" customWidth="1"/>
-    <col min="17" max="17" width="12.59765625" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:13" ht="25.5" x14ac:dyDescent="0.75">
+    <row r="2" spans="7:13" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G2" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="7:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="7:13" x14ac:dyDescent="0.25">
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="7:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="7:13" x14ac:dyDescent="0.25">
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="7:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="7:13" x14ac:dyDescent="0.25">
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="7:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="7:13" x14ac:dyDescent="0.25">
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="7:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="7:13" x14ac:dyDescent="0.25">
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="7:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="7:13" x14ac:dyDescent="0.25">
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="7:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="7:13" x14ac:dyDescent="0.25">
       <c r="M15" s="1"/>
     </row>
-    <row r="27" spans="17:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q27" s="1"/>
     </row>
-    <row r="34" spans="17:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q34" s="1"/>
     </row>
-    <row r="41" spans="17:17" x14ac:dyDescent="0.45">
+    <row r="41" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q41" s="1"/>
     </row>
   </sheetData>
@@ -39039,11 +39270,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E345A982-6540-41EE-AC4B-6381E6E12254}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -39054,16 +39285,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FD98BF-1A98-47CF-A1FF-974E6BB79044}">
   <dimension ref="G2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.1328125" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:7" ht="25.5" x14ac:dyDescent="0.75">
+    <row r="2" spans="7:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G2" s="8" t="s">
         <v>138</v>
       </c>
@@ -39083,61 +39314,61 @@
       <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.1328125" customWidth="1"/>
-    <col min="17" max="17" width="12.59765625" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>57</v>
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>77</v>
       </c>
       <c r="M11" s="1"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>48</v>
       </c>
@@ -39148,7 +39379,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>50</v>
       </c>
@@ -39159,7 +39390,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>51</v>
       </c>
@@ -39171,7 +39402,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>52</v>
       </c>
@@ -39179,22 +39410,22 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="Q25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D27" s="7" t="s">
         <v>90</v>
       </c>
@@ -39220,7 +39451,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="Q28" s="4" t="s">
         <v>64</v>
       </c>
@@ -39241,17 +39472,17 @@
       </c>
       <c r="W28" s="4"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D31" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="4:23" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>49</v>
       </c>
@@ -39275,42 +39506,42 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="4:23" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D34" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="4:23" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:23" x14ac:dyDescent="0.25">
       <c r="Q36" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="4:23" x14ac:dyDescent="0.45">
+    <row r="37" spans="4:23" x14ac:dyDescent="0.25">
       <c r="Q37" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="4:23" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:23" x14ac:dyDescent="0.25">
       <c r="Q38" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="4:23" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:23" x14ac:dyDescent="0.25">
       <c r="Q39" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="4:23" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:23" x14ac:dyDescent="0.25">
       <c r="Q43" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="4:23" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:23" x14ac:dyDescent="0.25">
       <c r="Q44" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="4:23" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:23" x14ac:dyDescent="0.25">
       <c r="Q45" t="s">
         <v>87</v>
       </c>
@@ -39330,13 +39561,13 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="3.3984375" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>129</v>
       </c>
@@ -39344,12 +39575,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="N3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>94</v>
       </c>
@@ -39357,7 +39588,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>95</v>
       </c>
@@ -39365,12 +39596,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>97</v>
       </c>
@@ -39378,7 +39609,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>98</v>
       </c>
@@ -39386,7 +39617,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>99</v>
       </c>
@@ -39394,7 +39625,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>100</v>
       </c>
@@ -39402,7 +39633,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>101</v>
       </c>
@@ -39410,7 +39641,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>102</v>
       </c>
@@ -39418,7 +39649,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>103</v>
       </c>
@@ -39426,7 +39657,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>136</v>
       </c>
@@ -39434,73 +39665,73 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="O16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="O17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="O18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="N20" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="M26" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="N27" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="N28" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="N29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>109</v>
       </c>
@@ -39508,37 +39739,37 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>130</v>
       </c>
@@ -39557,12 +39788,12 @@
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.86328125" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
@@ -39570,7 +39801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -39578,7 +39809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -39586,32 +39817,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N9" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>0</v>
       </c>
@@ -39619,7 +39850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>7</v>
       </c>
@@ -39627,7 +39858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>8</v>
       </c>
@@ -39635,12 +39866,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>45</v>
       </c>
@@ -39654,7 +39885,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>44</v>
       </c>
@@ -39683,7 +39914,7 @@
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -39698,55 +39929,55 @@
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F4" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F9" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F11" s="2"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
@@ -39754,7 +39985,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -39762,7 +39993,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>39</v>
       </c>
@@ -39770,7 +40001,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>42</v>
       </c>
@@ -39778,72 +40009,72 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>17</v>
       </c>

--- a/8. Harmonising standards/Harmonizing SXI-DF.xlsx
+++ b/8. Harmonising standards/Harmonizing SXI-DF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0550A66-1EA9-4FFE-9797-05B8519D94FC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B3ED86-822F-4235-80D1-0E4748058571}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4620" activeTab="3" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4620" activeTab="1" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Firmenmodell" sheetId="10" r:id="rId1"/>
@@ -446,10 +446,10 @@
     <t>09.01.2019 - Vorstellung Azure Entwicklungsmethodik (Freddy, Christina, Mike, Gerd)</t>
   </si>
   <si>
-    <t>Saxess Unternehmensmodell</t>
+    <t>Solutions</t>
   </si>
   <si>
-    <t>Solutions</t>
+    <t>Saxess Unternehmensmodell - Arbeitsorganisation mit flexiblen Rollen</t>
   </si>
 </sst>
 </file>
@@ -526,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -544,6 +544,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -8804,13 +8807,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:rowOff>146171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>109539</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>189034</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8825,7 +8828,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="352425" y="2871786"/>
+          <a:off x="356088" y="5245709"/>
           <a:ext cx="1423989" cy="804863"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8915,13 +8918,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>109538</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8937,7 +8940,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="361950" y="1800225"/>
+          <a:off x="365613" y="4232763"/>
           <a:ext cx="1414463" cy="890587"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9605,8 +9608,64 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>Product</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Architect</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>Softwareentwicklung</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -16993,16 +17052,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>454269</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>35169</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>168520</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17017,8 +17076,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="333375" y="180974"/>
-          <a:ext cx="1866900" cy="809626"/>
+          <a:off x="9744807" y="803762"/>
+          <a:ext cx="1866900" cy="844796"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17230,15 +17289,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
+      <xdr:colOff>495298</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>190499</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>183174</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17253,8 +17312,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6734174" y="276224"/>
-          <a:ext cx="2638426" cy="695325"/>
+          <a:off x="6737836" y="803762"/>
+          <a:ext cx="2743201" cy="859450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17393,6 +17452,37 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>Wöchentliches Projektmeeting mit Kunden</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Viele Meetings, aber kurz und mit wenigen Personen</a:t>
           </a:r>
           <a:endParaRPr lang="de-DE" sz="800">
             <a:solidFill>
@@ -17731,88 +17821,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>kommuniziert Ergebnisse extern (Blog)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>54219</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>146539</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>21981</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="127" name="Rechteck 126">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F433DFC-FEF0-4F85-A3D7-352810B0B424}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="241787" y="5578719"/>
-          <a:ext cx="1575290" cy="1110762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-              <a:alpha val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Produktowner</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -19098,15 +19106,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>471122</xdr:colOff>
+      <xdr:colOff>441814</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>24179</xdr:rowOff>
+      <xdr:rowOff>97448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>718040</xdr:colOff>
+      <xdr:colOff>688732</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>130418</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19121,7 +19129,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="617660" y="5695217"/>
+          <a:off x="588352" y="5768486"/>
           <a:ext cx="1008918" cy="223470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19242,6 +19250,368 @@
             </a:rPr>
             <a:t>Geschäftsführung</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>203687</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>84258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>747346</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>36635</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="Rechteck 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{987BBB9C-A145-4517-AC9B-EDB3ADBCA853}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="350225" y="802296"/>
+          <a:ext cx="4353659" cy="1476377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Was sind Rollen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Rollen</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> sind Aufgabenbereiche die ein Mitarbeiter für einen Zeitraum übernimmt </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ein Mitarbeiter übernimmt meist mehrere Rollen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Es kann mehrere Mitarbeiter für eine Rolle geben</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Aufgaben der Rolleninhaber</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Die Rollenfunktionen im Detail zu definieren</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Diese Detaildefinition im Team vorzustellen und sich Feedback dazu zu holen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Die Rolle möglichst effizient umzusetzen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Im Team zu berichten welche Probleme / Unklarheiten / Wünsche die Rolle hat</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -39214,8 +39584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EF74D8-9026-466E-B120-5AD0A17FB84D}">
   <dimension ref="G2:Q41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39225,8 +39595,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="7:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="G2" s="8" t="s">
-        <v>137</v>
+      <c r="G2" s="9" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="7:13" x14ac:dyDescent="0.25">
@@ -39285,7 +39655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FD98BF-1A98-47CF-A1FF-974E6BB79044}">
   <dimension ref="G2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A49" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
@@ -39296,7 +39666,7 @@
   <sheetData>
     <row r="2" spans="7:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G2" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/8. Harmonising standards/Harmonizing SXI-DF.xlsx
+++ b/8. Harmonising standards/Harmonizing SXI-DF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B3ED86-822F-4235-80D1-0E4748058571}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F26AC48-4D6B-4AE6-B28D-6F3EDF920D22}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4620" activeTab="1" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
   </bookViews>
@@ -19586,6 +19586,45 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Die Rolle definiert ihren Informationsbedarf aus betrieblichen Systemen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
           <a:endParaRPr lang="de-DE" sz="800" baseline="0">
             <a:solidFill>
@@ -39584,8 +39623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EF74D8-9026-466E-B120-5AD0A17FB84D}">
   <dimension ref="G2:Q41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/8. Harmonising standards/Harmonizing SXI-DF.xlsx
+++ b/8. Harmonising standards/Harmonizing SXI-DF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F26AC48-4D6B-4AE6-B28D-6F3EDF920D22}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515A9517-CB2A-45A8-897B-AB72A419284F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="4620" activeTab="1" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Firmenmodell" sheetId="10" r:id="rId1"/>
@@ -19663,16 +19663,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>690564</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>538164</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19687,8 +19687,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10172700" y="2428874"/>
-          <a:ext cx="1947864" cy="2295526"/>
+          <a:off x="15354300" y="5238749"/>
+          <a:ext cx="1947864" cy="2419351"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20242,16 +20242,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>757239</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>614364</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20266,7 +20266,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7953375" y="3219449"/>
+          <a:off x="12382500" y="7372349"/>
           <a:ext cx="1947864" cy="1981201"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20646,7 +20646,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>OCT.integration</a:t>
+            <a:t>OCT.BigETL</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -20871,16 +20871,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20895,7 +20895,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7715249" y="5838824"/>
+          <a:off x="12344399" y="5124449"/>
           <a:ext cx="2714625" cy="1981201"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21196,15 +21196,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>142877</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:colOff>628652</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
+      <xdr:colOff>695326</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21219,8 +21219,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2428877" y="2738438"/>
-          <a:ext cx="828674" cy="676275"/>
+          <a:off x="2914652" y="4300538"/>
+          <a:ext cx="828674" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -21430,16 +21430,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>176213</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21454,8 +21454,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7934326" y="900113"/>
-          <a:ext cx="828674" cy="919162"/>
+          <a:off x="8477251" y="319088"/>
+          <a:ext cx="828674" cy="976312"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -21521,16 +21521,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21545,7 +21545,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3962401" y="314325"/>
+          <a:off x="7324726" y="342900"/>
           <a:ext cx="962024" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -21877,16 +21877,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>512310</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>168047</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>655185</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>101372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>593272</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>148999</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>736147</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>82324</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21901,7 +21901,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2036310" y="4168547"/>
+          <a:off x="655185" y="6768872"/>
           <a:ext cx="1604962" cy="1314452"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22597,15 +22597,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>734786</xdr:colOff>
+      <xdr:colOff>258536</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>34017</xdr:rowOff>
+      <xdr:rowOff>24492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>39460</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>325210</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>57829</xdr:rowOff>
+      <xdr:rowOff>48304</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -22620,7 +22620,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5306786" y="6130017"/>
+          <a:off x="4830536" y="6120492"/>
           <a:ext cx="828674" cy="976312"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -22931,6 +22931,2004 @@
         </a:p>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>671512</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rechteck 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25B9C50D-C263-4281-9E88-14B08169F70B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581651" y="3200399"/>
+          <a:ext cx="1185861" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>OCT.SpETL</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rechteck 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF4D8F6-742F-4C9C-B90B-14708237565D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1362075" y="2276475"/>
+          <a:ext cx="1295400" cy="581026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>result IST</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Fakten </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dimensionen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Gerade Verbindung mit Pfeil 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10551C98-4F40-4D15-BD4F-C4A47D967036}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="1"/>
+          <a:endCxn id="51" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2676525" y="3424237"/>
+          <a:ext cx="1371601" cy="66676"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Gerade Verbindung mit Pfeil 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97E1DE24-BDE7-4FA5-B247-13BAAE6507E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="3"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2657475" y="2566988"/>
+          <a:ext cx="1352551" cy="38099"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Gerade Verbindung mit Pfeil 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C32AA4-9014-4DB6-A8A2-798521A610CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="1"/>
+          <a:endCxn id="41" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2647950" y="1900238"/>
+          <a:ext cx="1362076" cy="704849"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rechteck 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D2FC81-575B-4815-81A1-48819EC5E029}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1352550" y="1609725"/>
+          <a:ext cx="1295400" cy="581026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>result IST Adjustment</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Fakten </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dimensionen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rechteck 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2748CE81-4787-43B5-94EA-A214AC751021}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1352550" y="962025"/>
+          <a:ext cx="1295400" cy="581026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>result PLAN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Fakten </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dimensionen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Gerade Verbindung mit Pfeil 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7FAA30-77FE-4F03-BB83-FF7988F1E885}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="1"/>
+          <a:endCxn id="42" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2647950" y="1252538"/>
+          <a:ext cx="1362076" cy="1352549"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Rechteck 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276F3244-355F-44A8-9AA6-3783E1E0942A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="4171949"/>
+          <a:ext cx="2124075" cy="2476501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OCT.BigETL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>positiv</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>kann gut mit Files umgehen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>kann viele Datenquellen anbinden</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>braucht keine Verbindungsserver im SSMS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>braucht keine Sysadmin Rechte für Debugging</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>graphische Oberfläche für Prozess</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>negativ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Startzeit mehrere Sekunden</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>braucht JAVA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>keine Mehrbenutzerfähigkeit</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Implementierungsregeln</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Solutions einzeln startbar halten</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Mandanten einzeln startbar halten</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Jahre einzeln startbar halten</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Rechteck 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F723D86-C343-4330-B733-493D6F5665D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8248649" y="4171950"/>
+          <a:ext cx="2447925" cy="1419225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OCT.SpETL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>positiv</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sehr perfomant innerhalb von SQL Server</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tiefere SQL Server Funktionalität ansprechbar</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(Try-Catch, Transaktionen)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Benutzerisolation durch SQL Server</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>negativ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>braucht Verbindungsserver für externe Datenquelle</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>keine graphische Oberfläche</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Umgang mit Files schwierig</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rechteck 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF559C3-3009-4F15-B3EF-BF887C3BEFA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="295275"/>
+          <a:ext cx="1295400" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>result</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sprache der Installation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Rechteck 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF5669FC-D8EA-45D0-9BFC-76B829A591C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371474" y="4667249"/>
+          <a:ext cx="2419351" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sprache</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Standardsprache ist englisch</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Custum Tabelle in Sprache des Vorsystems</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Solutionmanger entscheidet über Sprache der Solution</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Schlüsselspalten werden immer gemäß Standardschema benannt</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rechteck 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDC37E53-3CA2-4078-8175-F45598E2FEA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="3200400"/>
+          <a:ext cx="1295400" cy="581026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>integration</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Fakten </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dimensionen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Gerade Verbindung mit Pfeil 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A231C52B-CBAB-4D84-8C1E-6B6A7C81F08C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="0"/>
+          <a:endCxn id="29" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2009775" y="2857501"/>
+          <a:ext cx="19050" cy="342899"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Rechteck 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F172D15D-288C-4AE5-9E10-EFAFAA77DBD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="2928937"/>
+          <a:ext cx="1066800" cy="242888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Copy on Success</a:t>
+          </a:r>
           <a:endParaRPr lang="de-DE" sz="800" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1">
@@ -39623,7 +41621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EF74D8-9026-466E-B120-5AD0A17FB84D}">
   <dimension ref="G2:Q41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -39679,8 +41677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E345A982-6540-41EE-AC4B-6381E6E12254}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39694,7 +41692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FD98BF-1A98-47CF-A1FF-974E6BB79044}">
   <dimension ref="G2"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A49" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
@@ -40335,7 +42333,7 @@
   <dimension ref="B2:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/8. Harmonising standards/Harmonizing SXI-DF.xlsx
+++ b/8. Harmonising standards/Harmonizing SXI-DF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515A9517-CB2A-45A8-897B-AB72A419284F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D279B3-FF23-496E-B6EE-2AC613B80395}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
   </bookViews>
@@ -19663,6 +19663,74 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>563563</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rechteck 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE47112-9913-4ABE-AB5D-C6D622B97C1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4010026" y="2381249"/>
+          <a:ext cx="3411537" cy="261939"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>OCT.integration</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>27</xdr:row>
@@ -20013,16 +20081,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>182562</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>115887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>90489</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>606426</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1588</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20037,7 +20105,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2714625" y="6076949"/>
+          <a:off x="12374562" y="496887"/>
           <a:ext cx="1947864" cy="1981201"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20242,16 +20310,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>222249</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>614364</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20266,8 +20334,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12382500" y="7372349"/>
-          <a:ext cx="1947864" cy="1981201"/>
+          <a:off x="222249" y="5491162"/>
+          <a:ext cx="4254501" cy="1981201"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20315,41 +20383,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Offene Fragen</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>primär</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Kann Carte mit Kettle auf Azure installiert werden ohne virtuelle Maschine ?</a:t>
+            <a:t>Grundprinzpien</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -20368,125 +20402,6 @@
         </a:p>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Sekundär</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Kettle als Docker Container ?</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Docker on Premises nutzen ?</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Docker auf VM ausführbar ?</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Teamviewer in den Service integrieren ?</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>alternative SAP Connectoren ?</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Kann Docker Files outside Docker erzeugen ?</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
           <a:endParaRPr lang="de-DE" sz="800" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1">
@@ -20501,6 +20416,74 @@
         </a:p>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dimensionen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>werden von Integration erstellt</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>werden von Planning in Länge (fiktive Elemente) und Breite (weitere Attribute) ergänzt</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>werden von Modellierung in der Breite (weitere Attribute) ergänzt</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
           <a:endParaRPr lang="de-DE" sz="800" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1">
@@ -20513,6 +20496,113 @@
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Fakten</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>werden von Integration mit IST Werten gefüllt</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>werden von Planning in der Länge mit weiteren Werten (ADJUSTMENT / PLAN) gefüllt</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -20520,15 +20610,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>180976</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>220664</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
+      <xdr:colOff>611187</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20543,8 +20633,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3990976" y="2743200"/>
-          <a:ext cx="3438523" cy="800100"/>
+          <a:off x="4030664" y="3246437"/>
+          <a:ext cx="3438523" cy="477837"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20588,15 +20678,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>17462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>661987</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:colOff>709612</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>84137</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20611,8 +20701,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4048126" y="3047999"/>
-          <a:ext cx="1185861" cy="419100"/>
+          <a:off x="4095751" y="2684462"/>
+          <a:ext cx="1185861" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20656,15 +20746,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>138113</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:colOff>217488</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>176214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>652463</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>80964</xdr:rowOff>
+      <xdr:colOff>731838</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20679,8 +20769,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3948113" y="4581526"/>
-          <a:ext cx="1276350" cy="385763"/>
+          <a:off x="4027488" y="4557714"/>
+          <a:ext cx="1276350" cy="276224"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20732,15 +20822,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>581026</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>39688</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>352426</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>296863</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20755,8 +20845,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5153026" y="1190625"/>
-          <a:ext cx="1295400" cy="257175"/>
+          <a:off x="4611688" y="214312"/>
+          <a:ext cx="1781175" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20793,77 +20883,9 @@
           </a:r>
           <a:r>
             <a:rPr lang="de-DE" sz="1400" b="1" baseline="0"/>
-            <a:t> 5.0</a:t>
+            <a:t> 5.0 Konzeption</a:t>
           </a:r>
           <a:endParaRPr lang="de-DE" sz="1400" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rechteck 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE47112-9913-4ABE-AB5D-C6D622B97C1C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4010026" y="2381249"/>
-          <a:ext cx="1142999" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>OCT.planning</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -21195,16 +21217,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>628652</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>366714</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>695326</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>433388</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21219,7 +21241,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2914652" y="4300538"/>
+          <a:off x="8748714" y="2927350"/>
           <a:ext cx="828674" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -21286,92 +21308,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>638176</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>169863</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>147638</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Rechteck 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60EA38B7-A093-4452-BA97-7C3F62D33B2A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5210176" y="2400300"/>
-          <a:ext cx="571500" cy="414338"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>DF</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>547688</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21386,8 +21332,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4019551" y="1847849"/>
-          <a:ext cx="1142999" cy="447675"/>
+          <a:off x="3979863" y="561974"/>
+          <a:ext cx="3425825" cy="501651"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21430,16 +21376,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:rowOff>144463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>134938</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21454,8 +21400,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8477251" y="319088"/>
-          <a:ext cx="828674" cy="976312"/>
+          <a:off x="9501188" y="334963"/>
+          <a:ext cx="828674" cy="942975"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -21521,14 +21467,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>466726</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>53976</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -21545,7 +21491,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7324726" y="342900"/>
+          <a:off x="8435976" y="342900"/>
           <a:ext cx="962024" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -21595,7 +21541,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Azure Monitoring</a:t>
+            <a:t>Monitoring</a:t>
           </a:r>
           <a:endParaRPr lang="de-DE" sz="1100">
             <a:solidFill>
@@ -21612,16 +21558,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>271463</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>469901</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>695327</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>131765</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21636,8 +21582,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10177463" y="1362075"/>
-          <a:ext cx="1947864" cy="838201"/>
+          <a:off x="6565901" y="7786687"/>
+          <a:ext cx="1947864" cy="885826"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21802,15 +21748,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:colOff>206376</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>84139</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>23814</xdr:rowOff>
+      <xdr:colOff>720726</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>127002</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21825,8 +21771,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3952876" y="4333876"/>
-          <a:ext cx="1276350" cy="214313"/>
+          <a:off x="4016376" y="4275139"/>
+          <a:ext cx="1276350" cy="233363"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21877,16 +21823,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>655185</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>101372</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504372</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>188685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>736147</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>82324</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>585334</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>169637</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21901,7 +21847,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="655185" y="6768872"/>
+          <a:off x="9648372" y="2284185"/>
           <a:ext cx="1604962" cy="1314452"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22115,15 +22061,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:colOff>82551</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>84137</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>69057</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:colOff>116682</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>84139</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -22135,14 +22081,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="2"/>
-          <a:endCxn id="33" idx="0"/>
+          <a:stCxn id="33" idx="0"/>
+          <a:endCxn id="11" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4591051" y="3467099"/>
-          <a:ext cx="50006" cy="866777"/>
+        <a:xfrm flipV="1">
+          <a:off x="4654551" y="3132137"/>
+          <a:ext cx="34131" cy="1143002"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -22171,15 +22117,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>114301</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:rowOff>25399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>594213</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>73024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -22194,8 +22140,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4686300" y="3795712"/>
-          <a:ext cx="1241913" cy="400050"/>
+          <a:off x="4686301" y="3835399"/>
+          <a:ext cx="1028700" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22521,15 +22467,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>138113</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:colOff>217488</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>117476</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>652463</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>731838</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -22544,7 +22490,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3948113" y="5276851"/>
+          <a:off x="4027488" y="4879976"/>
           <a:ext cx="1276350" cy="171449"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22596,16 +22542,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>258536</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>24492</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>147411</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>87992</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>325210</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>48304</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>214085</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>111804</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -22620,7 +22566,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4830536" y="6120492"/>
+          <a:off x="5481411" y="5612492"/>
           <a:ext cx="828674" cy="976312"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -22687,16 +22633,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>288471</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447221</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>188911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>717096</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>113846</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>74612</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -22711,7 +22657,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4860471" y="8943974"/>
+          <a:off x="3495221" y="7808911"/>
           <a:ext cx="2714625" cy="1981201"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22964,15 +22910,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:colOff>723902</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>671512</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>385763</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -22987,7 +22933,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5581651" y="3200399"/>
+          <a:off x="6057902" y="2676524"/>
           <a:ext cx="1185861" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -23031,16 +22977,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>31751</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -23055,7 +23001,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1362075" y="2276475"/>
+          <a:off x="203200" y="2308225"/>
           <a:ext cx="1295400" cy="581026"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -23138,7 +23084,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Dimensionen</a:t>
+            <a:t>mehrere Tabellen für integration und planning</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -23169,6 +23115,20 @@
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -23176,15 +23136,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:colOff>708025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>125413</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -23202,8 +23162,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2676525" y="3424237"/>
-          <a:ext cx="1371601" cy="66676"/>
+          <a:off x="2994025" y="2908300"/>
+          <a:ext cx="1101726" cy="836613"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -23231,16 +23191,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
+      <xdr:colOff>185739</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -23252,14 +23212,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="29" idx="3"/>
-          <a:endCxn id="16" idx="1"/>
+          <a:stCxn id="58" idx="3"/>
+          <a:endCxn id="45" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2657475" y="2566988"/>
-          <a:ext cx="1352551" cy="38099"/>
+        <a:xfrm flipV="1">
+          <a:off x="3175000" y="1752601"/>
+          <a:ext cx="820739" cy="847724"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -23287,16 +23247,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>735012</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>185738</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:colOff>185739</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -23308,14 +23268,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="16" idx="1"/>
+          <a:stCxn id="45" idx="1"/>
           <a:endCxn id="41" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2647950" y="1900238"/>
-          <a:ext cx="1362076" cy="704849"/>
+        <a:xfrm flipH="1">
+          <a:off x="1497012" y="1752601"/>
+          <a:ext cx="2498727" cy="187324"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -23343,16 +23303,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>201612</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>125412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>735012</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:rowOff>134938</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -23367,7 +23327,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1352550" y="1609725"/>
+          <a:off x="201612" y="1649412"/>
           <a:ext cx="1295400" cy="581026"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -23487,16 +23447,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>201612</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>49212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>735012</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:rowOff>58738</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -23511,7 +23471,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1352550" y="962025"/>
+          <a:off x="201612" y="1001712"/>
           <a:ext cx="1295400" cy="581026"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -23631,16 +23591,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>735012</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:colOff>185739</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -23652,14 +23612,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="16" idx="1"/>
+          <a:stCxn id="45" idx="1"/>
           <a:endCxn id="42" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2647950" y="1252538"/>
-          <a:ext cx="1362076" cy="1352549"/>
+          <a:off x="1497012" y="1292225"/>
+          <a:ext cx="2498727" cy="460376"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -23687,16 +23647,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>696911</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>179387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>534986</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>179388</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -23711,7 +23671,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5895975" y="4171949"/>
+          <a:off x="6792911" y="4370387"/>
           <a:ext cx="2124075" cy="2476501"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -24049,16 +24009,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>628649</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>684212</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>84137</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -24073,8 +24033,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8248649" y="4171950"/>
-          <a:ext cx="2447925" cy="1419225"/>
+          <a:off x="9066212" y="4394200"/>
+          <a:ext cx="2447925" cy="1606550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24440,15 +24400,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:colOff>196849</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>136524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -24463,8 +24423,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="371474" y="4667249"/>
-          <a:ext cx="2419351" cy="1057275"/>
+          <a:off x="196849" y="4222749"/>
+          <a:ext cx="2755901" cy="1057275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24546,7 +24506,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Custum Tabelle in Sprache des Vorsystems</a:t>
+            <a:t>Custom Tabelle in Sprache des Vorsystems</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -24580,7 +24540,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>- Schlüsselspalten werden immer gemäß Standardschema benannt</a:t>
+            <a:t>Schlüsselspalten (Mandant, Kostenstelle, Sachkonto...) werden immer gemäß Konvention der Basissolution ReWe benannt</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -24659,16 +24619,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:colOff>708025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>34926</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -24683,7 +24643,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1381125" y="3200400"/>
+          <a:off x="1698625" y="3454400"/>
           <a:ext cx="1295400" cy="581026"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -24803,16 +24763,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -24825,13 +24785,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="51" idx="0"/>
-          <a:endCxn id="29" idx="2"/>
+          <a:endCxn id="58" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2009775" y="2857501"/>
-          <a:ext cx="19050" cy="342899"/>
+        <a:xfrm flipV="1">
+          <a:off x="2346325" y="2890838"/>
+          <a:ext cx="180975" cy="563562"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -24860,15 +24820,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>385761</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>87311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>642936</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>55562</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -24883,8 +24843,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2076450" y="2928937"/>
-          <a:ext cx="1066800" cy="242888"/>
+          <a:off x="1909761" y="2944811"/>
+          <a:ext cx="1781175" cy="349251"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24927,8 +24887,486 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Copy on Success</a:t>
-          </a:r>
+            <a:t>Copy on Success durch Agent per POST</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Integation Key  merken</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>731838</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561748</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>87992</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Gerade Verbindung mit Pfeil 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95763BE-FF50-4162-8010-270D29D040DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="1"/>
+          <a:endCxn id="12" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5303838" y="4695826"/>
+          <a:ext cx="591910" cy="916666"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>185739</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>55563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>547688</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>20638</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rechteck 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{991B8228-7E31-47AE-841E-DD146F2F2791}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3995739" y="1198563"/>
+          <a:ext cx="3409949" cy="1108075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>OCT.planning</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>265112</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>182562</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Rechteck 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77D5DF94-897B-4AF2-A023-CC9D220EE2B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4075112" y="1531938"/>
+          <a:ext cx="2592387" cy="746124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MandatenFactory</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> pro Mandant</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/ ein Globalmandant</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Kontenplan</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Kostenstellenplan</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Mitarbeiter</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Rechte</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="800" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>630237</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>30162</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>134938</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Rechteck 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D42DB0-8B02-456D-A447-C636E2344732}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8250237" y="3689350"/>
+          <a:ext cx="2447925" cy="636588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sicherungsstrategie</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Datenbank</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Wiederherstellungsmodell einfach</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tägliches Full Backup mit 3 Monaten Aufbewahrung</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tagsüber stündliches Full Backup mit 24 h Aufbewahrung</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
           <a:endParaRPr lang="de-DE" sz="800" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1">
@@ -24943,7 +25381,1109 @@
         </a:p>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Rechteck 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A04520CC-CB82-45E2-A0CE-B004AC60B608}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1879600" y="2309812"/>
+          <a:ext cx="1295400" cy="581026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>result IST</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dimensionen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>eine Tabelle für integration und planning</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
           <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>188911</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>515938</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>182564</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Rechteck 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF03467D-93C9-4D7E-85F6-215B1D6DFCE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="188911" y="3017836"/>
+          <a:ext cx="1089027" cy="212728"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Copy mit Keytausch</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Gerade Verbindung mit Pfeil 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02D75C48-FA32-4823-84C2-5B92DB959474}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="0"/>
+          <a:endCxn id="29" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="850900" y="2889251"/>
+          <a:ext cx="1495425" cy="565149"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>627063</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>74611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>319088</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>96839</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="Rechteck 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{466B8883-3C32-4237-830D-E0E999C075E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="627063" y="3313111"/>
+          <a:ext cx="1216025" cy="212728"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tür für Agent - offen / zu</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>735012</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>169863</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Gerade Verbindung mit Pfeil 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{922F7204-FF75-4FEB-A9B5-7DCF08237745}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="3"/>
+          <a:endCxn id="27" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1497012" y="812800"/>
+          <a:ext cx="2482851" cy="479425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12698</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>103187</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="Rechteck 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9337F9B0-BFDB-49F2-88C6-95EB268796E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2105026" y="393698"/>
+          <a:ext cx="1728787" cy="471489"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Zugang über Stored Procedures</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- prüfen Agentenstatus für IST / PLAN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Rechtekonzept</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>87310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>55561</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Rechteck 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0BA2925-E41C-4528-9530-31C9B117F731}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8977312" y="7135810"/>
+          <a:ext cx="3357563" cy="3587751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Zwei Referenzdatenbanken, beide erzeugbar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> extern als Vorsystem oder als fertiger Datenbestand im Integration Schema</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Viele kleine Mandanten</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>100 Mandanten</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>jeder 300 Konten</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>jeder 50 KST</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>jeder 5 Jahre</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>10 tsd Fakten pro Mdt und Jahr</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20 % der Buchungen mit IC Partner (20 verschiedene)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ein Riesenmandant</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ein Mandant</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5.000 Konten</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5.000 Kostenstellen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>50.000 Kostenträger</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>150 Millionen Buchungen pro Jahr</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>10 % IC Partnercodes  (5 verschiedene)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Fragen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Wie hoch ist Performancegewinn von Staging Files</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Welchen Effekt haben IDs in der Faktentabelle</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Wie lang dauert ein Datenbankbackup</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Wie lang dauert die Übertragung in das result Schema</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Result Übertrag per Kettle vs. Stored Procedure</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="50000"/>
@@ -25354,16 +26894,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>55419</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>704851</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>135947</xdr:rowOff>
+      <xdr:rowOff>153265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>398318</xdr:colOff>
+      <xdr:colOff>424295</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>34636</xdr:rowOff>
+      <xdr:rowOff>51954</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -25378,8 +26918,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1730954" y="642504"/>
-          <a:ext cx="1104899" cy="444212"/>
+          <a:off x="1614056" y="681470"/>
+          <a:ext cx="1243444" cy="470189"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25412,7 +26952,14 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="de-DE" sz="1100" b="1"/>
-            <a:t>Kontoplanung Mastersolution</a:t>
+            <a:t>Mastersolution</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1"/>
+            <a:t>Rechnungswesen</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -41677,8 +43224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E345A982-6540-41EE-AC4B-6381E6E12254}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41693,7 +43240,7 @@
   <dimension ref="G2"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/8. Harmonising standards/Harmonizing SXI-DF.xlsx
+++ b/8. Harmonising standards/Harmonizing SXI-DF.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D279B3-FF23-496E-B6EE-2AC613B80395}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D60223-5ADF-4248-A4BB-6D9835130D96}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{16C57660-5F26-45F7-8E47-1B4877DEBD5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Firmenmodell" sheetId="10" r:id="rId1"/>
     <sheet name="Rollen" sheetId="5" r:id="rId2"/>
-    <sheet name="Software" sheetId="11" r:id="rId3"/>
-    <sheet name="Solutions" sheetId="12" r:id="rId4"/>
-    <sheet name="Rollen_Backup" sheetId="9" r:id="rId5"/>
-    <sheet name="Schritte" sheetId="8" r:id="rId6"/>
-    <sheet name="Zielstellung_Detail" sheetId="2" r:id="rId7"/>
-    <sheet name="Datenstruktur" sheetId="1" r:id="rId8"/>
-    <sheet name="Prozess" sheetId="3" r:id="rId9"/>
+    <sheet name="Solutions" sheetId="12" r:id="rId3"/>
+    <sheet name="Rollen_Backup" sheetId="9" r:id="rId4"/>
+    <sheet name="Schritte" sheetId="8" r:id="rId5"/>
+    <sheet name="Zielstellung_Detail" sheetId="2" r:id="rId6"/>
+    <sheet name="Datenstruktur" sheetId="1" r:id="rId7"/>
+    <sheet name="Prozess" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -19663,6849 +19662,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>563563</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rechteck 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE47112-9913-4ABE-AB5D-C6D622B97C1C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4010026" y="2381249"/>
-          <a:ext cx="3411537" cy="261939"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>OCT.integration</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>538164</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rechteck 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8C22C73-7547-4E08-B719-0533C75F79F8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15354300" y="5238749"/>
-          <a:ext cx="1947864" cy="2419351"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-              <a:alpha val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>OCT Dienst</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Reine Web GUI</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>führt ETL Pakekte aus</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>prüft Lizenz</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ermöglicht Paket Download</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ermöglicht Paket Upload für Backup</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:prstClr val="black">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:prstClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ermöglicht  Upload DB Schema ?</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ermöglicht Monitoring</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>hat Taskplan</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Tabellenanzeige </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ggf. Tabellenpflege</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Modellierung</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Admin Zugang ermöglichen</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Mehrsprachige GUI</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>182562</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>115887</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>606426</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1588</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rechteck 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31084222-7DE0-497D-A000-707D5284B8BF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12374562" y="496887"/>
-          <a:ext cx="1947864" cy="1981201"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-              <a:alpha val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Datenbank</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>SQL 2016 Vorraussetzung</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>DB-only Speicherung aller Parameter</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>nutzt Schemas</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>JSON Option für Attribute</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Pakete erzeugen Tabellen</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Tabellen erzeugen Dokumentation</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>result in Landessprache ?</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>222249</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rechteck 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{568869FE-96FF-4F31-AB08-C32AF5B51309}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="222249" y="5491162"/>
-          <a:ext cx="4254501" cy="1981201"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-              <a:alpha val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Grundprinzpien</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Dimensionen</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>werden von Integration erstellt</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>werden von Planning in Länge (fiktive Elemente) und Breite (weitere Attribute) ergänzt</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>werden von Modellierung in der Breite (weitere Attribute) ergänzt</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Fakten</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>werden von Integration mit IST Werten gefüllt</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>werden von Planning in der Länge mit weiteren Werten (ADJUSTMENT / PLAN) gefüllt</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>220664</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>7937</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>611187</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rechteck 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEEDD197-18FD-4831-9BDE-B9B0D5D945E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4030664" y="3246437"/>
-          <a:ext cx="3438523" cy="477837"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>OCT Service</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>17462</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>709612</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>84137</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rechteck 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F27AA98C-45F5-4FAA-9022-CDAABD983CB5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4095751" y="2684462"/>
-          <a:ext cx="1185861" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>OCT.BigETL</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>217488</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>176214</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>731838</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rechteck 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809A1C88-679E-4500-9E38-1307B64BB9A1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4027488" y="4557714"/>
-          <a:ext cx="1276350" cy="276224"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>Kettle (Files)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>39688</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>296863</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Textfeld 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03759479-5E64-4E1E-8056-0FDB35B46CBD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4611688" y="214312"/>
-          <a:ext cx="1781175" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400" b="1"/>
-            <a:t>OCT</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400" b="1" baseline="0"/>
-            <a:t> 5.0 Konzeption</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1400" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rechteck 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{733E88BD-A99B-45BE-8D72-60766580EDE8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12344399" y="5124449"/>
-          <a:ext cx="2714625" cy="1981201"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-              <a:alpha val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Vorbereitung</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:prstClr val="black">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:prstClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Dienstbenutzer mit dbcreator Rechten auf TargetServer</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Offene Fragen</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Installation Dienst (Benutzer, http(s),Port</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Dienst erzeugt Datenbank</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Dienst führt Initialisierungspaket aus</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Anmeldung an Logik Server</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Pakete laden </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Pakekte aktivieren (Tabellen, Views, SP, Kettle Pakekte)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>366714</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>433388</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Flussdiagramm: Magnetplattenspeicher 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773236E1-F4D4-4C96-B18F-8A179F54DA65}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8748714" y="2927350"/>
-          <a:ext cx="828674" cy="704850"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>OCT DB</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="85000"/>
-                <a:lumOff val="15000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>169863</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>547688</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Rechteck 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D9EA496-10D5-43A4-BDEC-B8BA67555014}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3979863" y="561974"/>
-          <a:ext cx="3425825" cy="501651"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>OCT.visual</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>144463</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>423862</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>134938</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Flussdiagramm: Magnetplattenspeicher 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D80583-AD35-4F39-BF79-898EA984F856}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9501188" y="334963"/>
-          <a:ext cx="828674" cy="942975"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Logik &amp; License</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="85000"/>
-                <a:lumOff val="15000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>53976</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Flussdiagramm: Magnetplattenspeicher 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ABB97C6-AE8A-4902-9A8F-FD74E67FDFDD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8435976" y="342900"/>
-          <a:ext cx="962024" cy="923925"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Monitoring</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="85000"/>
-                <a:lumOff val="15000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>469901</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>131765</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Rechteck 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84AE8EFF-2DBA-4079-A4DA-2D3559B8F8A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6565901" y="7786687"/>
-          <a:ext cx="1947864" cy="885826"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-              <a:alpha val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Aktuell</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> nervige Punkte</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="800" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Zugang schwierig, nur über Admin</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Monitoring Infos fehlen</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Download von Strato pro Kunde einzeln</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>JAVA Update zerstört oft Pfade</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>206376</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>84139</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>720726</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>127002</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Rechteck 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340ECFAC-BF03-4EBA-8838-D65D71A89133}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4016376" y="4275139"/>
-          <a:ext cx="1276350" cy="233363"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>Webservice carte</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>504372</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>188685</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>585334</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>169637</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Rechteck 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{272D8DC6-2661-47FB-95CA-E41FEF3166D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9648372" y="2284185"/>
-          <a:ext cx="1604962" cy="1314452"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="900" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Filesystem</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="900">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Paket</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- SQL Create Table</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- SQL Create Table</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="900" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> Docu</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="900" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- SQL Create Index</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="900">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="900" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> Kettle Transformation</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="900">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>82551</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>84137</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>116682</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>84139</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Gerade Verbindung mit Pfeil 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E84AD6-674F-45FE-BE51-41202805EFE7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="33" idx="0"/>
-          <a:endCxn id="11" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4654551" y="3132137"/>
-          <a:ext cx="34131" cy="1143002"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>25399</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>73024</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Textfeld 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3B9E51E-1A85-4F0C-B2D7-017A8574AE9C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4686301" y="3835399"/>
-          <a:ext cx="1028700" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Call</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> Service</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>XML Jobdefinition</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>90486</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>595314</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Rechteck 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7491695-6F57-49AA-B31B-34576F71941F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12363450" y="2443161"/>
-          <a:ext cx="1947864" cy="2295526"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-              <a:alpha val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Installationsvarianten</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>beschreiben</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>481014</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Rechteck 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B8C63F-B222-487F-BC5A-BD85EA7A461A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14535150" y="2457449"/>
-          <a:ext cx="1947864" cy="2295526"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-              <a:alpha val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Langfristige</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> Zielstellung</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="800" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>beschreiben</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>217488</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>117476</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>731838</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Rechteck 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C310D2C-343D-4D68-A92E-5D505C41AC9A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4027488" y="4879976"/>
-          <a:ext cx="1276350" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>Java</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>147411</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>87992</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>214085</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>111804</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Flussdiagramm: Magnetplattenspeicher 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7831D8D-5807-41F6-9AB1-8DCF7D6CF510}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5481411" y="5612492"/>
-          <a:ext cx="828674" cy="976312"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Vorsystem</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="85000"/>
-                <a:lumOff val="15000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>447221</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>188911</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>113846</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>74612</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Rechteck 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B8A900C-809D-48EE-A497-1EBF6DA8069C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3495221" y="7808911"/>
-          <a:ext cx="2714625" cy="1981201"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-              <a:alpha val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Konzeption</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="0" lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:prstClr val="black">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:prstClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>kein Runall Job mehr</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>OCT ruft einzelne Jobs auf</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>höhere Modularität</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Möglichkeit einzelne Mandanten aufzurufen</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Möglichkeit einzelne Zeitperioden zu laden</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Granularität - Job pro Mandant und Jahr, ggf. deltafähig</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>723902</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>385763</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Rechteck 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25B9C50D-C263-4281-9E88-14B08169F70B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6057902" y="2676524"/>
-          <a:ext cx="1185861" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>OCT.SpETL</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>31751</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Rechteck 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF4D8F6-742F-4C9C-B90B-14708237565D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="203200" y="2308225"/>
-          <a:ext cx="1295400" cy="581026"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-              <a:alpha val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>result IST</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Fakten </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>mehrere Tabellen für integration und planning</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>708025</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>125413</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Gerade Verbindung mit Pfeil 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10551C98-4F40-4D15-BD4F-C4A47D967036}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="1"/>
-          <a:endCxn id="51" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2994025" y="2908300"/>
-          <a:ext cx="1101726" cy="836613"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>185739</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Gerade Verbindung mit Pfeil 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97E1DE24-BDE7-4FA5-B247-13BAAE6507E9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="58" idx="3"/>
-          <a:endCxn id="45" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3175000" y="1752601"/>
-          <a:ext cx="820739" cy="847724"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>735012</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>185739</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Gerade Verbindung mit Pfeil 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C32AA4-9014-4DB6-A8A2-798521A610CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="45" idx="1"/>
-          <a:endCxn id="41" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1497012" y="1752601"/>
-          <a:ext cx="2498727" cy="187324"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>201612</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>125412</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>735012</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>134938</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Rechteck 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D2FC81-575B-4815-81A1-48819EC5E029}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="201612" y="1649412"/>
-          <a:ext cx="1295400" cy="581026"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-              <a:alpha val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>result IST Adjustment</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Fakten </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Dimensionen</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>201612</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>49212</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>735012</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>58738</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Rechteck 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2748CE81-4787-43B5-94EA-A214AC751021}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="201612" y="1001712"/>
-          <a:ext cx="1295400" cy="581026"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-              <a:alpha val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>result PLAN</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Fakten </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Dimensionen</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>735012</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>185739</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="Gerade Verbindung mit Pfeil 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7FAA30-77FE-4F03-BB83-FF7988F1E885}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="45" idx="1"/>
-          <a:endCxn id="42" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1497012" y="1292225"/>
-          <a:ext cx="2498727" cy="460376"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>696911</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>179387</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>534986</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>179388</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Rechteck 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276F3244-355F-44A8-9AA6-3783E1E0942A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6792911" y="4370387"/>
-          <a:ext cx="2124075" cy="2476501"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-              <a:alpha val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>OCT.BigETL</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>positiv</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>kann gut mit Files umgehen</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>kann viele Datenquellen anbinden</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>braucht keine Verbindungsserver im SSMS</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>braucht keine Sysadmin Rechte für Debugging</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>graphische Oberfläche für Prozess</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>negativ</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Startzeit mehrere Sekunden</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>braucht JAVA</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>keine Mehrbenutzerfähigkeit</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Implementierungsregeln</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Solutions einzeln startbar halten</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Mandanten einzeln startbar halten</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Jahre einzeln startbar halten</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>684212</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>84137</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Rechteck 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F723D86-C343-4330-B733-493D6F5665D4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9066212" y="4394200"/>
-          <a:ext cx="2447925" cy="1606550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-              <a:alpha val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>OCT.SpETL</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>positiv</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Sehr perfomant innerhalb von SQL Server</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>tiefere SQL Server Funktionalität ansprechbar</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(Try-Catch, Transaktionen)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Benutzerisolation durch SQL Server</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>negativ</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>braucht Verbindungsserver für externe Datenquelle</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>keine graphische Oberfläche</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Umgang mit Files schwierig</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" b="0" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Rechteck 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF559C3-3009-4F15-B3EF-BF887C3BEFA6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="266700" y="295275"/>
-          <a:ext cx="1295400" cy="466725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-              <a:alpha val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>result</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Sprache der Installation</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>196849</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>136524</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Rechteck 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF5669FC-D8EA-45D0-9BFC-76B829A591C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="196849" y="4222749"/>
-          <a:ext cx="2755901" cy="1057275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-              <a:alpha val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Sprache</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Standardsprache ist englisch</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Custom Tabelle in Sprache des Vorsystems</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Solutionmanger entscheidet über Sprache der Solution</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Schlüsselspalten (Mandant, Kostenstelle, Sachkonto...) werden immer gemäß Konvention der Basissolution ReWe benannt</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>174625</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>708025</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>34926</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Rechteck 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDC37E53-3CA2-4078-8175-F45598E2FEA4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1698625" y="3454400"/>
-          <a:ext cx="1295400" cy="581026"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-              <a:alpha val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>integration</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Fakten </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Dimensionen</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>60325</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="Gerade Verbindung mit Pfeil 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A231C52B-CBAB-4D84-8C1E-6B6A7C81F08C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="51" idx="0"/>
-          <a:endCxn id="58" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2346325" y="2890838"/>
-          <a:ext cx="180975" cy="563562"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>385761</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>87311</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>642936</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>55562</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Rechteck 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F172D15D-288C-4AE5-9E10-EFAFAA77DBD3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1909761" y="2944811"/>
-          <a:ext cx="1781175" cy="349251"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Copy on Success durch Agent per POST</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Integation Key  merken</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>731838</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>561748</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>87992</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Gerade Verbindung mit Pfeil 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95763BE-FF50-4162-8010-270D29D040DD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="24" idx="1"/>
-          <a:endCxn id="12" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5303838" y="4695826"/>
-          <a:ext cx="591910" cy="916666"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>185739</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>55563</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>547688</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>20638</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Rechteck 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{991B8228-7E31-47AE-841E-DD146F2F2791}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3995739" y="1198563"/>
-          <a:ext cx="3409949" cy="1108075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>OCT.planning</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>265112</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>7938</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>182562</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Rechteck 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77D5DF94-897B-4AF2-A023-CC9D220EE2B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4075112" y="1531938"/>
-          <a:ext cx="2592387" cy="746124"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-              <a:alpha val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>MandatenFactory</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> pro Mandant</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>/ ein Globalmandant</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- Kontenplan</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- Kostenstellenplan</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- Mitarbeiter</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- Rechte</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="800" b="0" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" b="0" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>630237</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>30162</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>134938</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="Rechteck 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D42DB0-8B02-456D-A447-C636E2344732}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8250237" y="3689350"/>
-          <a:ext cx="2447925" cy="636588"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-              <a:alpha val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Sicherungsstrategie</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> Datenbank</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="800" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Wiederherstellungsmodell einfach</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Tägliches Full Backup mit 3 Monaten Aufbewahrung</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Tagsüber stündliches Full Backup mit 24 h Aufbewahrung</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="800" b="0" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="Rechteck 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A04520CC-CB82-45E2-A0CE-B004AC60B608}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1879600" y="2309812"/>
-          <a:ext cx="1295400" cy="581026"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-